--- a/School Budgets Project/Maryland Counties, Education Budgets.xlsx
+++ b/School Budgets Project/Maryland Counties, Education Budgets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Documents\GitHub\CNS Digital Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Documents\GitHub\CNS Digital Materials\School Budgets Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{BA083DB7-97F5-4C08-8B05-A13688CF9AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2339186F-C407-4D1C-83E8-D2B24DF70DBB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{B5F3A960-6CF0-41EE-8C66-1F59668E5323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB9E79EF-51C7-4A7D-9D0F-BF2601E3364F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{62C6EF42-4345-4CDB-94D5-D5BE232BAF2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{62C6EF42-4345-4CDB-94D5-D5BE232BAF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Maryland Counties, Ed Budgets" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -479,7 +480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -663,7 +664,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1050,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC19D3-E0B8-48D9-84CF-6EEA978055E3}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1214,10 +1215,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="8">
         <v>6</v>
@@ -1226,915 +1227,915 @@
         <v>53</v>
       </c>
       <c r="E4" s="10">
-        <v>70975</v>
+        <v>29163</v>
       </c>
       <c r="F4" s="10">
-        <v>160139569</v>
+        <v>59252419</v>
       </c>
       <c r="G4" s="10">
-        <v>105195752</v>
+        <v>25515030</v>
       </c>
       <c r="H4" s="10">
-        <v>11518499</v>
+        <v>4680200</v>
       </c>
       <c r="I4" s="11">
-        <v>65.69</v>
+        <v>43.06</v>
       </c>
       <c r="J4" s="11">
-        <v>7.19</v>
+        <v>7.9</v>
       </c>
       <c r="K4" s="16">
-        <v>62682</v>
+        <v>28423</v>
       </c>
       <c r="L4" s="16">
-        <v>5815</v>
+        <v>302</v>
       </c>
       <c r="M4" s="16">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N4" s="15">
-        <v>817</v>
+        <v>113</v>
       </c>
       <c r="O4" s="16">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="15">
-        <v>69654</v>
+        <v>28807</v>
       </c>
       <c r="R4" s="15">
-        <v>1321</v>
+        <v>356</v>
       </c>
       <c r="S4" s="27">
-        <v>8629</v>
+        <v>3811</v>
       </c>
       <c r="T4" s="28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U4" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V4" s="28">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="W4" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="X4" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>3674</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>96.4</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="AD4" s="28">
         <v>1</v>
-      </c>
-      <c r="X4" s="28">
-        <v>284</v>
-      </c>
-      <c r="Y4" s="29">
-        <v>3.3</v>
-      </c>
-      <c r="Z4" s="27">
-        <v>7591</v>
-      </c>
-      <c r="AA4" s="29">
-        <v>88</v>
-      </c>
-      <c r="AB4" s="28">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="29">
-        <v>1.4</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>3</v>
       </c>
       <c r="AE4" s="29">
         <v>0</v>
       </c>
       <c r="AF4" s="28">
         <f>RANK(AA4,$AA$4:$AA$27,1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" s="11">
-        <f>($E$4/$E$28)*100</f>
-        <v>1.17455423205253</v>
+        <f>(E4/$E$28)*100</f>
+        <v>3.2071641292059456</v>
       </c>
       <c r="AH4" s="11">
         <f>(F4/$F$28)*100</f>
-        <v>0.99590475480721785</v>
+        <v>2.504186935277656</v>
       </c>
       <c r="AI4" s="11">
         <f>F4/E4</f>
-        <v>2256.2813525889396</v>
+        <v>2031.7669306998594</v>
       </c>
       <c r="AJ4" s="11">
         <f>F4/S4</f>
-        <v>18558.299802989917</v>
+        <v>15547.735240094464</v>
       </c>
       <c r="AK4" s="11">
         <f>(K4/E4)*100</f>
-        <v>88.315604085945751</v>
+        <v>97.46253814765285</v>
       </c>
       <c r="AL4" s="11">
         <f>(L4/E4)*100</f>
-        <v>8.1930257132793241</v>
+        <v>1.0355587559578918</v>
       </c>
       <c r="AM4" s="11">
         <f>(N4/E4)*100</f>
-        <v>1.1511095456146532</v>
+        <v>0.38747728285841648</v>
       </c>
       <c r="AN4" s="11">
         <f>(R4/E4)*100</f>
-        <v>1.8612187389926031</v>
+        <v>1.2207248911291706</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="26.25">
       <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="10">
-        <v>576031</v>
+        <v>70975</v>
       </c>
       <c r="F5" s="10">
-        <v>1428852510</v>
+        <v>160139569</v>
       </c>
       <c r="G5" s="10">
-        <v>447460065</v>
+        <v>105195752</v>
       </c>
       <c r="H5" s="10">
-        <v>58770535</v>
+        <v>11518499</v>
       </c>
       <c r="I5" s="11">
-        <v>31.32</v>
+        <v>65.69</v>
       </c>
       <c r="J5" s="11">
-        <v>4.1100000000000003</v>
+        <v>7.19</v>
       </c>
       <c r="K5" s="16">
-        <v>427188</v>
+        <v>62682</v>
       </c>
       <c r="L5" s="16">
-        <v>102870</v>
+        <v>5815</v>
       </c>
       <c r="M5" s="16">
-        <v>2543</v>
+        <v>147</v>
       </c>
       <c r="N5" s="15">
-        <v>24227</v>
+        <v>817</v>
       </c>
       <c r="O5" s="16">
-        <v>705</v>
+        <v>46</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="15">
-        <v>529469</v>
+        <v>69654</v>
       </c>
       <c r="R5" s="15">
-        <v>46562</v>
+        <v>1321</v>
       </c>
       <c r="S5" s="27">
-        <v>82777</v>
+        <v>8629</v>
       </c>
       <c r="T5" s="28">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="U5" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V5" s="27">
-        <v>3088</v>
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="28">
+        <v>82</v>
       </c>
       <c r="W5" s="29">
-        <v>3.7</v>
-      </c>
-      <c r="X5" s="27">
-        <v>17296</v>
+        <v>1</v>
+      </c>
+      <c r="X5" s="28">
+        <v>284</v>
       </c>
       <c r="Y5" s="29">
-        <v>20.9</v>
+        <v>3.3</v>
       </c>
       <c r="Z5" s="27">
-        <v>44631</v>
+        <v>7591</v>
       </c>
       <c r="AA5" s="29">
-        <v>53.9</v>
-      </c>
-      <c r="AB5" s="27">
-        <v>12276</v>
+        <v>88</v>
+      </c>
+      <c r="AB5" s="28">
+        <v>122</v>
       </c>
       <c r="AC5" s="29">
-        <v>14.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD5" s="28">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="28">
         <f>RANK(AA5,$AA$4:$AA$27,1)</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AG5" s="11">
-        <f>($E$5/$E$28)*100</f>
-        <v>9.5326473947650712</v>
+        <f>($E$4/$E$28)*100</f>
+        <v>3.2071641292059456</v>
       </c>
       <c r="AH5" s="11">
         <f>(F5/$F$28)*100</f>
-        <v>8.8860049862331518</v>
+        <v>6.7679838777686827</v>
       </c>
       <c r="AI5" s="11">
         <f>F5/E5</f>
-        <v>2480.5132189066212</v>
+        <v>2256.2813525889396</v>
       </c>
       <c r="AJ5" s="11">
         <f>F5/S5</f>
-        <v>17261.467678219797</v>
+        <v>18558.299802989917</v>
       </c>
       <c r="AK5" s="11">
         <f>(K5/E5)*100</f>
-        <v>74.16059205146945</v>
+        <v>88.315604085945751</v>
       </c>
       <c r="AL5" s="11">
         <f>(L5/E5)*100</f>
-        <v>17.858413870086853</v>
+        <v>8.1930257132793241</v>
       </c>
       <c r="AM5" s="11">
         <f>(N5/E5)*100</f>
-        <v>4.2058500323767296</v>
+        <v>1.1511095456146532</v>
       </c>
       <c r="AN5" s="11">
         <f>(R5/E5)*100</f>
-        <v>8.0832455197723743</v>
+        <v>1.8612187389926031</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="26.25">
       <c r="A6" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="10">
-        <v>828431</v>
+        <v>168429</v>
       </c>
       <c r="F6" s="10">
-        <v>1970167289</v>
+        <v>381915960</v>
       </c>
       <c r="G6" s="10">
-        <v>808155087</v>
+        <v>153253842</v>
       </c>
       <c r="H6" s="10">
-        <v>104476420</v>
+        <v>13993242</v>
       </c>
       <c r="I6" s="11">
-        <v>41.02</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="J6" s="11">
-        <v>5.3</v>
+        <v>3.66</v>
       </c>
       <c r="K6" s="16">
-        <v>503788</v>
+        <v>154810</v>
       </c>
       <c r="L6" s="16">
-        <v>246356</v>
+        <v>6417</v>
       </c>
       <c r="M6" s="16">
-        <v>3637</v>
+        <v>458</v>
       </c>
       <c r="N6" s="15">
-        <v>52462</v>
+        <v>3375</v>
       </c>
       <c r="O6" s="16">
-        <v>628</v>
+        <v>128</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="15">
-        <v>781601</v>
+        <v>162181</v>
       </c>
       <c r="R6" s="15">
-        <v>46830</v>
+        <v>6248</v>
       </c>
       <c r="S6" s="27">
-        <v>113282</v>
+        <v>25290</v>
       </c>
       <c r="T6" s="28">
-        <v>487</v>
+        <v>47</v>
       </c>
       <c r="U6" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="V6" s="27">
-        <v>8119</v>
+        <v>0.2</v>
+      </c>
+      <c r="V6" s="28">
+        <v>698</v>
       </c>
       <c r="W6" s="29">
-        <v>7.2</v>
-      </c>
-      <c r="X6" s="27">
-        <v>44297</v>
+        <v>2.8</v>
+      </c>
+      <c r="X6" s="28">
+        <v>983</v>
       </c>
       <c r="Y6" s="29">
-        <v>39.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" s="27">
-        <v>6420</v>
+        <v>21112</v>
       </c>
       <c r="AA6" s="29">
-        <v>38.700000000000003</v>
+        <v>83.5</v>
       </c>
       <c r="AB6" s="27">
-        <v>10979</v>
+        <v>1619</v>
       </c>
       <c r="AC6" s="29">
-        <v>9.6999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="AD6" s="28">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="AE6" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF6" s="28">
         <f>RANK(AA6,$AA$4:$AA$27,1)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AG6" s="11">
         <f>(E6/$E$28)*100</f>
-        <v>13.709575724036766</v>
+        <v>18.522766763296925</v>
       </c>
       <c r="AH6" s="11">
         <f>(F6/$F$28)*100</f>
-        <v>12.252430696130737</v>
+        <v>16.140926793318325</v>
       </c>
       <c r="AI6" s="11">
         <f>F6/E6</f>
-        <v>2378.1911698137806</v>
+        <v>2267.5190139465294</v>
       </c>
       <c r="AJ6" s="11">
         <f>F6/S6</f>
-        <v>17391.706440564256</v>
+        <v>15101.461447212338</v>
       </c>
       <c r="AK6" s="11">
         <f>(K6/E6)*100</f>
-        <v>60.812306637487012</v>
+        <v>91.914100303391933</v>
       </c>
       <c r="AL6" s="11">
         <f>(L6/E6)*100</f>
-        <v>29.737660710427299</v>
+        <v>3.8099139696845556</v>
       </c>
       <c r="AM6" s="11">
         <f>(N6/E6)*100</f>
-        <v>6.3326939720990643</v>
+        <v>2.0038116951356355</v>
       </c>
       <c r="AN6" s="11">
         <f>(R6/E6)*100</f>
-        <v>5.652854613118051</v>
+        <v>3.7095749544318379</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="26.25">
       <c r="A7" s="14">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10">
+        <v>50251</v>
+      </c>
+      <c r="F7" s="10">
+        <v>110556617</v>
+      </c>
+      <c r="G7" s="10">
+        <v>42189288</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5758609</v>
+      </c>
+      <c r="I7" s="11">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5.21</v>
+      </c>
+      <c r="K7" s="16">
+        <v>45092</v>
+      </c>
+      <c r="L7" s="16">
+        <v>3232</v>
+      </c>
+      <c r="M7" s="16">
+        <v>234</v>
+      </c>
+      <c r="N7" s="15">
+        <v>596</v>
+      </c>
+      <c r="O7" s="16">
+        <v>57</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>48179</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2072</v>
+      </c>
+      <c r="S7" s="27">
+        <v>7778</v>
+      </c>
+      <c r="T7" s="28">
+        <v>10</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="V7" s="28">
+        <v>103</v>
+      </c>
+      <c r="W7" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="X7" s="28">
+        <v>454</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>6192</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>605</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="10">
-        <v>602495</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1536228472</v>
-      </c>
-      <c r="G7" s="10">
-        <v>939957215</v>
-      </c>
-      <c r="H7" s="10">
-        <v>154853512</v>
-      </c>
-      <c r="I7" s="11">
-        <v>61.19</v>
-      </c>
-      <c r="J7" s="11">
-        <v>10.08</v>
-      </c>
-      <c r="K7" s="16">
-        <v>191310</v>
-      </c>
-      <c r="L7" s="16">
-        <v>378476</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2723</v>
-      </c>
-      <c r="N7" s="15">
-        <v>16663</v>
-      </c>
-      <c r="O7" s="16">
-        <v>479</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>569434</v>
-      </c>
-      <c r="R7" s="15">
-        <v>33061</v>
-      </c>
-      <c r="S7" s="27">
-        <v>80591</v>
-      </c>
-      <c r="T7" s="28">
-        <v>186</v>
-      </c>
-      <c r="U7" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V7" s="28">
-        <v>776</v>
-      </c>
-      <c r="W7" s="29">
-        <v>1</v>
-      </c>
-      <c r="X7" s="27">
-        <v>63976</v>
-      </c>
-      <c r="Y7" s="29">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>43826</v>
-      </c>
-      <c r="AA7" s="29">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="27">
-        <v>8362</v>
-      </c>
-      <c r="AC7" s="29">
-        <v>10.4</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>163</v>
-      </c>
       <c r="AE7" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF7" s="28">
         <f>RANK(AA7,$AA$4:$AA$27,1)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AG7" s="11">
         <f>(E7/$E$28)*100</f>
-        <v>9.9705960132509901</v>
+        <v>5.5262903218711372</v>
       </c>
       <c r="AH7" s="11">
         <f>(F7/$F$28)*100</f>
-        <v>9.5537739316322678</v>
+        <v>4.6724579447110104</v>
       </c>
       <c r="AI7" s="11">
         <f>F7/E7</f>
-        <v>2549.7779599830706</v>
+        <v>2200.0878987482838</v>
       </c>
       <c r="AJ7" s="11">
         <f>F7/S7</f>
-        <v>19062.035115583625</v>
+        <v>14214.016070969401</v>
       </c>
       <c r="AK7" s="11">
         <f>(K7/E7)*100</f>
-        <v>31.752960605482205</v>
+        <v>89.733537641041977</v>
       </c>
       <c r="AL7" s="11">
         <f>(L7/E7)*100</f>
-        <v>62.818114673150816</v>
+        <v>6.431712801735288</v>
       </c>
       <c r="AM7" s="11">
         <f>(N7/E7)*100</f>
-        <v>2.7656661051129054</v>
+        <v>1.186046048834849</v>
       </c>
       <c r="AN7" s="11">
         <f>(R7/E7)*100</f>
-        <v>5.4873484427256658</v>
+        <v>4.1233010288352467</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10">
-        <v>92003</v>
+        <v>102826</v>
       </c>
       <c r="F8" s="10">
-        <v>272875786</v>
+        <v>242158606</v>
       </c>
       <c r="G8" s="10">
-        <v>109565886</v>
+        <v>127297491</v>
       </c>
       <c r="H8" s="10">
-        <v>10412247</v>
+        <v>13733046</v>
       </c>
       <c r="I8" s="11">
-        <v>40.15</v>
+        <v>52.57</v>
       </c>
       <c r="J8" s="11">
-        <v>3.82</v>
+        <v>5.67</v>
       </c>
       <c r="K8" s="16">
-        <v>74831</v>
+        <v>90978</v>
       </c>
       <c r="L8" s="16">
-        <v>12061</v>
+        <v>7377</v>
       </c>
       <c r="M8" s="16">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N8" s="15">
-        <v>1738</v>
+        <v>1495</v>
       </c>
       <c r="O8" s="16">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q8" s="15">
-        <v>88185</v>
+        <v>98128</v>
       </c>
       <c r="R8" s="15">
-        <v>3818</v>
+        <v>4698</v>
       </c>
       <c r="S8" s="27">
-        <v>15908</v>
+        <v>15364</v>
       </c>
       <c r="T8" s="28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U8" s="29">
         <v>0.2</v>
       </c>
       <c r="V8" s="28">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="W8" s="29">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X8" s="27">
-        <v>2044</v>
+        <v>1417</v>
       </c>
       <c r="Y8" s="29">
-        <v>12.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Z8" s="27">
-        <v>11323</v>
+        <v>11793</v>
       </c>
       <c r="AA8" s="29">
-        <v>71.2</v>
-      </c>
-      <c r="AB8" s="28">
-        <v>933</v>
+        <v>76.8</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>1050</v>
       </c>
       <c r="AC8" s="29">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD8" s="28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE8" s="29">
         <v>0.1</v>
       </c>
       <c r="AF8" s="28">
         <f>RANK(AA8,$AA$4:$AA$27,1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG8" s="11">
         <f>(E8/$E$28)*100</f>
-        <v>1.5225433323216473</v>
+        <v>11.308159611484777</v>
       </c>
       <c r="AH8" s="11">
         <f>(F8/$F$28)*100</f>
-        <v>1.6970090181094273</v>
+        <v>10.234357139246068</v>
       </c>
       <c r="AI8" s="11">
         <f>F8/E8</f>
-        <v>2965.9444365944587</v>
+        <v>2355.0328321630718</v>
       </c>
       <c r="AJ8" s="11">
         <f>F8/S8</f>
-        <v>17153.368493839578</v>
+        <v>15761.42970580578</v>
       </c>
       <c r="AK8" s="11">
         <f>(K8/E8)*100</f>
-        <v>81.335391237242263</v>
+        <v>88.477622391224003</v>
       </c>
       <c r="AL8" s="11">
         <f>(L8/E8)*100</f>
-        <v>13.109355129724031</v>
+        <v>7.1742555384824849</v>
       </c>
       <c r="AM8" s="11">
         <f>(N8/E8)*100</f>
-        <v>1.8890688347119118</v>
+        <v>1.4539124345982533</v>
       </c>
       <c r="AN8" s="11">
         <f>(R8/E8)*100</f>
-        <v>4.1498646783257067</v>
+        <v>4.5688833563495619</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="10">
-        <v>33304</v>
+        <v>92003</v>
       </c>
       <c r="F9" s="10">
-        <v>86983406</v>
+        <v>272875786</v>
       </c>
       <c r="G9" s="10">
-        <v>60650625</v>
+        <v>109565886</v>
       </c>
       <c r="H9" s="10">
-        <v>8216333</v>
+        <v>10412247</v>
       </c>
       <c r="I9" s="11">
-        <v>69.73</v>
+        <v>40.15</v>
       </c>
       <c r="J9" s="11">
-        <v>9.4499999999999993</v>
+        <v>3.82</v>
       </c>
       <c r="K9" s="16">
-        <v>26957</v>
+        <v>74831</v>
       </c>
       <c r="L9" s="16">
-        <v>4735</v>
+        <v>12061</v>
       </c>
       <c r="M9" s="16">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="N9" s="15">
-        <v>404</v>
+        <v>1738</v>
       </c>
       <c r="O9" s="16">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q9" s="15">
-        <v>30843</v>
+        <v>88185</v>
       </c>
       <c r="R9" s="15">
-        <v>2461</v>
+        <v>3818</v>
       </c>
       <c r="S9" s="27">
-        <v>5787</v>
+        <v>15908</v>
       </c>
       <c r="T9" s="28">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="U9" s="29">
         <v>0.2</v>
       </c>
       <c r="V9" s="28">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="W9" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="X9" s="28">
-        <v>839</v>
+        <v>1.6</v>
+      </c>
+      <c r="X9" s="27">
+        <v>2044</v>
       </c>
       <c r="Y9" s="29">
-        <v>14.5</v>
+        <v>12.8</v>
       </c>
       <c r="Z9" s="27">
-        <v>3629</v>
+        <v>11323</v>
       </c>
       <c r="AA9" s="29">
-        <v>62.7</v>
+        <v>71.2</v>
       </c>
       <c r="AB9" s="28">
-        <v>795</v>
+        <v>933</v>
       </c>
       <c r="AC9" s="29">
-        <v>13.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD9" s="28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE9" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF9" s="28">
         <f>RANK(AA9,$AA$4:$AA$27,1)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AG9" s="11">
         <f>(E9/$E$28)*100</f>
-        <v>0.55114271425540629</v>
+        <v>10.11791384217449</v>
       </c>
       <c r="AH9" s="11">
         <f>(F9/$F$28)*100</f>
-        <v>0.540948050289349</v>
+        <v>11.532558329050186</v>
       </c>
       <c r="AI9" s="11">
         <f>F9/E9</f>
-        <v>2611.800564496757</v>
+        <v>2965.9444365944587</v>
       </c>
       <c r="AJ9" s="11">
         <f>F9/S9</f>
-        <v>15030.828754104026</v>
+        <v>17153.368493839578</v>
       </c>
       <c r="AK9" s="11">
         <f>(K9/E9)*100</f>
-        <v>80.942229161662254</v>
+        <v>81.335391237242263</v>
       </c>
       <c r="AL9" s="11">
         <f>(L9/E9)*100</f>
-        <v>14.217511410040837</v>
+        <v>13.109355129724031</v>
       </c>
       <c r="AM9" s="11">
         <f>(N9/E9)*100</f>
-        <v>1.2130674993994717</v>
+        <v>1.8890688347119118</v>
       </c>
       <c r="AN9" s="11">
         <f>(R9/E9)*100</f>
-        <v>7.38950276243094</v>
+        <v>4.1498646783257067</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="14">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10">
-        <v>168429</v>
+        <v>150926</v>
       </c>
       <c r="F10" s="10">
-        <v>381915960</v>
+        <v>329644659</v>
       </c>
       <c r="G10" s="10">
-        <v>153253842</v>
+        <v>194312856</v>
       </c>
       <c r="H10" s="10">
-        <v>13993242</v>
+        <v>24138301</v>
       </c>
       <c r="I10" s="11">
-        <v>40.130000000000003</v>
+        <v>58.95</v>
       </c>
       <c r="J10" s="11">
-        <v>3.66</v>
+        <v>7.32</v>
       </c>
       <c r="K10" s="16">
-        <v>154810</v>
+        <v>124621</v>
       </c>
       <c r="L10" s="16">
-        <v>6417</v>
+        <v>18276</v>
       </c>
       <c r="M10" s="16">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="N10" s="15">
-        <v>3375</v>
+        <v>2881</v>
       </c>
       <c r="O10" s="16">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q10" s="15">
-        <v>162181</v>
+        <v>142782</v>
       </c>
       <c r="R10" s="15">
-        <v>6248</v>
+        <v>8144</v>
       </c>
       <c r="S10" s="27">
-        <v>25290</v>
+        <v>22595</v>
       </c>
       <c r="T10" s="28">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="U10" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V10" s="28">
-        <v>698</v>
+        <v>483</v>
       </c>
       <c r="W10" s="29">
-        <v>2.8</v>
-      </c>
-      <c r="X10" s="28">
-        <v>983</v>
+        <v>2.1</v>
+      </c>
+      <c r="X10" s="27">
+        <v>2979</v>
       </c>
       <c r="Y10" s="29">
-        <v>3.9</v>
+        <v>13.2</v>
       </c>
       <c r="Z10" s="27">
-        <v>21112</v>
+        <v>15180</v>
       </c>
       <c r="AA10" s="29">
-        <v>83.5</v>
+        <v>67.2</v>
       </c>
       <c r="AB10" s="27">
-        <v>1619</v>
+        <v>2083</v>
       </c>
       <c r="AC10" s="29">
-        <v>6.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AD10" s="28">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF10" s="28">
         <f>RANK(AA10,$AA$4:$AA$27,1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG10" s="11">
         <f>(E10/$E$28)*100</f>
-        <v>2.7873053152571408</v>
+        <v>16.597896422334347</v>
       </c>
       <c r="AH10" s="11">
         <f>(F10/$F$28)*100</f>
-        <v>2.3751276644235455</v>
+        <v>13.931783077950927</v>
       </c>
       <c r="AI10" s="11">
         <f>F10/E10</f>
-        <v>2267.5190139465294</v>
+        <v>2184.1475888846189</v>
       </c>
       <c r="AJ10" s="11">
         <f>F10/S10</f>
-        <v>15101.461447212338</v>
+        <v>14589.274574020801</v>
       </c>
       <c r="AK10" s="11">
         <f>(K10/E10)*100</f>
-        <v>91.914100303391933</v>
+        <v>82.570928799544149</v>
       </c>
       <c r="AL10" s="11">
         <f>(L10/E10)*100</f>
-        <v>3.8099139696845556</v>
+        <v>12.109245590554311</v>
       </c>
       <c r="AM10" s="11">
         <f>(N10/E10)*100</f>
-        <v>2.0038116951356355</v>
+        <v>1.9088824987079762</v>
       </c>
       <c r="AN10" s="11">
         <f>(R10/E10)*100</f>
-        <v>3.7095749544318379</v>
+        <v>5.3960218915229978</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="14">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -2143,129 +2144,129 @@
         <v>48</v>
       </c>
       <c r="E11" s="10">
-        <v>102826</v>
+        <v>51823</v>
       </c>
       <c r="F11" s="10">
-        <v>242158606</v>
+        <v>123701646</v>
       </c>
       <c r="G11" s="10">
-        <v>127297491</v>
+        <v>26425261</v>
       </c>
       <c r="H11" s="10">
-        <v>13733046</v>
+        <v>8434190</v>
       </c>
       <c r="I11" s="11">
-        <v>52.57</v>
+        <v>21.36</v>
       </c>
       <c r="J11" s="11">
-        <v>5.67</v>
+        <v>6.82</v>
       </c>
       <c r="K11" s="16">
-        <v>90978</v>
+        <v>43045</v>
       </c>
       <c r="L11" s="16">
-        <v>7377</v>
+        <v>6797</v>
       </c>
       <c r="M11" s="16">
-        <v>422</v>
+        <v>214</v>
       </c>
       <c r="N11" s="15">
-        <v>1495</v>
+        <v>764</v>
       </c>
       <c r="O11" s="16">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q11" s="15">
-        <v>98128</v>
+        <v>49974</v>
       </c>
       <c r="R11" s="15">
-        <v>4698</v>
+        <v>1849</v>
       </c>
       <c r="S11" s="27">
-        <v>15364</v>
+        <v>6684</v>
       </c>
       <c r="T11" s="28">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="U11" s="29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V11" s="28">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="W11" s="29">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="X11" s="27">
-        <v>1417</v>
+        <v>1265</v>
       </c>
       <c r="Y11" s="29">
-        <v>9.1999999999999993</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Z11" s="27">
-        <v>11793</v>
+        <v>4368</v>
       </c>
       <c r="AA11" s="29">
-        <v>76.8</v>
-      </c>
-      <c r="AB11" s="27">
-        <v>1050</v>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AB11" s="28">
+        <v>487</v>
       </c>
       <c r="AC11" s="29">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD11" s="28">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="28">
         <f>RANK(AA11,$AA$4:$AA$27,1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG11" s="11">
         <f>(E11/$E$28)*100</f>
-        <v>1.7016514753791259</v>
+        <v>5.699169038433622</v>
       </c>
       <c r="AH11" s="11">
         <f>(F11/$F$28)*100</f>
-        <v>1.5059794942553373</v>
+        <v>5.2280067381812971</v>
       </c>
       <c r="AI11" s="11">
         <f>F11/E11</f>
-        <v>2355.0328321630718</v>
+        <v>2387.0027979854503</v>
       </c>
       <c r="AJ11" s="11">
         <f>F11/S11</f>
-        <v>15761.42970580578</v>
+        <v>18507.128366247754</v>
       </c>
       <c r="AK11" s="11">
         <f>(K11/E11)*100</f>
-        <v>88.477622391224003</v>
+        <v>83.061574976361854</v>
       </c>
       <c r="AL11" s="11">
         <f>(L11/E11)*100</f>
-        <v>7.1742555384824849</v>
+        <v>13.115798004746926</v>
       </c>
       <c r="AM11" s="11">
         <f>(N11/E11)*100</f>
-        <v>1.4539124345982533</v>
+        <v>1.4742488856299327</v>
       </c>
       <c r="AN11" s="11">
         <f>(R11/E11)*100</f>
-        <v>4.5688833563495619</v>
+        <v>3.5679138606410281</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="14">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -2274,603 +2275,603 @@
         <v>51</v>
       </c>
       <c r="E12" s="10">
-        <v>161503</v>
+        <v>112664</v>
       </c>
       <c r="F12" s="10">
-        <v>455647067</v>
+        <v>258156621</v>
       </c>
       <c r="G12" s="10">
-        <v>209427473</v>
+        <v>119052937</v>
       </c>
       <c r="H12" s="10">
-        <v>20186278</v>
+        <v>18318007</v>
       </c>
       <c r="I12" s="11">
-        <v>45.96</v>
+        <v>46.12</v>
       </c>
       <c r="J12" s="11">
-        <v>4.43</v>
+        <v>7.1</v>
       </c>
       <c r="K12" s="16">
-        <v>69056</v>
+        <v>88161</v>
       </c>
       <c r="L12" s="16">
-        <v>79150</v>
+        <v>16569</v>
       </c>
       <c r="M12" s="16">
-        <v>1234</v>
+        <v>516</v>
       </c>
       <c r="N12" s="15">
-        <v>5485</v>
+        <v>3316</v>
       </c>
       <c r="O12" s="16">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="15">
-        <v>151749</v>
+        <v>106669</v>
       </c>
       <c r="R12" s="15">
-        <v>9754</v>
+        <v>5995</v>
       </c>
       <c r="S12" s="27">
-        <v>26891</v>
+        <v>18053</v>
       </c>
       <c r="T12" s="28">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="U12" s="29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V12" s="28">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="W12" s="29">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="X12" s="27">
-        <v>14884</v>
+        <v>3314</v>
       </c>
       <c r="Y12" s="29">
-        <v>55.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Z12" s="27">
-        <v>6784</v>
+        <v>11580</v>
       </c>
       <c r="AA12" s="29">
-        <v>25.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AB12" s="27">
-        <v>2233</v>
+        <v>1280</v>
       </c>
       <c r="AC12" s="29">
-        <v>8.3000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="AD12" s="28">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AE12" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF12" s="28">
         <f>RANK(AA12,$AA$4:$AA$27,1)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AG12" s="11">
         <f>(E12/$E$28)*100</f>
-        <v>2.6726880188683304</v>
+        <v>12.390081248597836</v>
       </c>
       <c r="AH12" s="11">
         <f>(F12/$F$28)*100</f>
-        <v>2.8336599340995043</v>
+        <v>10.910481773978297</v>
       </c>
       <c r="AI12" s="11">
         <f>F12/E12</f>
-        <v>2821.291660216838</v>
+        <v>2291.3851895902862</v>
       </c>
       <c r="AJ12" s="11">
         <f>F12/S12</f>
-        <v>16944.221747052918</v>
+        <v>14299.929153049354</v>
       </c>
       <c r="AK12" s="11">
         <f>(K12/E12)*100</f>
-        <v>42.758338854386608</v>
+        <v>78.251260384861183</v>
       </c>
       <c r="AL12" s="11">
         <f>(L12/E12)*100</f>
-        <v>49.008377553358137</v>
+        <v>14.706561102037918</v>
       </c>
       <c r="AM12" s="11">
         <f>(N12/E12)*100</f>
-        <v>3.3962217420109844</v>
+        <v>2.9432649293474404</v>
       </c>
       <c r="AN12" s="11">
         <f>(R12/E12)*100</f>
-        <v>6.0395162938149758</v>
+        <v>5.3211318611091389</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10">
-        <v>31998</v>
+        <v>253956</v>
       </c>
       <c r="F13" s="10">
-        <v>96738409</v>
+        <v>583162110</v>
       </c>
       <c r="G13" s="10">
-        <v>58193219</v>
+        <v>245422720</v>
       </c>
       <c r="H13" s="10">
-        <v>8845417</v>
+        <v>30467316</v>
       </c>
       <c r="I13" s="11">
-        <v>60.16</v>
+        <v>42.08</v>
       </c>
       <c r="J13" s="11">
-        <v>9.14</v>
+        <v>5.22</v>
       </c>
       <c r="K13" s="16">
-        <v>21398</v>
+        <v>201159</v>
       </c>
       <c r="L13" s="16">
-        <v>9285</v>
+        <v>36883</v>
       </c>
       <c r="M13" s="16">
-        <v>163</v>
+        <v>824</v>
       </c>
       <c r="N13" s="15">
-        <v>382</v>
+        <v>7802</v>
       </c>
       <c r="O13" s="16">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q13" s="15">
-        <v>30095</v>
+        <v>241919</v>
       </c>
       <c r="R13" s="15">
-        <v>1903</v>
+        <v>12037</v>
       </c>
       <c r="S13" s="27">
-        <v>4767</v>
+        <v>37780</v>
       </c>
       <c r="T13" s="28">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="U13" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="V13" s="28">
-        <v>78</v>
+        <v>0.3</v>
+      </c>
+      <c r="V13" s="27">
+        <v>1265</v>
       </c>
       <c r="W13" s="29">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="X13" s="27">
-        <v>1898</v>
+        <v>7203</v>
       </c>
       <c r="Y13" s="29">
-        <v>39.799999999999997</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Z13" s="27">
-        <v>2058</v>
+        <v>24076</v>
       </c>
       <c r="AA13" s="29">
-        <v>43.2</v>
-      </c>
-      <c r="AB13" s="28">
-        <v>393</v>
+        <v>63.7</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>2704</v>
       </c>
       <c r="AC13" s="29">
-        <v>8.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" s="28">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="AE13" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF13" s="28">
         <f>RANK(AA13,$AA$4:$AA$27,1)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG13" s="11">
         <f>(E13/$E$28)*100</f>
-        <v>0.52952992345497507</v>
+        <v>27.92849067642647</v>
       </c>
       <c r="AH13" s="11">
         <f>(F13/$F$28)*100</f>
-        <v>0.60161421750538968</v>
+        <v>24.646199457459304</v>
       </c>
       <c r="AI13" s="11">
         <f>F13/E13</f>
-        <v>3023.264235264704</v>
+        <v>2296.3116051599491</v>
       </c>
       <c r="AJ13" s="11">
         <f>F13/S13</f>
-        <v>20293.352003356409</v>
+        <v>15435.736103758602</v>
       </c>
       <c r="AK13" s="11">
         <f>(K13/E13)*100</f>
-        <v>66.872929558097383</v>
+        <v>79.210178141095312</v>
       </c>
       <c r="AL13" s="11">
         <f>(L13/E13)*100</f>
-        <v>29.017438589911869</v>
+        <v>14.523382003181654</v>
       </c>
       <c r="AM13" s="11">
         <f>(N13/E13)*100</f>
-        <v>1.1938246140383773</v>
+        <v>3.0721857329616156</v>
       </c>
       <c r="AN13" s="11">
         <f>(R13/E13)*100</f>
-        <v>5.9472467029189326</v>
+        <v>4.7397974452267322</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="10">
-        <v>255648</v>
+        <v>33304</v>
       </c>
       <c r="F14" s="10">
-        <v>726419264</v>
+        <v>86983406</v>
       </c>
       <c r="G14" s="10">
-        <v>294490549</v>
+        <v>60650625</v>
       </c>
       <c r="H14" s="10">
-        <v>23559412</v>
+        <v>8216333</v>
       </c>
       <c r="I14" s="11">
-        <v>40.54</v>
+        <v>69.73</v>
       </c>
       <c r="J14" s="11">
-        <v>3.24</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="K14" s="16">
-        <v>207630</v>
+        <v>26957</v>
       </c>
       <c r="L14" s="16">
-        <v>26526</v>
+        <v>4735</v>
       </c>
       <c r="M14" s="16">
-        <v>1251</v>
+        <v>284</v>
       </c>
       <c r="N14" s="15">
-        <v>12284</v>
+        <v>404</v>
       </c>
       <c r="O14" s="16">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q14" s="15">
-        <v>229661</v>
+        <v>30843</v>
       </c>
       <c r="R14" s="15">
-        <v>25987</v>
+        <v>2461</v>
       </c>
       <c r="S14" s="27">
-        <v>42140</v>
+        <v>5787</v>
       </c>
       <c r="T14" s="28">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="U14" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V14" s="27">
-        <v>2268</v>
+        <v>0.2</v>
+      </c>
+      <c r="V14" s="28">
+        <v>69</v>
       </c>
       <c r="W14" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="X14" s="27">
-        <v>5112</v>
+        <v>1.2</v>
+      </c>
+      <c r="X14" s="28">
+        <v>839</v>
       </c>
       <c r="Y14" s="29">
-        <v>12.1</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" s="27">
-        <v>25460</v>
+        <v>3629</v>
       </c>
       <c r="AA14" s="29">
-        <v>60.4</v>
-      </c>
-      <c r="AB14" s="27">
-        <v>6958</v>
+        <v>62.7</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>795</v>
       </c>
       <c r="AC14" s="29">
-        <v>16.5</v>
+        <v>13.7</v>
       </c>
       <c r="AD14" s="28">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="28">
         <f>RANK(AA14,$AA$4:$AA$27,1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG14" s="11">
         <f>(E14/$E$28)*100</f>
-        <v>4.2306789759177903</v>
+        <v>3.6625653793874022</v>
       </c>
       <c r="AH14" s="11">
         <f>(F14/$F$28)*100</f>
-        <v>4.5175867745788656</v>
+        <v>3.6761825519925537</v>
       </c>
       <c r="AI14" s="11">
         <f>F14/E14</f>
-        <v>2841.482288146201</v>
+        <v>2611.800564496757</v>
       </c>
       <c r="AJ14" s="11">
         <f>F14/S14</f>
-        <v>17238.23597532036</v>
+        <v>15030.828754104026</v>
       </c>
       <c r="AK14" s="11">
         <f>(K14/E14)*100</f>
-        <v>81.217142320690954</v>
+        <v>80.942229161662254</v>
       </c>
       <c r="AL14" s="11">
         <f>(L14/E14)*100</f>
-        <v>10.375985730379272</v>
+        <v>14.217511410040837</v>
       </c>
       <c r="AM14" s="11">
         <f>(N14/E14)*100</f>
-        <v>4.8050444360996369</v>
+        <v>1.2130674993994717</v>
       </c>
       <c r="AN14" s="11">
         <f>(R14/E14)*100</f>
-        <v>10.165148954812867</v>
+        <v>7.38950276243094</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="10">
-        <v>29163</v>
+        <v>19383</v>
       </c>
       <c r="F15" s="10">
-        <v>59252419</v>
+        <v>31332868</v>
       </c>
       <c r="G15" s="10">
-        <v>25515030</v>
+        <v>10863877</v>
       </c>
       <c r="H15" s="10">
-        <v>4680200</v>
+        <v>2610945</v>
       </c>
       <c r="I15" s="11">
-        <v>43.06</v>
+        <v>34.67</v>
       </c>
       <c r="J15" s="11">
-        <v>7.9</v>
+        <v>8.33</v>
       </c>
       <c r="K15" s="16">
-        <v>28423</v>
+        <v>15772</v>
       </c>
       <c r="L15" s="16">
-        <v>302</v>
+        <v>2900</v>
       </c>
       <c r="M15" s="16">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N15" s="15">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="O15" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q15" s="15">
-        <v>28807</v>
+        <v>18543</v>
       </c>
       <c r="R15" s="15">
-        <v>356</v>
+        <v>840</v>
       </c>
       <c r="S15" s="27">
-        <v>3811</v>
+        <v>1993</v>
       </c>
       <c r="T15" s="28">
+        <v>4</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="V15" s="28">
+        <v>10</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="X15" s="28">
+        <v>457</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>22.9</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>1213</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>60.9</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>169</v>
+      </c>
+      <c r="AC15" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" s="28">
         <v>0</v>
-      </c>
-      <c r="U15" s="29">
-        <v>0</v>
-      </c>
-      <c r="V15" s="28">
-        <v>11</v>
-      </c>
-      <c r="W15" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="X15" s="28">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="Z15" s="27">
-        <v>3674</v>
-      </c>
-      <c r="AA15" s="29">
-        <v>96.4</v>
-      </c>
-      <c r="AB15" s="28">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="29">
-        <v>1.3</v>
-      </c>
-      <c r="AD15" s="28">
-        <v>1</v>
       </c>
       <c r="AE15" s="29">
         <v>0</v>
       </c>
       <c r="AF15" s="28">
         <f>RANK(AA15,$AA$4:$AA$27,1)</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="11">
         <f>(E15/$E$28)*100</f>
-        <v>0.48261394955051684</v>
+        <v>2.1316209689126238</v>
       </c>
       <c r="AH15" s="11">
         <f>(F15/$F$28)*100</f>
-        <v>0.36848960056792424</v>
+        <v>1.3242220320216689</v>
       </c>
       <c r="AI15" s="11">
         <f>F15/E15</f>
-        <v>2031.7669306998594</v>
+        <v>1616.5128205128206</v>
       </c>
       <c r="AJ15" s="11">
         <f>F15/S15</f>
-        <v>15547.735240094464</v>
+        <v>15721.459106874059</v>
       </c>
       <c r="AK15" s="11">
         <f>(K15/E15)*100</f>
-        <v>97.46253814765285</v>
+        <v>81.370272919568691</v>
       </c>
       <c r="AL15" s="11">
         <f>(L15/E15)*100</f>
-        <v>1.0355587559578918</v>
+        <v>14.961564257338905</v>
       </c>
       <c r="AM15" s="11">
         <f>(N15/E15)*100</f>
-        <v>0.38747728285841648</v>
+        <v>1.3774957436929267</v>
       </c>
       <c r="AN15" s="11">
         <f>(R15/E15)*100</f>
-        <v>1.2207248911291706</v>
+        <v>4.3336944745395449</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10">
-        <v>253956</v>
+        <v>255648</v>
       </c>
       <c r="F16" s="10">
-        <v>583162110</v>
+        <v>726419264</v>
       </c>
       <c r="G16" s="10">
-        <v>245422720</v>
+        <v>294490549</v>
       </c>
       <c r="H16" s="10">
-        <v>30467316</v>
+        <v>23559412</v>
       </c>
       <c r="I16" s="11">
-        <v>42.08</v>
+        <v>40.54</v>
       </c>
       <c r="J16" s="11">
-        <v>5.22</v>
+        <v>3.24</v>
       </c>
       <c r="K16" s="16">
-        <v>201159</v>
+        <v>207630</v>
       </c>
       <c r="L16" s="16">
-        <v>36883</v>
+        <v>26526</v>
       </c>
       <c r="M16" s="16">
-        <v>824</v>
+        <v>1251</v>
       </c>
       <c r="N16" s="15">
-        <v>7802</v>
+        <v>12284</v>
       </c>
       <c r="O16" s="16">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q16" s="15">
-        <v>241919</v>
+        <v>229661</v>
       </c>
       <c r="R16" s="15">
-        <v>12037</v>
+        <v>25987</v>
       </c>
       <c r="S16" s="27">
-        <v>37780</v>
+        <v>42140</v>
       </c>
       <c r="T16" s="28">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="U16" s="29">
         <v>0.3</v>
       </c>
       <c r="V16" s="27">
-        <v>1265</v>
+        <v>2268</v>
       </c>
       <c r="W16" s="29">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="X16" s="27">
-        <v>7203</v>
+        <v>5112</v>
       </c>
       <c r="Y16" s="29">
-        <v>19.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="Z16" s="27">
-        <v>24076</v>
+        <v>25460</v>
       </c>
       <c r="AA16" s="29">
-        <v>63.7</v>
+        <v>60.4</v>
       </c>
       <c r="AB16" s="27">
-        <v>2704</v>
+        <v>6958</v>
       </c>
       <c r="AC16" s="29">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="AD16" s="28">
         <v>79</v>
@@ -2880,571 +2881,571 @@
       </c>
       <c r="AF16" s="28">
         <f>RANK(AA16,$AA$4:$AA$27,1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG16" s="11">
         <f>(E16/$E$28)*100</f>
-        <v>4.2026783311748126</v>
+        <v>28.114566241581514</v>
       </c>
       <c r="AH16" s="11">
         <f>(F16/$F$28)*100</f>
-        <v>3.6266734186877314</v>
+        <v>30.700681274173981</v>
       </c>
       <c r="AI16" s="11">
         <f>F16/E16</f>
-        <v>2296.3116051599491</v>
+        <v>2841.482288146201</v>
       </c>
       <c r="AJ16" s="11">
         <f>F16/S16</f>
-        <v>15435.736103758602</v>
+        <v>17238.23597532036</v>
       </c>
       <c r="AK16" s="11">
         <f>(K16/E16)*100</f>
-        <v>79.210178141095312</v>
+        <v>81.217142320690954</v>
       </c>
       <c r="AL16" s="11">
         <f>(L16/E16)*100</f>
-        <v>14.523382003181654</v>
+        <v>10.375985730379272</v>
       </c>
       <c r="AM16" s="11">
         <f>(N16/E16)*100</f>
-        <v>3.0721857329616156</v>
+        <v>4.8050444360996369</v>
       </c>
       <c r="AN16" s="11">
         <f>(R16/E16)*100</f>
-        <v>4.7397974452267322</v>
+        <v>10.165148954812867</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="26.25">
       <c r="A17" s="14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10">
-        <v>323196</v>
+        <v>36968</v>
       </c>
       <c r="F17" s="10">
-        <v>1023075726</v>
+        <v>66845851</v>
       </c>
       <c r="G17" s="10">
-        <v>307848221</v>
+        <v>17052439</v>
       </c>
       <c r="H17" s="10">
-        <v>29142811</v>
+        <v>5403420</v>
       </c>
       <c r="I17" s="11">
-        <v>30.09</v>
+        <v>25.51</v>
       </c>
       <c r="J17" s="11">
-        <v>2.85</v>
+        <v>8.08</v>
       </c>
       <c r="K17" s="16">
-        <v>182930</v>
+        <v>30774</v>
       </c>
       <c r="L17" s="16">
-        <v>64760</v>
+        <v>4782</v>
       </c>
       <c r="M17" s="16">
-        <v>1352</v>
+        <v>149</v>
       </c>
       <c r="N17" s="15">
-        <v>61608</v>
+        <v>529</v>
       </c>
       <c r="O17" s="16">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q17" s="15">
-        <v>300097</v>
+        <v>34438</v>
       </c>
       <c r="R17" s="15">
-        <v>23099</v>
+        <v>2530</v>
       </c>
       <c r="S17" s="27">
-        <v>56784</v>
+        <v>4646</v>
       </c>
       <c r="T17" s="28">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="U17" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V17" s="27">
-        <v>12425</v>
+        <v>0.1</v>
+      </c>
+      <c r="V17" s="28">
+        <v>90</v>
       </c>
       <c r="W17" s="29">
-        <v>21.9</v>
-      </c>
-      <c r="X17" s="27">
-        <v>13411</v>
+        <v>1.9</v>
+      </c>
+      <c r="X17" s="28">
+        <v>753</v>
       </c>
       <c r="Y17" s="29">
-        <v>23.6</v>
+        <v>16.2</v>
       </c>
       <c r="Z17" s="27">
-        <v>21161</v>
+        <v>2713</v>
       </c>
       <c r="AA17" s="29">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="AB17" s="27">
-        <v>6086</v>
+        <v>58.4</v>
+      </c>
+      <c r="AB17" s="28">
+        <v>830</v>
       </c>
       <c r="AC17" s="29">
-        <v>10.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AD17" s="28">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="28">
         <f>RANK(AA17,$AA$4:$AA$27,1)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="11">
         <f>(E17/$E$28)*100</f>
-        <v>5.3485203181747023</v>
+        <v>4.0655091564134489</v>
       </c>
       <c r="AH17" s="11">
         <f>(F17/$F$28)*100</f>
-        <v>6.362487337849938</v>
+        <v>2.825108401932364</v>
       </c>
       <c r="AI17" s="11">
         <f>F17/E17</f>
-        <v>3165.4962499535886</v>
+        <v>1808.2084776022507</v>
       </c>
       <c r="AJ17" s="11">
         <f>F17/S17</f>
-        <v>18016.971787827559</v>
+        <v>14387.828454584589</v>
       </c>
       <c r="AK17" s="11">
         <f>(K17/E17)*100</f>
-        <v>56.600329211995195</v>
+        <v>83.244968621510495</v>
       </c>
       <c r="AL17" s="11">
         <f>(L17/E17)*100</f>
-        <v>20.037376700206686</v>
+        <v>12.935511793983986</v>
       </c>
       <c r="AM17" s="11">
         <f>(N17/E17)*100</f>
-        <v>19.062117105409719</v>
+        <v>1.4309673230902402</v>
       </c>
       <c r="AN17" s="11">
         <f>(R17/E17)*100</f>
-        <v>7.1470562754489544</v>
+        <v>6.843756762605496</v>
       </c>
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="10">
-        <v>19383</v>
+        <v>576031</v>
       </c>
       <c r="F18" s="10">
-        <v>31332868</v>
+        <v>1428852510</v>
       </c>
       <c r="G18" s="10">
-        <v>10863877</v>
+        <v>447460065</v>
       </c>
       <c r="H18" s="10">
-        <v>2610945</v>
+        <v>58770535</v>
       </c>
       <c r="I18" s="11">
-        <v>34.67</v>
+        <v>31.32</v>
       </c>
       <c r="J18" s="11">
-        <v>8.33</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="K18" s="16">
-        <v>15772</v>
+        <v>427188</v>
       </c>
       <c r="L18" s="16">
-        <v>2900</v>
+        <v>102870</v>
       </c>
       <c r="M18" s="16">
-        <v>63</v>
+        <v>2543</v>
       </c>
       <c r="N18" s="15">
-        <v>267</v>
+        <v>24227</v>
       </c>
       <c r="O18" s="16">
-        <v>11</v>
+        <v>705</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q18" s="15">
-        <v>18543</v>
+        <v>529469</v>
       </c>
       <c r="R18" s="15">
-        <v>840</v>
+        <v>46562</v>
       </c>
       <c r="S18" s="27">
-        <v>1993</v>
+        <v>82777</v>
       </c>
       <c r="T18" s="28">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="U18" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="V18" s="27">
+        <v>3088</v>
+      </c>
+      <c r="W18" s="29">
+        <v>3.7</v>
+      </c>
+      <c r="X18" s="27">
+        <v>17296</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>20.9</v>
+      </c>
+      <c r="Z18" s="27">
+        <v>44631</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>53.9</v>
+      </c>
+      <c r="AB18" s="27">
+        <v>12276</v>
+      </c>
+      <c r="AC18" s="29">
+        <v>14.8</v>
+      </c>
+      <c r="AD18" s="28">
+        <v>186</v>
+      </c>
+      <c r="AE18" s="29">
         <v>0.2</v>
-      </c>
-      <c r="V18" s="28">
-        <v>10</v>
-      </c>
-      <c r="W18" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="X18" s="28">
-        <v>457</v>
-      </c>
-      <c r="Y18" s="29">
-        <v>22.9</v>
-      </c>
-      <c r="Z18" s="27">
-        <v>1213</v>
-      </c>
-      <c r="AA18" s="29">
-        <v>60.9</v>
-      </c>
-      <c r="AB18" s="28">
-        <v>169</v>
-      </c>
-      <c r="AC18" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="29">
-        <v>0</v>
       </c>
       <c r="AF18" s="28">
         <f>RANK(AA18,$AA$4:$AA$27,1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG18" s="11">
-        <f>(E18/$E$28)*100</f>
-        <v>0.32076625121344404</v>
+        <f>($E$5/$E$28)*100</f>
+        <v>7.8053860738055754</v>
       </c>
       <c r="AH18" s="11">
         <f>(F18/$F$28)*100</f>
-        <v>0.19485847512769891</v>
+        <v>60.387640679795474</v>
       </c>
       <c r="AI18" s="11">
         <f>F18/E18</f>
-        <v>1616.5128205128206</v>
+        <v>2480.5132189066212</v>
       </c>
       <c r="AJ18" s="11">
         <f>F18/S18</f>
-        <v>15721.459106874059</v>
+        <v>17261.467678219797</v>
       </c>
       <c r="AK18" s="11">
         <f>(K18/E18)*100</f>
-        <v>81.370272919568691</v>
+        <v>74.16059205146945</v>
       </c>
       <c r="AL18" s="11">
         <f>(L18/E18)*100</f>
-        <v>14.961564257338905</v>
+        <v>17.858413870086853</v>
       </c>
       <c r="AM18" s="11">
         <f>(N18/E18)*100</f>
-        <v>1.3774957436929267</v>
+        <v>4.2058500323767296</v>
       </c>
       <c r="AN18" s="11">
         <f>(R18/E18)*100</f>
-        <v>4.3336944745395449</v>
+        <v>8.0832455197723743</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="26.25">
       <c r="A19" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E19" s="10">
-        <v>1052567</v>
+        <v>31998</v>
       </c>
       <c r="F19" s="10">
-        <v>3442835674</v>
+        <v>96738409</v>
       </c>
       <c r="G19" s="10">
-        <v>898420233</v>
+        <v>58193219</v>
       </c>
       <c r="H19" s="10">
-        <v>120471517</v>
+        <v>8845417</v>
       </c>
       <c r="I19" s="11">
-        <v>26.1</v>
+        <v>60.16</v>
       </c>
       <c r="J19" s="11">
-        <v>3.5</v>
+        <v>9.14</v>
       </c>
       <c r="K19" s="16">
-        <v>634136</v>
+        <v>21398</v>
       </c>
       <c r="L19" s="16">
-        <v>209463</v>
+        <v>9285</v>
       </c>
       <c r="M19" s="16">
-        <v>7707</v>
+        <v>163</v>
       </c>
       <c r="N19" s="15">
-        <v>164041</v>
+        <v>382</v>
       </c>
       <c r="O19" s="16">
-        <v>1119</v>
+        <v>19</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q19" s="15">
-        <v>843535</v>
+        <v>30095</v>
       </c>
       <c r="R19" s="15">
-        <v>209032</v>
+        <v>1903</v>
       </c>
       <c r="S19" s="27">
-        <v>161546</v>
+        <v>4767</v>
       </c>
       <c r="T19" s="28">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="U19" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V19" s="27">
-        <v>23253</v>
+        <v>0.1</v>
+      </c>
+      <c r="V19" s="28">
+        <v>78</v>
       </c>
       <c r="W19" s="29">
-        <v>14.4</v>
+        <v>1.6</v>
       </c>
       <c r="X19" s="27">
-        <v>34615</v>
+        <v>1898</v>
       </c>
       <c r="Y19" s="29">
-        <v>21.4</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="Z19" s="27">
-        <v>45769</v>
+        <v>2058</v>
       </c>
       <c r="AA19" s="29">
-        <v>28.3</v>
-      </c>
-      <c r="AB19" s="27">
-        <v>49704</v>
+        <v>43.2</v>
+      </c>
+      <c r="AB19" s="28">
+        <v>393</v>
       </c>
       <c r="AC19" s="29">
-        <v>30.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD19" s="28">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="29">
         <v>0.1</v>
       </c>
       <c r="AF19" s="28">
         <f>RANK(AA19,$AA$4:$AA$27,1)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG19" s="11">
         <f>(E19/$E$28)*100</f>
-        <v>17.418767514883204</v>
+        <v>3.5189396772050836</v>
       </c>
       <c r="AH19" s="11">
         <f>(F19/$F$28)*100</f>
-        <v>21.410925726648564</v>
+        <v>4.0884585649970919</v>
       </c>
       <c r="AI19" s="11">
         <f>F19/E19</f>
-        <v>3270.8945596812364</v>
+        <v>3023.264235264704</v>
       </c>
       <c r="AJ19" s="11">
         <f>F19/S19</f>
-        <v>21311.797717058918</v>
+        <v>20293.352003356409</v>
       </c>
       <c r="AK19" s="11">
         <f>(K19/E19)*100</f>
-        <v>60.246616129899564</v>
+        <v>66.872929558097383</v>
       </c>
       <c r="AL19" s="11">
         <f>(L19/E19)*100</f>
-        <v>19.90020587763059</v>
+        <v>29.017438589911869</v>
       </c>
       <c r="AM19" s="11">
         <f>(N19/E19)*100</f>
-        <v>15.584851130616864</v>
+        <v>1.1938246140383773</v>
       </c>
       <c r="AN19" s="11">
         <f>(R19/E19)*100</f>
-        <v>19.859258365500722</v>
+        <v>5.9472467029189326</v>
       </c>
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="14">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="10">
-        <v>909308</v>
+        <v>103195</v>
       </c>
       <c r="F20" s="10">
-        <v>2366134020</v>
+        <v>264741407</v>
       </c>
       <c r="G20" s="10">
-        <v>1241228953</v>
+        <v>176752528</v>
       </c>
       <c r="H20" s="10">
-        <v>146063499</v>
+        <v>19195240</v>
       </c>
       <c r="I20" s="11">
-        <v>52.46</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J20" s="11">
-        <v>6.17</v>
+        <v>7.25</v>
       </c>
       <c r="K20" s="16">
-        <v>245170</v>
+        <v>68603</v>
       </c>
       <c r="L20" s="16">
-        <v>585797</v>
+        <v>27969</v>
       </c>
       <c r="M20" s="16">
-        <v>10770</v>
+        <v>396</v>
       </c>
       <c r="N20" s="15">
-        <v>41002</v>
+        <v>3196</v>
       </c>
       <c r="O20" s="16">
-        <v>1757</v>
+        <v>143</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="15">
-        <v>736014</v>
+        <v>97589</v>
       </c>
       <c r="R20" s="15">
-        <v>173294</v>
+        <v>5606</v>
       </c>
       <c r="S20" s="27">
-        <v>132322</v>
+        <v>14953</v>
       </c>
       <c r="T20" s="28">
-        <v>372</v>
+        <v>85</v>
       </c>
       <c r="U20" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V20" s="27">
-        <v>3719</v>
+        <v>0.6</v>
+      </c>
+      <c r="V20" s="28">
+        <v>464</v>
       </c>
       <c r="W20" s="29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="X20" s="27">
-        <v>76881</v>
+        <v>5478</v>
       </c>
       <c r="Y20" s="29">
-        <v>58.1</v>
+        <v>36.6</v>
       </c>
       <c r="Z20" s="27">
-        <v>5494</v>
+        <v>6363</v>
       </c>
       <c r="AA20" s="29">
-        <v>4.2</v>
+        <v>42.6</v>
       </c>
       <c r="AB20" s="27">
-        <v>43860</v>
+        <v>1476</v>
       </c>
       <c r="AC20" s="29">
-        <v>33.1</v>
+        <v>9.9</v>
       </c>
       <c r="AD20" s="28">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="AE20" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF20" s="28">
         <f>RANK(AA20,$AA$4:$AA$27,1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG20" s="11">
         <f>(E20/$E$28)*100</f>
-        <v>15.04799661344448</v>
+        <v>11.348739920906887</v>
       </c>
       <c r="AH20" s="11">
         <f>(F20/$F$28)*100</f>
-        <v>14.714939822456477</v>
+        <v>11.188774801522021</v>
       </c>
       <c r="AI20" s="11">
         <f>F20/E20</f>
-        <v>2602.1260343030085</v>
+        <v>2565.4480062018511</v>
       </c>
       <c r="AJ20" s="11">
         <f>F20/S20</f>
-        <v>17881.637369447257</v>
+        <v>17704.902494482714</v>
       </c>
       <c r="AK20" s="11">
         <f>(K20/E20)*100</f>
-        <v>26.962261411974819</v>
+        <v>66.478996075391251</v>
       </c>
       <c r="AL20" s="11">
         <f>(L20/E20)*100</f>
-        <v>64.422285958113207</v>
+        <v>27.10305731866854</v>
       </c>
       <c r="AM20" s="11">
         <f>(N20/E20)*100</f>
-        <v>4.5091432165998757</v>
+        <v>3.0970492756432</v>
       </c>
       <c r="AN20" s="11">
         <f>(R20/E20)*100</f>
-        <v>19.057788999986801</v>
+        <v>5.4324337419448616</v>
       </c>
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -3453,79 +3454,79 @@
         <v>48</v>
       </c>
       <c r="E21" s="10">
-        <v>50251</v>
+        <v>25675</v>
       </c>
       <c r="F21" s="10">
-        <v>110556617</v>
+        <v>62241699</v>
       </c>
       <c r="G21" s="10">
-        <v>42189288</v>
+        <v>44272278</v>
       </c>
       <c r="H21" s="10">
-        <v>5758609</v>
+        <v>6585244</v>
       </c>
       <c r="I21" s="11">
-        <v>38.159999999999997</v>
+        <v>71.13</v>
       </c>
       <c r="J21" s="11">
-        <v>5.21</v>
+        <v>10.58</v>
       </c>
       <c r="K21" s="16">
-        <v>45092</v>
+        <v>13841</v>
       </c>
       <c r="L21" s="16">
-        <v>3232</v>
+        <v>10794</v>
       </c>
       <c r="M21" s="16">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="N21" s="15">
-        <v>596</v>
+        <v>235</v>
       </c>
       <c r="O21" s="16">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q21" s="15">
-        <v>48179</v>
+        <v>24739</v>
       </c>
       <c r="R21" s="15">
-        <v>2072</v>
+        <v>936</v>
       </c>
       <c r="S21" s="27">
-        <v>7778</v>
+        <v>2918</v>
       </c>
       <c r="T21" s="28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U21" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V21" s="28">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="W21" s="29">
-        <v>1.3</v>
-      </c>
-      <c r="X21" s="28">
-        <v>454</v>
+        <v>1</v>
+      </c>
+      <c r="X21" s="27">
+        <v>1313</v>
       </c>
       <c r="Y21" s="29">
-        <v>5.8</v>
+        <v>45</v>
       </c>
       <c r="Z21" s="27">
-        <v>6192</v>
+        <v>1138</v>
       </c>
       <c r="AA21" s="29">
-        <v>79.599999999999994</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="28">
-        <v>605</v>
+        <v>277</v>
       </c>
       <c r="AC21" s="29">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" s="28">
         <v>4</v>
@@ -3535,959 +3536,959 @@
       </c>
       <c r="AF21" s="28">
         <f>RANK(AA21,$AA$4:$AA$27,1)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AG21" s="11">
         <f>(E21/$E$28)*100</f>
-        <v>0.83159598048427874</v>
+        <v>2.8235757301156483</v>
       </c>
       <c r="AH21" s="11">
         <f>(F21/$F$28)*100</f>
-        <v>0.68754937479381184</v>
+        <v>2.630522974349526</v>
       </c>
       <c r="AI21" s="11">
         <f>F21/E21</f>
-        <v>2200.0878987482838</v>
+        <v>2424.2141772151899</v>
       </c>
       <c r="AJ21" s="11">
         <f>F21/S21</f>
-        <v>14214.016070969401</v>
+        <v>21330.260109664152</v>
       </c>
       <c r="AK21" s="11">
         <f>(K21/E21)*100</f>
-        <v>89.733537641041977</v>
+        <v>53.90847127555989</v>
       </c>
       <c r="AL21" s="11">
         <f>(L21/E21)*100</f>
-        <v>6.431712801735288</v>
+        <v>42.040895813047712</v>
       </c>
       <c r="AM21" s="11">
         <f>(N21/E21)*100</f>
-        <v>1.186046048834849</v>
+        <v>0.91528724440116849</v>
       </c>
       <c r="AN21" s="11">
         <f>(R21/E21)*100</f>
-        <v>4.1233010288352467</v>
+        <v>3.6455696202531649</v>
       </c>
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="14">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" s="10">
-        <v>112664</v>
+        <v>828431</v>
       </c>
       <c r="F22" s="10">
-        <v>258156621</v>
+        <v>1970167289</v>
       </c>
       <c r="G22" s="10">
-        <v>119052937</v>
+        <v>808155087</v>
       </c>
       <c r="H22" s="10">
-        <v>18318007</v>
+        <v>104476420</v>
       </c>
       <c r="I22" s="11">
-        <v>46.12</v>
+        <v>41.02</v>
       </c>
       <c r="J22" s="11">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="K22" s="16">
-        <v>88161</v>
+        <v>503788</v>
       </c>
       <c r="L22" s="16">
-        <v>16569</v>
+        <v>246356</v>
       </c>
       <c r="M22" s="16">
-        <v>516</v>
+        <v>3637</v>
       </c>
       <c r="N22" s="15">
-        <v>3316</v>
+        <v>52462</v>
       </c>
       <c r="O22" s="16">
-        <v>109</v>
+        <v>628</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q22" s="15">
-        <v>106669</v>
+        <v>781601</v>
       </c>
       <c r="R22" s="15">
-        <v>5995</v>
+        <v>46830</v>
       </c>
       <c r="S22" s="27">
-        <v>18053</v>
+        <v>113282</v>
       </c>
       <c r="T22" s="28">
-        <v>56</v>
+        <v>487</v>
       </c>
       <c r="U22" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V22" s="28">
-        <v>456</v>
+        <v>0.4</v>
+      </c>
+      <c r="V22" s="27">
+        <v>8119</v>
       </c>
       <c r="W22" s="29">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="X22" s="27">
-        <v>3314</v>
+        <v>44297</v>
       </c>
       <c r="Y22" s="29">
-        <v>18.399999999999999</v>
+        <v>39.1</v>
       </c>
       <c r="Z22" s="27">
-        <v>11580</v>
+        <v>6420</v>
       </c>
       <c r="AA22" s="29">
-        <v>64.099999999999994</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="AB22" s="27">
-        <v>1280</v>
+        <v>10979</v>
       </c>
       <c r="AC22" s="29">
-        <v>7.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AD22" s="28">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AE22" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF22" s="28">
         <f>RANK(AA22,$AA$4:$AA$27,1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AG22" s="11">
         <f>(E22/$E$28)*100</f>
-        <v>1.8644590066920219</v>
+        <v>91.105653969832005</v>
       </c>
       <c r="AH22" s="11">
         <f>(F22/$F$28)*100</f>
-        <v>1.6054708273809881</v>
+        <v>83.265245009240857</v>
       </c>
       <c r="AI22" s="11">
         <f>F22/E22</f>
-        <v>2291.3851895902862</v>
+        <v>2378.1911698137806</v>
       </c>
       <c r="AJ22" s="11">
         <f>F22/S22</f>
-        <v>14299.929153049354</v>
+        <v>17391.706440564256</v>
       </c>
       <c r="AK22" s="11">
         <f>(K22/E22)*100</f>
-        <v>78.251260384861183</v>
+        <v>60.812306637487012</v>
       </c>
       <c r="AL22" s="11">
         <f>(L22/E22)*100</f>
-        <v>14.706561102037918</v>
+        <v>29.737660710427299</v>
       </c>
       <c r="AM22" s="11">
         <f>(N22/E22)*100</f>
-        <v>2.9432649293474404</v>
+        <v>6.3326939720990643</v>
       </c>
       <c r="AN22" s="11">
         <f>(R22/E22)*100</f>
-        <v>5.3211318611091389</v>
+        <v>5.652854613118051</v>
       </c>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10">
-        <v>25675</v>
+        <v>323196</v>
       </c>
       <c r="F23" s="10">
-        <v>62241699</v>
+        <v>1023075726</v>
       </c>
       <c r="G23" s="10">
-        <v>44272278</v>
+        <v>307848221</v>
       </c>
       <c r="H23" s="10">
-        <v>6585244</v>
+        <v>29142811</v>
       </c>
       <c r="I23" s="11">
-        <v>71.13</v>
+        <v>30.09</v>
       </c>
       <c r="J23" s="11">
-        <v>10.58</v>
+        <v>2.85</v>
       </c>
       <c r="K23" s="16">
-        <v>13841</v>
+        <v>182930</v>
       </c>
       <c r="L23" s="16">
-        <v>10794</v>
+        <v>64760</v>
       </c>
       <c r="M23" s="16">
-        <v>126</v>
+        <v>1352</v>
       </c>
       <c r="N23" s="15">
-        <v>235</v>
+        <v>61608</v>
       </c>
       <c r="O23" s="16">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q23" s="15">
-        <v>24739</v>
+        <v>300097</v>
       </c>
       <c r="R23" s="15">
-        <v>936</v>
+        <v>23099</v>
       </c>
       <c r="S23" s="27">
-        <v>2918</v>
+        <v>56784</v>
       </c>
       <c r="T23" s="28">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="U23" s="29">
         <v>0.2</v>
       </c>
-      <c r="V23" s="28">
-        <v>28</v>
+      <c r="V23" s="27">
+        <v>12425</v>
       </c>
       <c r="W23" s="29">
-        <v>1</v>
+        <v>21.9</v>
       </c>
       <c r="X23" s="27">
-        <v>1313</v>
+        <v>13411</v>
       </c>
       <c r="Y23" s="29">
-        <v>45</v>
+        <v>23.6</v>
       </c>
       <c r="Z23" s="27">
-        <v>1138</v>
+        <v>21161</v>
       </c>
       <c r="AA23" s="29">
-        <v>39</v>
-      </c>
-      <c r="AB23" s="28">
-        <v>277</v>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AB23" s="27">
+        <v>6086</v>
       </c>
       <c r="AC23" s="29">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="AD23" s="28">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="AE23" s="29">
         <v>0.1</v>
       </c>
       <c r="AF23" s="28">
         <f>RANK(AA23,$AA$4:$AA$27,1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="11">
         <f>(E23/$E$28)*100</f>
-        <v>0.424891580245843</v>
+        <v>35.54307231433134</v>
       </c>
       <c r="AH23" s="11">
         <f>(F23/$F$28)*100</f>
-        <v>0.38707987269142491</v>
+        <v>43.23828309606909</v>
       </c>
       <c r="AI23" s="11">
         <f>F23/E23</f>
-        <v>2424.2141772151899</v>
+        <v>3165.4962499535886</v>
       </c>
       <c r="AJ23" s="11">
         <f>F23/S23</f>
-        <v>21330.260109664152</v>
+        <v>18016.971787827559</v>
       </c>
       <c r="AK23" s="11">
         <f>(K23/E23)*100</f>
-        <v>53.90847127555989</v>
+        <v>56.600329211995195</v>
       </c>
       <c r="AL23" s="11">
         <f>(L23/E23)*100</f>
-        <v>42.040895813047712</v>
+        <v>20.037376700206686</v>
       </c>
       <c r="AM23" s="11">
         <f>(N23/E23)*100</f>
-        <v>0.91528724440116849</v>
+        <v>19.062117105409719</v>
       </c>
       <c r="AN23" s="11">
         <f>(R23/E23)*100</f>
-        <v>3.6455696202531649</v>
+        <v>7.1470562754489544</v>
       </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="14">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="10">
-        <v>36968</v>
-      </c>
-      <c r="F24" s="10">
-        <v>66845851</v>
-      </c>
-      <c r="G24" s="10">
-        <v>17052439</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5403420</v>
+      <c r="B24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="16">
+        <f>SUM($E$4:E23)</f>
+        <v>3316845</v>
+      </c>
+      <c r="F24" s="25">
+        <v>16079807655</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6663003824</v>
+      </c>
+      <c r="H24" s="25">
+        <v>849834240</v>
       </c>
       <c r="I24" s="11">
-        <v>25.51</v>
+        <f>(G24/F24)*100</f>
+        <v>41.437086605498955</v>
       </c>
       <c r="J24" s="11">
-        <v>8.08</v>
-      </c>
-      <c r="K24" s="16">
-        <v>30774</v>
-      </c>
-      <c r="L24" s="16">
-        <v>4782</v>
-      </c>
-      <c r="M24" s="16">
-        <v>149</v>
-      </c>
-      <c r="N24" s="15">
-        <v>529</v>
-      </c>
-      <c r="O24" s="16">
-        <v>76</v>
-      </c>
-      <c r="P24" s="16" t="s">
+        <f>(H24/F24)*100</f>
+        <v>5.2851020250590182</v>
+      </c>
+      <c r="K24" s="10">
+        <f>SUM($K$4:K23)</f>
+        <v>2412683</v>
+      </c>
+      <c r="L24" s="10">
+        <f>SUM($L$4:L23)</f>
+        <v>614706</v>
+      </c>
+      <c r="M24" s="10">
+        <f>SUM($M$4:M23)</f>
+        <v>13754</v>
+      </c>
+      <c r="N24" s="10">
+        <f>SUM($N$4:N23)</f>
+        <v>178491</v>
+      </c>
+      <c r="O24" s="10">
+        <f>SUM($O$4:O23)</f>
+        <v>3164</v>
+      </c>
+      <c r="P24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="Q24" s="15">
-        <v>34438</v>
-      </c>
-      <c r="R24" s="15">
-        <v>2530</v>
+      <c r="Q24" s="10">
+        <f>SUM($Q$4:Q23)</f>
+        <v>3113553</v>
+      </c>
+      <c r="R24" s="10">
+        <f>SUM($R$4:R23)</f>
+        <v>203292</v>
       </c>
       <c r="S24" s="27">
-        <v>4646</v>
-      </c>
-      <c r="T24" s="28">
-        <v>4</v>
+        <v>893689</v>
+      </c>
+      <c r="T24" s="27">
+        <v>2387</v>
       </c>
       <c r="U24" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="V24" s="27">
+        <v>58823</v>
+      </c>
+      <c r="W24" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="X24" s="27">
+        <v>301542</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>333552</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AB24" s="27">
+        <v>155346</v>
+      </c>
+      <c r="AC24" s="29">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD24" s="27">
+        <v>1300</v>
+      </c>
+      <c r="AE24" s="29">
         <v>0.1</v>
       </c>
-      <c r="V24" s="28">
-        <v>90</v>
-      </c>
-      <c r="W24" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="X24" s="28">
-        <v>753</v>
-      </c>
-      <c r="Y24" s="29">
-        <v>16.2</v>
-      </c>
-      <c r="Z24" s="27">
-        <v>2713</v>
-      </c>
-      <c r="AA24" s="29">
-        <v>58.4</v>
-      </c>
-      <c r="AB24" s="28">
-        <v>830</v>
-      </c>
-      <c r="AC24" s="29">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AD24" s="28">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="28">
-        <f>RANK(AA24,$AA$4:$AA$27,1)</f>
-        <v>11</v>
-      </c>
+      <c r="AF24" s="29"/>
       <c r="AG24" s="11">
-        <f>(E24/$E$28)*100</f>
-        <v>0.61177768017637091</v>
+        <f>SUM(AG21:AG23)</f>
+        <v>129.47230201427899</v>
       </c>
       <c r="AH24" s="11">
-        <f>(F24/$F$28)*100</f>
-        <v>0.41571300126350919</v>
+        <f>SUM(AH21:AH23)</f>
+        <v>129.13405107965949</v>
       </c>
       <c r="AI24" s="11">
         <f>F24/E24</f>
-        <v>1808.2084776022507</v>
+        <v>4847.9225453706758</v>
       </c>
       <c r="AJ24" s="11">
         <f>F24/S24</f>
-        <v>14387.828454584589</v>
+        <v>17992.621208272678</v>
       </c>
       <c r="AK24" s="11">
         <f>(K24/E24)*100</f>
-        <v>83.244968621510495</v>
+        <v>72.740299893422815</v>
       </c>
       <c r="AL24" s="11">
         <f>(L24/E24)*100</f>
-        <v>12.935511793983986</v>
+        <v>18.532852756158338</v>
       </c>
       <c r="AM24" s="11">
         <f>(N24/E24)*100</f>
-        <v>1.4309673230902402</v>
+        <v>5.3813488420471867</v>
       </c>
       <c r="AN24" s="11">
         <f>(R24/E24)*100</f>
-        <v>6.843756762605496</v>
+        <v>6.1290774817635434</v>
       </c>
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E25" s="10">
-        <v>150926</v>
+        <v>1052567</v>
       </c>
       <c r="F25" s="10">
-        <v>329644659</v>
+        <v>3442835674</v>
       </c>
       <c r="G25" s="10">
-        <v>194312856</v>
+        <v>898420233</v>
       </c>
       <c r="H25" s="10">
-        <v>24138301</v>
+        <v>120471517</v>
       </c>
       <c r="I25" s="11">
-        <v>58.95</v>
+        <v>26.1</v>
       </c>
       <c r="J25" s="11">
-        <v>7.32</v>
+        <v>3.5</v>
       </c>
       <c r="K25" s="16">
-        <v>124621</v>
+        <v>634136</v>
       </c>
       <c r="L25" s="16">
-        <v>18276</v>
+        <v>209463</v>
       </c>
       <c r="M25" s="16">
-        <v>491</v>
+        <v>7707</v>
       </c>
       <c r="N25" s="15">
-        <v>2881</v>
+        <v>164041</v>
       </c>
       <c r="O25" s="16">
-        <v>132</v>
+        <v>1119</v>
       </c>
       <c r="P25" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Q25" s="15">
-        <v>142782</v>
+        <v>843535</v>
       </c>
       <c r="R25" s="15">
-        <v>8144</v>
+        <v>209032</v>
       </c>
       <c r="S25" s="27">
-        <v>22595</v>
+        <v>161546</v>
       </c>
       <c r="T25" s="28">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="U25" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="V25" s="28">
-        <v>483</v>
+        <v>0.2</v>
+      </c>
+      <c r="V25" s="27">
+        <v>23253</v>
       </c>
       <c r="W25" s="29">
-        <v>2.1</v>
+        <v>14.4</v>
       </c>
       <c r="X25" s="27">
-        <v>2979</v>
+        <v>34615</v>
       </c>
       <c r="Y25" s="29">
-        <v>13.2</v>
+        <v>21.4</v>
       </c>
       <c r="Z25" s="27">
-        <v>15180</v>
+        <v>45769</v>
       </c>
       <c r="AA25" s="29">
-        <v>67.2</v>
+        <v>28.3</v>
       </c>
       <c r="AB25" s="27">
-        <v>2083</v>
+        <v>49704</v>
       </c>
       <c r="AC25" s="29">
-        <v>9.1999999999999993</v>
+        <v>30.8</v>
       </c>
       <c r="AD25" s="28">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="AE25" s="29">
         <v>0.1</v>
       </c>
       <c r="AF25" s="28">
         <f>RANK(AA25,$AA$4:$AA$27,1)</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AG25" s="11">
         <f>(E25/$E$28)*100</f>
-        <v>2.497650891535895</v>
+        <v>115.75472777100828</v>
       </c>
       <c r="AH25" s="11">
         <f>(F25/$F$28)*100</f>
-        <v>2.0500534961156536</v>
+        <v>145.50467745694306</v>
       </c>
       <c r="AI25" s="11">
         <f>F25/E25</f>
-        <v>2184.1475888846189</v>
+        <v>3270.8945596812364</v>
       </c>
       <c r="AJ25" s="11">
         <f>F25/S25</f>
-        <v>14589.274574020801</v>
+        <v>21311.797717058918</v>
       </c>
       <c r="AK25" s="11">
         <f>(K25/E25)*100</f>
-        <v>82.570928799544149</v>
+        <v>60.246616129899564</v>
       </c>
       <c r="AL25" s="11">
         <f>(L25/E25)*100</f>
-        <v>12.109245590554311</v>
+        <v>19.90020587763059</v>
       </c>
       <c r="AM25" s="11">
         <f>(N25/E25)*100</f>
-        <v>1.9088824987079762</v>
+        <v>15.584851130616864</v>
       </c>
       <c r="AN25" s="11">
         <f>(R25/E25)*100</f>
-        <v>5.3960218915229978</v>
+        <v>19.859258365500722</v>
       </c>
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="14">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E26" s="10">
-        <v>103195</v>
+        <v>161503</v>
       </c>
       <c r="F26" s="10">
-        <v>264741407</v>
+        <v>455647067</v>
       </c>
       <c r="G26" s="10">
-        <v>176752528</v>
+        <v>209427473</v>
       </c>
       <c r="H26" s="10">
-        <v>19195240</v>
+        <v>20186278</v>
       </c>
       <c r="I26" s="11">
-        <v>66.760000000000005</v>
+        <v>45.96</v>
       </c>
       <c r="J26" s="11">
-        <v>7.25</v>
+        <v>4.43</v>
       </c>
       <c r="K26" s="16">
-        <v>68603</v>
+        <v>69056</v>
       </c>
       <c r="L26" s="16">
-        <v>27969</v>
+        <v>79150</v>
       </c>
       <c r="M26" s="16">
-        <v>396</v>
+        <v>1234</v>
       </c>
       <c r="N26" s="15">
-        <v>3196</v>
+        <v>5485</v>
       </c>
       <c r="O26" s="16">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="15">
-        <v>97589</v>
+        <v>151749</v>
       </c>
       <c r="R26" s="15">
-        <v>5606</v>
+        <v>9754</v>
       </c>
       <c r="S26" s="27">
-        <v>14953</v>
+        <v>26891</v>
       </c>
       <c r="T26" s="28">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="U26" s="29">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="V26" s="28">
-        <v>464</v>
+        <v>839</v>
       </c>
       <c r="W26" s="29">
         <v>3.1</v>
       </c>
       <c r="X26" s="27">
-        <v>5478</v>
+        <v>14884</v>
       </c>
       <c r="Y26" s="29">
-        <v>36.6</v>
+        <v>55.3</v>
       </c>
       <c r="Z26" s="27">
-        <v>6363</v>
+        <v>6784</v>
       </c>
       <c r="AA26" s="29">
-        <v>42.6</v>
+        <v>25.2</v>
       </c>
       <c r="AB26" s="27">
-        <v>1476</v>
+        <v>2233</v>
       </c>
       <c r="AC26" s="29">
-        <v>9.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD26" s="28">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AE26" s="29">
         <v>0.1</v>
       </c>
       <c r="AF26" s="28">
         <f>RANK(AA26,$AA$4:$AA$27,1)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="11">
         <f>(E26/$E$28)*100</f>
-        <v>1.7077579989666902</v>
+        <v>17.761088652029898</v>
       </c>
       <c r="AH26" s="11">
         <f>(F26/$F$28)*100</f>
-        <v>1.6464214789141391</v>
+        <v>19.257026996298375</v>
       </c>
       <c r="AI26" s="11">
         <f>F26/E26</f>
-        <v>2565.4480062018511</v>
+        <v>2821.291660216838</v>
       </c>
       <c r="AJ26" s="11">
         <f>F26/S26</f>
-        <v>17704.902494482714</v>
+        <v>16944.221747052918</v>
       </c>
       <c r="AK26" s="11">
         <f>(K26/E26)*100</f>
-        <v>66.478996075391251</v>
+        <v>42.758338854386608</v>
       </c>
       <c r="AL26" s="11">
         <f>(L26/E26)*100</f>
-        <v>27.10305731866854</v>
+        <v>49.008377553358137</v>
       </c>
       <c r="AM26" s="11">
         <f>(N26/E26)*100</f>
-        <v>3.0970492756432</v>
+        <v>3.3962217420109844</v>
       </c>
       <c r="AN26" s="11">
         <f>(R26/E26)*100</f>
-        <v>5.4324337419448616</v>
+        <v>6.0395162938149758</v>
       </c>
     </row>
     <row r="27" spans="1:40">
       <c r="A27" s="14">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="20">
+        <v>602495</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1536228472</v>
+      </c>
+      <c r="G27" s="20">
+        <v>939957215</v>
+      </c>
+      <c r="H27" s="20">
+        <v>154853512</v>
+      </c>
+      <c r="I27" s="21">
+        <v>61.19</v>
+      </c>
+      <c r="J27" s="21">
+        <v>10.08</v>
+      </c>
+      <c r="K27" s="22">
+        <v>191310</v>
+      </c>
+      <c r="L27" s="22">
+        <v>378476</v>
+      </c>
+      <c r="M27" s="22">
+        <v>2723</v>
+      </c>
+      <c r="N27" s="26">
+        <v>16663</v>
+      </c>
+      <c r="O27" s="22">
+        <v>479</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>569434</v>
+      </c>
+      <c r="R27" s="26">
+        <v>33061</v>
+      </c>
+      <c r="S27" s="27">
+        <v>80591</v>
+      </c>
+      <c r="T27" s="28">
+        <v>186</v>
+      </c>
+      <c r="U27" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="28">
+        <v>776</v>
+      </c>
+      <c r="W27" s="29">
         <v>1</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="20">
-        <v>51823</v>
-      </c>
-      <c r="F27" s="20">
-        <v>123701646</v>
-      </c>
-      <c r="G27" s="20">
-        <v>26425261</v>
-      </c>
-      <c r="H27" s="20">
-        <v>8434190</v>
-      </c>
-      <c r="I27" s="21">
-        <v>21.36</v>
-      </c>
-      <c r="J27" s="21">
-        <v>6.82</v>
-      </c>
-      <c r="K27" s="22">
-        <v>43045</v>
-      </c>
-      <c r="L27" s="22">
-        <v>6797</v>
-      </c>
-      <c r="M27" s="22">
-        <v>214</v>
-      </c>
-      <c r="N27" s="26">
-        <v>764</v>
-      </c>
-      <c r="O27" s="22">
-        <v>22</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>49974</v>
-      </c>
-      <c r="R27" s="26">
-        <v>1849</v>
-      </c>
-      <c r="S27" s="27">
-        <v>6684</v>
-      </c>
-      <c r="T27" s="28">
-        <v>17</v>
-      </c>
-      <c r="U27" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V27" s="28">
-        <v>130</v>
-      </c>
-      <c r="W27" s="29">
-        <v>1.9</v>
-      </c>
       <c r="X27" s="27">
-        <v>1265</v>
+        <v>63976</v>
       </c>
       <c r="Y27" s="29">
-        <v>18.899999999999999</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="Z27" s="27">
-        <v>4368</v>
+        <v>43826</v>
       </c>
       <c r="AA27" s="29">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AB27" s="28">
-        <v>487</v>
+        <v>8</v>
+      </c>
+      <c r="AB27" s="27">
+        <v>8362</v>
       </c>
       <c r="AC27" s="29">
-        <v>7.3</v>
+        <v>10.4</v>
       </c>
       <c r="AD27" s="28">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="AE27" s="29">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF27" s="28">
         <f>RANK(AA27,$AA$4:$AA$27,1)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="11">
         <f>(E27/$E$28)*100</f>
-        <v>0.85761076389796775</v>
+        <v>66.25862743976738</v>
       </c>
       <c r="AH27" s="11">
         <f>(F27/$F$28)*100</f>
-        <v>0.76929804543734759</v>
+        <v>64.92567449750797</v>
       </c>
       <c r="AI27" s="11">
         <f>F27/E27</f>
-        <v>2387.0027979854503</v>
+        <v>2549.7779599830706</v>
       </c>
       <c r="AJ27" s="11">
         <f>F27/S27</f>
-        <v>18507.128366247754</v>
+        <v>19062.035115583625</v>
       </c>
       <c r="AK27" s="11">
         <f>(K27/E27)*100</f>
-        <v>83.061574976361854</v>
+        <v>31.752960605482205</v>
       </c>
       <c r="AL27" s="11">
         <f>(L27/E27)*100</f>
-        <v>13.115798004746926</v>
+        <v>62.818114673150816</v>
       </c>
       <c r="AM27" s="11">
         <f>(N27/E27)*100</f>
-        <v>1.4742488856299327</v>
+        <v>2.7656661051129054</v>
       </c>
       <c r="AN27" s="11">
         <f>(R27/E27)*100</f>
-        <v>3.5679138606410281</v>
+        <v>5.4873484427256658</v>
       </c>
     </row>
     <row r="28" spans="1:40">
       <c r="A28" s="14">
-        <v>25</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="16">
-        <f>SUM($E$4:E27)</f>
-        <v>6042718</v>
-      </c>
-      <c r="F28" s="25">
-        <v>16079807655</v>
-      </c>
-      <c r="G28" s="25">
-        <v>6663003824</v>
-      </c>
-      <c r="H28" s="25">
-        <v>849834240</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="10">
+        <v>909308</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2366134020</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1241228953</v>
+      </c>
+      <c r="H28" s="10">
+        <v>146063499</v>
       </c>
       <c r="I28" s="11">
-        <f>(G28/F28)*100</f>
-        <v>41.437086605498955</v>
+        <v>52.46</v>
       </c>
       <c r="J28" s="11">
-        <f>(H28/F28)*100</f>
-        <v>5.2851020250590182</v>
-      </c>
-      <c r="K28" s="10">
-        <f>SUM($K$4:K27)</f>
-        <v>3552355</v>
-      </c>
-      <c r="L28" s="10">
-        <f>SUM($L$4:L27)</f>
-        <v>1867592</v>
-      </c>
-      <c r="M28" s="10">
-        <f>SUM($M$4:M27)</f>
-        <v>36188</v>
-      </c>
-      <c r="N28" s="10">
-        <f>SUM($N$4:N27)</f>
-        <v>405682</v>
-      </c>
-      <c r="O28" s="10">
-        <f>SUM($O$4:O27)</f>
-        <v>6746</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="10">
-        <f>SUM($Q$4:Q27)</f>
-        <v>5414285</v>
-      </c>
-      <c r="R28" s="10">
-        <f>SUM($R$4:R27)</f>
-        <v>628433</v>
+        <v>6.17</v>
+      </c>
+      <c r="K28" s="16">
+        <v>245170</v>
+      </c>
+      <c r="L28" s="16">
+        <v>585797</v>
+      </c>
+      <c r="M28" s="16">
+        <v>10770</v>
+      </c>
+      <c r="N28" s="15">
+        <v>41002</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1757</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>736014</v>
+      </c>
+      <c r="R28" s="15">
+        <v>173294</v>
       </c>
       <c r="S28" s="27">
-        <v>893689</v>
-      </c>
-      <c r="T28" s="27">
-        <v>2387</v>
+        <v>132322</v>
+      </c>
+      <c r="T28" s="28">
+        <v>372</v>
       </c>
       <c r="U28" s="29">
         <v>0.3</v>
       </c>
       <c r="V28" s="27">
-        <v>58823</v>
+        <v>3719</v>
       </c>
       <c r="W28" s="29">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="X28" s="27">
-        <v>301542</v>
+        <v>76881</v>
       </c>
       <c r="Y28" s="29">
-        <v>33.700000000000003</v>
+        <v>58.1</v>
       </c>
       <c r="Z28" s="27">
-        <v>333552</v>
+        <v>5494</v>
       </c>
       <c r="AA28" s="29">
-        <v>37.299999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="AB28" s="27">
-        <v>155346</v>
+        <v>43860</v>
       </c>
       <c r="AC28" s="29">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AD28" s="27">
-        <v>1300</v>
+        <v>33.1</v>
+      </c>
+      <c r="AD28" s="28">
+        <v>284</v>
       </c>
       <c r="AE28" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AF28" s="29"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF28" s="28" t="e">
+        <f>RANK(AA28,$AA$4:$AA$27,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AG28" s="11">
-        <f>SUM(AG25:AG27)</f>
-        <v>5.0630196544005539</v>
+        <f>(E28/$E$28)*100</f>
+        <v>100</v>
       </c>
       <c r="AH28" s="11">
-        <f>SUM(AH25:AH27)</f>
-        <v>4.4657730204671404</v>
+        <f>(F28/$F$28)*100</f>
+        <v>100</v>
       </c>
       <c r="AI28" s="11">
         <f>F28/E28</f>
-        <v>2661.0223503727957</v>
+        <v>2602.1260343030085</v>
       </c>
       <c r="AJ28" s="11">
         <f>F28/S28</f>
-        <v>17992.621208272678</v>
+        <v>17881.637369447257</v>
       </c>
       <c r="AK28" s="11">
         <f>(K28/E28)*100</f>
-        <v>58.78737018672723</v>
+        <v>26.962261411974819</v>
       </c>
       <c r="AL28" s="11">
         <f>(L28/E28)*100</f>
-        <v>30.906489430749538</v>
+        <v>64.422285958113207</v>
       </c>
       <c r="AM28" s="11">
         <f>(N28/E28)*100</f>
-        <v>6.7135682982393012</v>
+        <v>4.5091432165998757</v>
       </c>
       <c r="AN28" s="11">
         <f>(R28/E28)*100</f>
-        <v>10.399839939576859</v>
+        <v>19.057788999986801</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4500,87 +4501,87 @@
     <row r="30" spans="1:40">
       <c r="G30" s="7">
         <f>SUM(G6,G9,G11,G13,G16,G18,G21,G23,G24,G26,G27)</f>
-        <v>1617274813</v>
+        <v>9441127334</v>
       </c>
       <c r="H30" s="7">
         <f>SUM(H6,H9,H11,H13,H16,H18,H21,H23,H24,H26,H27)</f>
-        <v>213726180</v>
+        <v>1206239027</v>
       </c>
       <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="1:40">
       <c r="G31" s="7">
         <f>SUM(G5,G6,G7,G10,G16,G17)</f>
-        <v>2902097150</v>
+        <v>806494726</v>
       </c>
       <c r="H31" s="7">
         <f>SUM(H5,H6,H7,H10,H16,H17)</f>
-        <v>391703836</v>
+        <v>84371483</v>
       </c>
     </row>
     <row r="32" spans="1:40">
       <c r="G32" s="7">
         <f>SUM(G5,G6,G7,G17,G19)</f>
-        <v>3401840821</v>
+        <v>375884540</v>
       </c>
       <c r="H32" s="7">
         <f>SUM(H5,H6,H7,H17,H19)</f>
-        <v>467714795</v>
+        <v>45519187</v>
       </c>
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="7">
         <f>SUM(G5,G20)</f>
-        <v>1688689018</v>
+        <v>281948280</v>
       </c>
       <c r="H33" s="7">
         <f>SUM(H5,H20)</f>
-        <v>204834034</v>
+        <v>30713739</v>
       </c>
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="7">
         <f>SUM(G5,G8,G12,G20,G22)</f>
-        <v>2126735314</v>
+        <v>1336453795</v>
       </c>
       <c r="H34" s="7">
         <f>SUM(H5,H8,H12,H20,H22)</f>
-        <v>253750566</v>
+        <v>167241212</v>
       </c>
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="7">
         <f>SUM(G4,G14,G15,G19,G25)</f>
-        <v>1517934420</v>
+        <v>1053642984</v>
       </c>
       <c r="H35" s="7">
         <f>SUM(H4,H14,H15,H19,H25)</f>
-        <v>184367929</v>
+        <v>144824412</v>
       </c>
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="7">
         <f>SUM(G6,G7,G17)</f>
-        <v>2055960523</v>
+        <v>212495569</v>
       </c>
       <c r="H36" s="7">
         <f>SUM(H6,H7,H17)</f>
-        <v>288472743</v>
+        <v>25155271</v>
       </c>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="7">
         <f>SUM(G10,G14,G19)</f>
-        <v>1346164624</v>
+        <v>313156700</v>
       </c>
       <c r="H37" s="7">
         <f>SUM(H10,H14,H19)</f>
-        <v>158024171</v>
+        <v>41200051</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A4:AN28">
-    <sortCondition ref="A4:A28"/>
+    <sortCondition descending="1" ref="AA4:AA28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4817,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF75F89A-452E-4128-AC2C-DFA7E2DE8C92}">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/School Budgets Project/Maryland Counties, Education Budgets.xlsx
+++ b/School Budgets Project/Maryland Counties, Education Budgets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Documents\GitHub\CNS Digital Materials\School Budgets Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halas/Documents/GitHub/CNS-Digital-Materials/School Budgets Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{B5F3A960-6CF0-41EE-8C66-1F59668E5323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB9E79EF-51C7-4A7D-9D0F-BF2601E3364F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33058246-44B1-7940-BC23-48CD4B5E404D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{62C6EF42-4345-4CDB-94D5-D5BE232BAF2F}"/>
+    <workbookView xWindow="4700" yWindow="2420" windowWidth="22700" windowHeight="14600" xr2:uid="{62C6EF42-4345-4CDB-94D5-D5BE232BAF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Maryland Counties, Ed Budgets" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By District'!$A$3:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maryland Counties, Ed Budgets'!$A$3:$AN$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maryland Counties, Ed Budgets'!$A$1:$AN$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
     <author>Horus Alas</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{910525E7-534B-46CC-9BF7-6993519737AC}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{910525E7-534B-46CC-9BF7-6993519737AC}">
       <text>
         <r>
           <rPr>
@@ -71,10 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
-  <si>
-    <t>Maryland Counties by Education Budget, Congressional Representation, Demographics</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>County name</t>
   </si>
@@ -457,9 +453,6 @@
     <t>County Population Percent Asian</t>
   </si>
   <si>
-    <t>County PopulationPercent Hispanic</t>
-  </si>
-  <si>
     <t>County Spending per Capita</t>
   </si>
   <si>
@@ -473,6 +466,18 @@
   </si>
   <si>
     <t>County's Student Diversity, Ranked Highest to Lowest</t>
+  </si>
+  <si>
+    <t>County Population Percent Hispanic</t>
+  </si>
+  <si>
+    <t>Estimated Median Household Income in Inflation-Adjusted 2017 Dollars</t>
+  </si>
+  <si>
+    <t>Median Household Income by County</t>
+  </si>
+  <si>
+    <t>https://factfinder.census.gov/faces/tableservices/jsf/pages/productview.xhtml?pid=ACS_17_5YR_B19013&amp;prodType=table</t>
   </si>
 </sst>
 </file>
@@ -555,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -591,12 +596,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,6 +699,15 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,2409 +1091,2727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC19D3-E0B8-48D9-84CF-6EEA978055E3}">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5"/>
+      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
-    <col min="2" max="2" width="21.9296875" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
-    <col min="4" max="4" width="30.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" customWidth="1"/>
-    <col min="8" max="8" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.265625" customWidth="1"/>
-    <col min="10" max="10" width="7.86328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.46484375" customWidth="1"/>
-    <col min="15" max="16" width="9.06640625" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.796875" customWidth="1"/>
-    <col min="19" max="32" width="9.796875" customWidth="1"/>
-    <col min="33" max="33" width="12.73046875" customWidth="1"/>
-    <col min="34" max="36" width="9.796875" customWidth="1"/>
-    <col min="37" max="37" width="10.3984375" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="32" width="9.83203125" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="34" max="36" width="9.83203125" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" customWidth="1"/>
     <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="39" width="10.46484375" customWidth="1"/>
+    <col min="39" max="39" width="10.5" customWidth="1"/>
     <col min="40" max="40" width="10.33203125" customWidth="1"/>
+    <col min="41" max="41" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:41" ht="85">
+      <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="79.150000000000006">
-      <c r="A3" s="13" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="10">
+        <v>70975</v>
+      </c>
+      <c r="F2" s="10">
+        <v>160139569</v>
+      </c>
+      <c r="G2" s="10">
+        <v>105195752</v>
+      </c>
+      <c r="H2" s="10">
+        <v>11518499</v>
+      </c>
+      <c r="I2" s="11">
+        <v>65.69</v>
+      </c>
+      <c r="J2" s="11">
+        <v>7.19</v>
+      </c>
+      <c r="K2" s="16">
+        <v>62682</v>
+      </c>
+      <c r="L2" s="16">
+        <v>5815</v>
+      </c>
+      <c r="M2" s="16">
+        <v>147</v>
+      </c>
+      <c r="N2" s="15">
+        <v>817</v>
+      </c>
+      <c r="O2" s="16">
+        <v>46</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>69654</v>
+      </c>
+      <c r="R2" s="15">
+        <v>1321</v>
+      </c>
+      <c r="S2" s="27">
+        <v>8629</v>
+      </c>
+      <c r="T2" s="28">
+        <v>14</v>
+      </c>
+      <c r="U2" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="28">
+        <v>82</v>
+      </c>
+      <c r="W2" s="29">
+        <v>1</v>
+      </c>
+      <c r="X2" s="28">
+        <v>284</v>
+      </c>
+      <c r="Y2" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Z2" s="27">
+        <v>7591</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="AD2" s="28">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="28">
+        <f t="shared" ref="AF2:AF25" si="0">RANK(AA2,$AA$2:$AA$25,1)</f>
+        <v>23</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>($E$2/$E$26)*100</f>
+        <v>1.17455423205253</v>
+      </c>
+      <c r="AH2" s="11">
+        <f t="shared" ref="AH2:AH25" si="1">(F2/$F$26)*100</f>
+        <v>0.99590475480721785</v>
+      </c>
+      <c r="AI2" s="11">
+        <f t="shared" ref="AI2:AI26" si="2">F2/E2</f>
+        <v>2256.2813525889396</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f t="shared" ref="AJ2:AJ26" si="3">F2/S2</f>
+        <v>18558.299802989917</v>
+      </c>
+      <c r="AK2" s="11">
+        <f t="shared" ref="AK2:AK26" si="4">(K2/E2)*100</f>
+        <v>88.315604085945751</v>
+      </c>
+      <c r="AL2" s="11">
+        <f t="shared" ref="AL2:AL26" si="5">(L2/E2)*100</f>
+        <v>8.1930257132793241</v>
+      </c>
+      <c r="AM2" s="11">
+        <f t="shared" ref="AM2:AM26" si="6">(N2/E2)*100</f>
+        <v>1.1511095456146532</v>
+      </c>
+      <c r="AN2" s="11">
+        <f t="shared" ref="AN2:AN26" si="7">(R2/E2)*100</f>
+        <v>1.8612187389926031</v>
+      </c>
+      <c r="AO2" s="32">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="29">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10">
+        <v>576031</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1428852510</v>
+      </c>
+      <c r="G3" s="10">
+        <v>447460065</v>
+      </c>
+      <c r="H3" s="10">
+        <v>58770535</v>
+      </c>
+      <c r="I3" s="11">
+        <v>31.32</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K3" s="16">
+        <v>427188</v>
+      </c>
+      <c r="L3" s="16">
+        <v>102870</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2543</v>
+      </c>
+      <c r="N3" s="15">
+        <v>24227</v>
+      </c>
+      <c r="O3" s="16">
+        <v>705</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>529469</v>
+      </c>
+      <c r="R3" s="15">
+        <v>46562</v>
+      </c>
+      <c r="S3" s="27">
+        <v>82777</v>
+      </c>
+      <c r="T3" s="28">
+        <v>232</v>
+      </c>
+      <c r="U3" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="V3" s="27">
+        <v>3088</v>
+      </c>
+      <c r="W3" s="29">
+        <v>3.7</v>
+      </c>
+      <c r="X3" s="27">
+        <v>17296</v>
+      </c>
+      <c r="Y3" s="29">
+        <v>20.9</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>44631</v>
+      </c>
+      <c r="AA3" s="29">
+        <v>53.9</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>12276</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>14.8</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>186</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>($E$3/$E$26)*100</f>
+        <v>9.5326473947650712</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" si="1"/>
+        <v>8.8860049862331518</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" si="2"/>
+        <v>2480.5132189066212</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f t="shared" si="3"/>
+        <v>17261.467678219797</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="shared" si="4"/>
+        <v>74.16059205146945</v>
+      </c>
+      <c r="AL3" s="11">
+        <f t="shared" si="5"/>
+        <v>17.858413870086853</v>
+      </c>
+      <c r="AM3" s="11">
+        <f t="shared" si="6"/>
+        <v>4.2058500323767296</v>
+      </c>
+      <c r="AN3" s="11">
+        <f t="shared" si="7"/>
+        <v>8.0832455197723743</v>
+      </c>
+      <c r="AO3" s="31">
+        <v>94502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="29">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="14">
-        <v>12</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8">
         <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="10">
-        <v>29163</v>
+        <v>828431</v>
       </c>
       <c r="F4" s="10">
-        <v>59252419</v>
+        <v>1970167289</v>
       </c>
       <c r="G4" s="10">
-        <v>25515030</v>
+        <v>808155087</v>
       </c>
       <c r="H4" s="10">
-        <v>4680200</v>
+        <v>104476420</v>
       </c>
       <c r="I4" s="11">
-        <v>43.06</v>
+        <v>41.02</v>
       </c>
       <c r="J4" s="11">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="K4" s="16">
-        <v>28423</v>
+        <v>503788</v>
       </c>
       <c r="L4" s="16">
-        <v>302</v>
+        <v>246356</v>
       </c>
       <c r="M4" s="16">
-        <v>65</v>
+        <v>3637</v>
       </c>
       <c r="N4" s="15">
-        <v>113</v>
+        <v>52462</v>
       </c>
       <c r="O4" s="16">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="15">
-        <v>28807</v>
+        <v>781601</v>
       </c>
       <c r="R4" s="15">
-        <v>356</v>
+        <v>46830</v>
       </c>
       <c r="S4" s="27">
-        <v>3811</v>
+        <v>113282</v>
       </c>
       <c r="T4" s="28">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="U4" s="29">
-        <v>0</v>
-      </c>
-      <c r="V4" s="28">
-        <v>11</v>
+        <v>0.4</v>
+      </c>
+      <c r="V4" s="27">
+        <v>8119</v>
       </c>
       <c r="W4" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="X4" s="28">
-        <v>10</v>
+        <v>7.2</v>
+      </c>
+      <c r="X4" s="27">
+        <v>44297</v>
       </c>
       <c r="Y4" s="29">
-        <v>0.3</v>
+        <v>39.1</v>
       </c>
       <c r="Z4" s="27">
-        <v>3674</v>
+        <v>6420</v>
       </c>
       <c r="AA4" s="29">
-        <v>96.4</v>
-      </c>
-      <c r="AB4" s="28">
-        <v>50</v>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>10979</v>
       </c>
       <c r="AC4" s="29">
-        <v>1.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AD4" s="28">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="AE4" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF4" s="28">
-        <f>RANK(AA4,$AA$4:$AA$27,1)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AG4" s="11">
-        <f>(E4/$E$28)*100</f>
-        <v>3.2071641292059456</v>
+        <f t="shared" ref="AG4:AG25" si="8">(E4/$E$26)*100</f>
+        <v>13.709575724036766</v>
       </c>
       <c r="AH4" s="11">
-        <f>(F4/$F$28)*100</f>
-        <v>2.504186935277656</v>
+        <f t="shared" si="1"/>
+        <v>12.252430696130737</v>
       </c>
       <c r="AI4" s="11">
-        <f>F4/E4</f>
-        <v>2031.7669306998594</v>
+        <f t="shared" si="2"/>
+        <v>2378.1911698137806</v>
       </c>
       <c r="AJ4" s="11">
-        <f>F4/S4</f>
-        <v>15547.735240094464</v>
+        <f t="shared" si="3"/>
+        <v>17391.706440564256</v>
       </c>
       <c r="AK4" s="11">
-        <f>(K4/E4)*100</f>
-        <v>97.46253814765285</v>
+        <f t="shared" si="4"/>
+        <v>60.812306637487012</v>
       </c>
       <c r="AL4" s="11">
-        <f>(L4/E4)*100</f>
-        <v>1.0355587559578918</v>
+        <f t="shared" si="5"/>
+        <v>29.737660710427299</v>
       </c>
       <c r="AM4" s="11">
-        <f>(N4/E4)*100</f>
-        <v>0.38747728285841648</v>
+        <f t="shared" si="6"/>
+        <v>6.3326939720990643</v>
       </c>
       <c r="AN4" s="11">
-        <f>(R4/E4)*100</f>
-        <v>1.2207248911291706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="26.25">
+        <f t="shared" si="7"/>
+        <v>5.652854613118051</v>
+      </c>
+      <c r="AO4" s="30">
+        <v>71810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="29">
       <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="10">
-        <v>70975</v>
+        <v>602495</v>
       </c>
       <c r="F5" s="10">
-        <v>160139569</v>
+        <v>1536228472</v>
       </c>
       <c r="G5" s="10">
-        <v>105195752</v>
+        <v>939957215</v>
       </c>
       <c r="H5" s="10">
-        <v>11518499</v>
+        <v>154853512</v>
       </c>
       <c r="I5" s="11">
-        <v>65.69</v>
+        <v>61.19</v>
       </c>
       <c r="J5" s="11">
-        <v>7.19</v>
+        <v>10.08</v>
       </c>
       <c r="K5" s="16">
-        <v>62682</v>
+        <v>191310</v>
       </c>
       <c r="L5" s="16">
-        <v>5815</v>
+        <v>378476</v>
       </c>
       <c r="M5" s="16">
-        <v>147</v>
+        <v>2723</v>
       </c>
       <c r="N5" s="15">
-        <v>817</v>
+        <v>16663</v>
       </c>
       <c r="O5" s="16">
-        <v>46</v>
+        <v>479</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="15">
-        <v>69654</v>
+        <v>569434</v>
       </c>
       <c r="R5" s="15">
-        <v>1321</v>
+        <v>33061</v>
       </c>
       <c r="S5" s="27">
-        <v>8629</v>
+        <v>80591</v>
       </c>
       <c r="T5" s="28">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="U5" s="29">
         <v>0.2</v>
       </c>
       <c r="V5" s="28">
-        <v>82</v>
+        <v>776</v>
       </c>
       <c r="W5" s="29">
         <v>1</v>
       </c>
-      <c r="X5" s="28">
-        <v>284</v>
+      <c r="X5" s="27">
+        <v>63976</v>
       </c>
       <c r="Y5" s="29">
-        <v>3.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="Z5" s="27">
-        <v>7591</v>
+        <v>43826</v>
       </c>
       <c r="AA5" s="29">
-        <v>88</v>
-      </c>
-      <c r="AB5" s="28">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>8362</v>
       </c>
       <c r="AC5" s="29">
-        <v>1.4</v>
+        <v>10.4</v>
       </c>
       <c r="AD5" s="28">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="AE5" s="29">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF5" s="28">
-        <f>RANK(AA5,$AA$4:$AA$27,1)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AG5" s="11">
-        <f>($E$4/$E$28)*100</f>
-        <v>3.2071641292059456</v>
+        <f t="shared" si="8"/>
+        <v>9.9705960132509901</v>
       </c>
       <c r="AH5" s="11">
-        <f>(F5/$F$28)*100</f>
-        <v>6.7679838777686827</v>
+        <f t="shared" si="1"/>
+        <v>9.5537739316322678</v>
       </c>
       <c r="AI5" s="11">
-        <f>F5/E5</f>
-        <v>2256.2813525889396</v>
+        <f t="shared" si="2"/>
+        <v>2549.7779599830706</v>
       </c>
       <c r="AJ5" s="11">
-        <f>F5/S5</f>
-        <v>18558.299802989917</v>
+        <f t="shared" si="3"/>
+        <v>19062.035115583625</v>
       </c>
       <c r="AK5" s="11">
-        <f>(K5/E5)*100</f>
-        <v>88.315604085945751</v>
+        <f t="shared" si="4"/>
+        <v>31.752960605482205</v>
       </c>
       <c r="AL5" s="11">
-        <f>(L5/E5)*100</f>
-        <v>8.1930257132793241</v>
+        <f t="shared" si="5"/>
+        <v>62.818114673150816</v>
       </c>
       <c r="AM5" s="11">
-        <f>(N5/E5)*100</f>
-        <v>1.1511095456146532</v>
+        <f t="shared" si="6"/>
+        <v>2.7656661051129054</v>
       </c>
       <c r="AN5" s="11">
-        <f>(R5/E5)*100</f>
-        <v>1.8612187389926031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="26.25">
+        <f t="shared" si="7"/>
+        <v>5.4873484427256658</v>
+      </c>
+      <c r="AO5" s="30">
+        <v>46641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10">
-        <v>168429</v>
+        <v>92003</v>
       </c>
       <c r="F6" s="10">
-        <v>381915960</v>
+        <v>272875786</v>
       </c>
       <c r="G6" s="10">
-        <v>153253842</v>
+        <v>109565886</v>
       </c>
       <c r="H6" s="10">
-        <v>13993242</v>
+        <v>10412247</v>
       </c>
       <c r="I6" s="11">
-        <v>40.130000000000003</v>
+        <v>40.15</v>
       </c>
       <c r="J6" s="11">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="K6" s="16">
-        <v>154810</v>
+        <v>74831</v>
       </c>
       <c r="L6" s="16">
-        <v>6417</v>
+        <v>12061</v>
       </c>
       <c r="M6" s="16">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="N6" s="15">
-        <v>3375</v>
+        <v>1738</v>
       </c>
       <c r="O6" s="16">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="15">
-        <v>162181</v>
+        <v>88185</v>
       </c>
       <c r="R6" s="15">
-        <v>6248</v>
+        <v>3818</v>
       </c>
       <c r="S6" s="27">
-        <v>25290</v>
+        <v>15908</v>
       </c>
       <c r="T6" s="28">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U6" s="29">
         <v>0.2</v>
       </c>
       <c r="V6" s="28">
-        <v>698</v>
+        <v>260</v>
       </c>
       <c r="W6" s="29">
-        <v>2.8</v>
-      </c>
-      <c r="X6" s="28">
-        <v>983</v>
+        <v>1.6</v>
+      </c>
+      <c r="X6" s="27">
+        <v>2044</v>
       </c>
       <c r="Y6" s="29">
-        <v>3.9</v>
+        <v>12.8</v>
       </c>
       <c r="Z6" s="27">
-        <v>21112</v>
+        <v>11323</v>
       </c>
       <c r="AA6" s="29">
-        <v>83.5</v>
-      </c>
-      <c r="AB6" s="27">
-        <v>1619</v>
+        <v>71.2</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>933</v>
       </c>
       <c r="AC6" s="29">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AD6" s="28">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="AE6" s="29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" s="28">
-        <f>RANK(AA6,$AA$4:$AA$27,1)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AG6" s="11">
-        <f>(E6/$E$28)*100</f>
-        <v>18.522766763296925</v>
+        <f t="shared" si="8"/>
+        <v>1.5225433323216473</v>
       </c>
       <c r="AH6" s="11">
-        <f>(F6/$F$28)*100</f>
-        <v>16.140926793318325</v>
+        <f t="shared" si="1"/>
+        <v>1.6970090181094273</v>
       </c>
       <c r="AI6" s="11">
-        <f>F6/E6</f>
-        <v>2267.5190139465294</v>
+        <f t="shared" si="2"/>
+        <v>2965.9444365944587</v>
       </c>
       <c r="AJ6" s="11">
-        <f>F6/S6</f>
-        <v>15101.461447212338</v>
+        <f t="shared" si="3"/>
+        <v>17153.368493839578</v>
       </c>
       <c r="AK6" s="11">
-        <f>(K6/E6)*100</f>
-        <v>91.914100303391933</v>
+        <f t="shared" si="4"/>
+        <v>81.335391237242263</v>
       </c>
       <c r="AL6" s="11">
-        <f>(L6/E6)*100</f>
-        <v>3.8099139696845556</v>
+        <f t="shared" si="5"/>
+        <v>13.109355129724031</v>
       </c>
       <c r="AM6" s="11">
-        <f>(N6/E6)*100</f>
-        <v>2.0038116951356355</v>
+        <f t="shared" si="6"/>
+        <v>1.8890688347119118</v>
       </c>
       <c r="AN6" s="11">
-        <f>(R6/E6)*100</f>
-        <v>3.7095749544318379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="26.25">
+        <f t="shared" si="7"/>
+        <v>4.1498646783257067</v>
+      </c>
+      <c r="AO6" s="30">
+        <v>100350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10">
-        <v>50251</v>
+        <v>33304</v>
       </c>
       <c r="F7" s="10">
-        <v>110556617</v>
+        <v>86983406</v>
       </c>
       <c r="G7" s="10">
-        <v>42189288</v>
+        <v>60650625</v>
       </c>
       <c r="H7" s="10">
-        <v>5758609</v>
+        <v>8216333</v>
       </c>
       <c r="I7" s="11">
-        <v>38.159999999999997</v>
+        <v>69.73</v>
       </c>
       <c r="J7" s="11">
-        <v>5.21</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="K7" s="16">
-        <v>45092</v>
+        <v>26957</v>
       </c>
       <c r="L7" s="16">
-        <v>3232</v>
+        <v>4735</v>
       </c>
       <c r="M7" s="16">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="N7" s="15">
-        <v>596</v>
+        <v>404</v>
       </c>
       <c r="O7" s="16">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="P7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>30843</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2461</v>
+      </c>
+      <c r="S7" s="27">
+        <v>5787</v>
+      </c>
+      <c r="T7" s="28">
+        <v>12</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="V7" s="28">
         <v>69</v>
       </c>
-      <c r="Q7" s="15">
-        <v>48179</v>
-      </c>
-      <c r="R7" s="15">
-        <v>2072</v>
-      </c>
-      <c r="S7" s="27">
-        <v>7778</v>
-      </c>
-      <c r="T7" s="28">
+      <c r="W7" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="28">
+        <v>839</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>14.5</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>3629</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>62.7</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>795</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>13.7</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="8"/>
+        <v>0.55114271425540629</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.540948050289349</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="2"/>
+        <v>2611.800564496757</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="3"/>
+        <v>15030.828754104026</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="4"/>
+        <v>80.942229161662254</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="5"/>
+        <v>14.217511410040837</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="6"/>
+        <v>1.2130674993994717</v>
+      </c>
+      <c r="AN7" s="11">
+        <f t="shared" si="7"/>
+        <v>7.38950276243094</v>
+      </c>
+      <c r="AO7" s="30">
+        <v>52469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="V7" s="28">
-        <v>103</v>
-      </c>
-      <c r="W7" s="29">
-        <v>1.3</v>
-      </c>
-      <c r="X7" s="28">
-        <v>454</v>
-      </c>
-      <c r="Y7" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>6192</v>
-      </c>
-      <c r="AA7" s="29">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="AB7" s="28">
-        <v>605</v>
-      </c>
-      <c r="AC7" s="29">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AF7" s="28">
-        <f>RANK(AA7,$AA$4:$AA$27,1)</f>
-        <v>21</v>
-      </c>
-      <c r="AG7" s="11">
-        <f>(E7/$E$28)*100</f>
-        <v>5.5262903218711372</v>
-      </c>
-      <c r="AH7" s="11">
-        <f>(F7/$F$28)*100</f>
-        <v>4.6724579447110104</v>
-      </c>
-      <c r="AI7" s="11">
-        <f>F7/E7</f>
-        <v>2200.0878987482838</v>
-      </c>
-      <c r="AJ7" s="11">
-        <f>F7/S7</f>
-        <v>14214.016070969401</v>
-      </c>
-      <c r="AK7" s="11">
-        <f>(K7/E7)*100</f>
-        <v>89.733537641041977</v>
-      </c>
-      <c r="AL7" s="11">
-        <f>(L7/E7)*100</f>
-        <v>6.431712801735288</v>
-      </c>
-      <c r="AM7" s="11">
-        <f>(N7/E7)*100</f>
-        <v>1.186046048834849</v>
-      </c>
-      <c r="AN7" s="11">
-        <f>(R7/E7)*100</f>
-        <v>4.1233010288352467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="14">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10">
-        <v>102826</v>
+        <v>168429</v>
       </c>
       <c r="F8" s="10">
-        <v>242158606</v>
+        <v>381915960</v>
       </c>
       <c r="G8" s="10">
-        <v>127297491</v>
+        <v>153253842</v>
       </c>
       <c r="H8" s="10">
-        <v>13733046</v>
+        <v>13993242</v>
       </c>
       <c r="I8" s="11">
-        <v>52.57</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="J8" s="11">
-        <v>5.67</v>
+        <v>3.66</v>
       </c>
       <c r="K8" s="16">
-        <v>90978</v>
+        <v>154810</v>
       </c>
       <c r="L8" s="16">
-        <v>7377</v>
+        <v>6417</v>
       </c>
       <c r="M8" s="16">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N8" s="15">
-        <v>1495</v>
+        <v>3375</v>
       </c>
       <c r="O8" s="16">
+        <v>128</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="Q8" s="15">
-        <v>98128</v>
+        <v>162181</v>
       </c>
       <c r="R8" s="15">
-        <v>4698</v>
+        <v>6248</v>
       </c>
       <c r="S8" s="27">
-        <v>15364</v>
+        <v>25290</v>
       </c>
       <c r="T8" s="28">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U8" s="29">
         <v>0.2</v>
       </c>
       <c r="V8" s="28">
-        <v>109</v>
+        <v>698</v>
       </c>
       <c r="W8" s="29">
-        <v>0.7</v>
-      </c>
-      <c r="X8" s="27">
-        <v>1417</v>
+        <v>2.8</v>
+      </c>
+      <c r="X8" s="28">
+        <v>983</v>
       </c>
       <c r="Y8" s="29">
-        <v>9.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="Z8" s="27">
-        <v>11793</v>
+        <v>21112</v>
       </c>
       <c r="AA8" s="29">
-        <v>76.8</v>
+        <v>83.5</v>
       </c>
       <c r="AB8" s="27">
-        <v>1050</v>
+        <v>1619</v>
       </c>
       <c r="AC8" s="29">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" s="28">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AE8" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF8" s="28">
-        <f>RANK(AA8,$AA$4:$AA$27,1)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="AG8" s="11">
-        <f>(E8/$E$28)*100</f>
-        <v>11.308159611484777</v>
+        <f t="shared" si="8"/>
+        <v>2.7873053152571408</v>
       </c>
       <c r="AH8" s="11">
-        <f>(F8/$F$28)*100</f>
-        <v>10.234357139246068</v>
+        <f t="shared" si="1"/>
+        <v>2.3751276644235455</v>
       </c>
       <c r="AI8" s="11">
-        <f>F8/E8</f>
-        <v>2355.0328321630718</v>
+        <f t="shared" si="2"/>
+        <v>2267.5190139465294</v>
       </c>
       <c r="AJ8" s="11">
-        <f>F8/S8</f>
-        <v>15761.42970580578</v>
+        <f t="shared" si="3"/>
+        <v>15101.461447212338</v>
       </c>
       <c r="AK8" s="11">
-        <f>(K8/E8)*100</f>
-        <v>88.477622391224003</v>
+        <f t="shared" si="4"/>
+        <v>91.914100303391933</v>
       </c>
       <c r="AL8" s="11">
-        <f>(L8/E8)*100</f>
-        <v>7.1742555384824849</v>
+        <f t="shared" si="5"/>
+        <v>3.8099139696845556</v>
       </c>
       <c r="AM8" s="11">
-        <f>(N8/E8)*100</f>
-        <v>1.4539124345982533</v>
+        <f t="shared" si="6"/>
+        <v>2.0038116951356355</v>
       </c>
       <c r="AN8" s="11">
-        <f>(R8/E8)*100</f>
-        <v>4.5688833563495619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>3.7095749544318379</v>
+      </c>
+      <c r="AO8" s="30">
+        <v>90510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="10">
-        <v>92003</v>
+        <v>102826</v>
       </c>
       <c r="F9" s="10">
-        <v>272875786</v>
+        <v>242158606</v>
       </c>
       <c r="G9" s="10">
-        <v>109565886</v>
+        <v>127297491</v>
       </c>
       <c r="H9" s="10">
-        <v>10412247</v>
+        <v>13733046</v>
       </c>
       <c r="I9" s="11">
-        <v>40.15</v>
+        <v>52.57</v>
       </c>
       <c r="J9" s="11">
-        <v>3.82</v>
+        <v>5.67</v>
       </c>
       <c r="K9" s="16">
-        <v>74831</v>
+        <v>90978</v>
       </c>
       <c r="L9" s="16">
-        <v>12061</v>
+        <v>7377</v>
       </c>
       <c r="M9" s="16">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N9" s="15">
-        <v>1738</v>
+        <v>1495</v>
       </c>
       <c r="O9" s="16">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="15">
-        <v>88185</v>
+        <v>98128</v>
       </c>
       <c r="R9" s="15">
-        <v>3818</v>
+        <v>4698</v>
       </c>
       <c r="S9" s="27">
-        <v>15908</v>
+        <v>15364</v>
       </c>
       <c r="T9" s="28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U9" s="29">
         <v>0.2</v>
       </c>
       <c r="V9" s="28">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="W9" s="29">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X9" s="27">
-        <v>2044</v>
+        <v>1417</v>
       </c>
       <c r="Y9" s="29">
-        <v>12.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Z9" s="27">
-        <v>11323</v>
+        <v>11793</v>
       </c>
       <c r="AA9" s="29">
-        <v>71.2</v>
-      </c>
-      <c r="AB9" s="28">
-        <v>933</v>
+        <v>76.8</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>1050</v>
       </c>
       <c r="AC9" s="29">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" s="28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE9" s="29">
         <v>0.1</v>
       </c>
       <c r="AF9" s="28">
-        <f>RANK(AA9,$AA$4:$AA$27,1)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="AG9" s="11">
-        <f>(E9/$E$28)*100</f>
-        <v>10.11791384217449</v>
+        <f t="shared" si="8"/>
+        <v>1.7016514753791259</v>
       </c>
       <c r="AH9" s="11">
-        <f>(F9/$F$28)*100</f>
-        <v>11.532558329050186</v>
+        <f t="shared" si="1"/>
+        <v>1.5059794942553373</v>
       </c>
       <c r="AI9" s="11">
-        <f>F9/E9</f>
-        <v>2965.9444365944587</v>
+        <f t="shared" si="2"/>
+        <v>2355.0328321630718</v>
       </c>
       <c r="AJ9" s="11">
-        <f>F9/S9</f>
-        <v>17153.368493839578</v>
+        <f t="shared" si="3"/>
+        <v>15761.42970580578</v>
       </c>
       <c r="AK9" s="11">
-        <f>(K9/E9)*100</f>
-        <v>81.335391237242263</v>
+        <f t="shared" si="4"/>
+        <v>88.477622391224003</v>
       </c>
       <c r="AL9" s="11">
-        <f>(L9/E9)*100</f>
-        <v>13.109355129724031</v>
+        <f t="shared" si="5"/>
+        <v>7.1742555384824849</v>
       </c>
       <c r="AM9" s="11">
-        <f>(N9/E9)*100</f>
-        <v>1.8890688347119118</v>
+        <f t="shared" si="6"/>
+        <v>1.4539124345982533</v>
       </c>
       <c r="AN9" s="11">
-        <f>(R9/E9)*100</f>
-        <v>4.1498646783257067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>4.5688833563495619</v>
+      </c>
+      <c r="AO9" s="30">
+        <v>70516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="14">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10">
-        <v>150926</v>
+        <v>161503</v>
       </c>
       <c r="F10" s="10">
-        <v>329644659</v>
+        <v>455647067</v>
       </c>
       <c r="G10" s="10">
-        <v>194312856</v>
+        <v>209427473</v>
       </c>
       <c r="H10" s="10">
-        <v>24138301</v>
+        <v>20186278</v>
       </c>
       <c r="I10" s="11">
-        <v>58.95</v>
+        <v>45.96</v>
       </c>
       <c r="J10" s="11">
-        <v>7.32</v>
+        <v>4.43</v>
       </c>
       <c r="K10" s="16">
-        <v>124621</v>
+        <v>69056</v>
       </c>
       <c r="L10" s="16">
-        <v>18276</v>
+        <v>79150</v>
       </c>
       <c r="M10" s="16">
-        <v>491</v>
+        <v>1234</v>
       </c>
       <c r="N10" s="15">
-        <v>2881</v>
+        <v>5485</v>
       </c>
       <c r="O10" s="16">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="15">
-        <v>142782</v>
+        <v>151749</v>
       </c>
       <c r="R10" s="15">
-        <v>8144</v>
+        <v>9754</v>
       </c>
       <c r="S10" s="27">
-        <v>22595</v>
+        <v>26891</v>
       </c>
       <c r="T10" s="28">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="U10" s="29">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V10" s="28">
-        <v>483</v>
+        <v>839</v>
       </c>
       <c r="W10" s="29">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="X10" s="27">
-        <v>2979</v>
+        <v>14884</v>
       </c>
       <c r="Y10" s="29">
-        <v>13.2</v>
+        <v>55.3</v>
       </c>
       <c r="Z10" s="27">
-        <v>15180</v>
+        <v>6784</v>
       </c>
       <c r="AA10" s="29">
-        <v>67.2</v>
+        <v>25.2</v>
       </c>
       <c r="AB10" s="27">
-        <v>2083</v>
+        <v>2233</v>
       </c>
       <c r="AC10" s="29">
-        <v>9.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD10" s="28">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="29">
         <v>0.1</v>
       </c>
       <c r="AF10" s="28">
-        <f>RANK(AA10,$AA$4:$AA$27,1)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AG10" s="11">
-        <f>(E10/$E$28)*100</f>
-        <v>16.597896422334347</v>
+        <f t="shared" si="8"/>
+        <v>2.6726880188683304</v>
       </c>
       <c r="AH10" s="11">
-        <f>(F10/$F$28)*100</f>
-        <v>13.931783077950927</v>
+        <f t="shared" si="1"/>
+        <v>2.8336599340995043</v>
       </c>
       <c r="AI10" s="11">
-        <f>F10/E10</f>
-        <v>2184.1475888846189</v>
+        <f t="shared" si="2"/>
+        <v>2821.291660216838</v>
       </c>
       <c r="AJ10" s="11">
-        <f>F10/S10</f>
-        <v>14589.274574020801</v>
+        <f t="shared" si="3"/>
+        <v>16944.221747052918</v>
       </c>
       <c r="AK10" s="11">
-        <f>(K10/E10)*100</f>
-        <v>82.570928799544149</v>
+        <f t="shared" si="4"/>
+        <v>42.758338854386608</v>
       </c>
       <c r="AL10" s="11">
-        <f>(L10/E10)*100</f>
-        <v>12.109245590554311</v>
+        <f t="shared" si="5"/>
+        <v>49.008377553358137</v>
       </c>
       <c r="AM10" s="11">
-        <f>(N10/E10)*100</f>
-        <v>1.9088824987079762</v>
+        <f t="shared" si="6"/>
+        <v>3.3962217420109844</v>
       </c>
       <c r="AN10" s="11">
-        <f>(R10/E10)*100</f>
-        <v>5.3960218915229978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>6.0395162938149758</v>
+      </c>
+      <c r="AO10" s="30">
+        <v>93973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10">
-        <v>51823</v>
+        <v>31998</v>
       </c>
       <c r="F11" s="10">
-        <v>123701646</v>
+        <v>96738409</v>
       </c>
       <c r="G11" s="10">
-        <v>26425261</v>
+        <v>58193219</v>
       </c>
       <c r="H11" s="10">
-        <v>8434190</v>
+        <v>8845417</v>
       </c>
       <c r="I11" s="11">
-        <v>21.36</v>
+        <v>60.16</v>
       </c>
       <c r="J11" s="11">
-        <v>6.82</v>
+        <v>9.14</v>
       </c>
       <c r="K11" s="16">
-        <v>43045</v>
+        <v>21398</v>
       </c>
       <c r="L11" s="16">
-        <v>6797</v>
+        <v>9285</v>
       </c>
       <c r="M11" s="16">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="N11" s="15">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="O11" s="16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="15">
-        <v>49974</v>
+        <v>30095</v>
       </c>
       <c r="R11" s="15">
-        <v>1849</v>
+        <v>1903</v>
       </c>
       <c r="S11" s="27">
-        <v>6684</v>
+        <v>4767</v>
       </c>
       <c r="T11" s="28">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="U11" s="29">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V11" s="28">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="W11" s="29">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="X11" s="27">
-        <v>1265</v>
+        <v>1898</v>
       </c>
       <c r="Y11" s="29">
-        <v>18.899999999999999</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="Z11" s="27">
-        <v>4368</v>
+        <v>2058</v>
       </c>
       <c r="AA11" s="29">
-        <v>65.400000000000006</v>
+        <v>43.2</v>
       </c>
       <c r="AB11" s="28">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="AC11" s="29">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD11" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF11" s="28">
-        <f>RANK(AA11,$AA$4:$AA$27,1)</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AG11" s="11">
-        <f>(E11/$E$28)*100</f>
-        <v>5.699169038433622</v>
+        <f t="shared" si="8"/>
+        <v>0.52952992345497507</v>
       </c>
       <c r="AH11" s="11">
-        <f>(F11/$F$28)*100</f>
-        <v>5.2280067381812971</v>
+        <f t="shared" si="1"/>
+        <v>0.60161421750538968</v>
       </c>
       <c r="AI11" s="11">
-        <f>F11/E11</f>
-        <v>2387.0027979854503</v>
+        <f t="shared" si="2"/>
+        <v>3023.264235264704</v>
       </c>
       <c r="AJ11" s="11">
-        <f>F11/S11</f>
-        <v>18507.128366247754</v>
+        <f t="shared" si="3"/>
+        <v>20293.352003356409</v>
       </c>
       <c r="AK11" s="11">
-        <f>(K11/E11)*100</f>
-        <v>83.061574976361854</v>
+        <f t="shared" si="4"/>
+        <v>66.872929558097383</v>
       </c>
       <c r="AL11" s="11">
-        <f>(L11/E11)*100</f>
-        <v>13.115798004746926</v>
+        <f t="shared" si="5"/>
+        <v>29.017438589911869</v>
       </c>
       <c r="AM11" s="11">
-        <f>(N11/E11)*100</f>
-        <v>1.4742488856299327</v>
+        <f t="shared" si="6"/>
+        <v>1.1938246140383773</v>
       </c>
       <c r="AN11" s="11">
-        <f>(R11/E11)*100</f>
-        <v>3.5679138606410281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>5.9472467029189326</v>
+      </c>
+      <c r="AO11" s="30">
+        <v>50532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="10">
-        <v>112664</v>
+        <v>255648</v>
       </c>
       <c r="F12" s="10">
-        <v>258156621</v>
+        <v>726419264</v>
       </c>
       <c r="G12" s="10">
-        <v>119052937</v>
+        <v>294490549</v>
       </c>
       <c r="H12" s="10">
-        <v>18318007</v>
+        <v>23559412</v>
       </c>
       <c r="I12" s="11">
-        <v>46.12</v>
+        <v>40.54</v>
       </c>
       <c r="J12" s="11">
-        <v>7.1</v>
+        <v>3.24</v>
       </c>
       <c r="K12" s="16">
-        <v>88161</v>
+        <v>207630</v>
       </c>
       <c r="L12" s="16">
-        <v>16569</v>
+        <v>26526</v>
       </c>
       <c r="M12" s="16">
-        <v>516</v>
+        <v>1251</v>
       </c>
       <c r="N12" s="15">
-        <v>3316</v>
+        <v>12284</v>
       </c>
       <c r="O12" s="16">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="15">
-        <v>106669</v>
+        <v>229661</v>
       </c>
       <c r="R12" s="15">
-        <v>5995</v>
+        <v>25987</v>
       </c>
       <c r="S12" s="27">
-        <v>18053</v>
+        <v>42140</v>
       </c>
       <c r="T12" s="28">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="U12" s="29">
         <v>0.3</v>
       </c>
-      <c r="V12" s="28">
-        <v>456</v>
+      <c r="V12" s="27">
+        <v>2268</v>
       </c>
       <c r="W12" s="29">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="X12" s="27">
-        <v>3314</v>
+        <v>5112</v>
       </c>
       <c r="Y12" s="29">
-        <v>18.399999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="Z12" s="27">
-        <v>11580</v>
+        <v>25460</v>
       </c>
       <c r="AA12" s="29">
-        <v>64.099999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="AB12" s="27">
-        <v>1280</v>
+        <v>6958</v>
       </c>
       <c r="AC12" s="29">
-        <v>7.1</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" s="28">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="AE12" s="29">
         <v>0.2</v>
       </c>
       <c r="AF12" s="28">
-        <f>RANK(AA12,$AA$4:$AA$27,1)</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="8"/>
+        <v>4.2306789759177903</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5175867745788656</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="2"/>
+        <v>2841.482288146201</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="3"/>
+        <v>17238.23597532036</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="4"/>
+        <v>81.217142320690954</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="5"/>
+        <v>10.375985730379272</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="6"/>
+        <v>4.8050444360996369</v>
+      </c>
+      <c r="AN12" s="11">
+        <f t="shared" si="7"/>
+        <v>10.165148954812867</v>
+      </c>
+      <c r="AO12" s="30">
+        <v>88502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29163</v>
+      </c>
+      <c r="F13" s="10">
+        <v>59252419</v>
+      </c>
+      <c r="G13" s="10">
+        <v>25515030</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4680200</v>
+      </c>
+      <c r="I13" s="11">
+        <v>43.06</v>
+      </c>
+      <c r="J13" s="11">
+        <v>7.9</v>
+      </c>
+      <c r="K13" s="16">
+        <v>28423</v>
+      </c>
+      <c r="L13" s="16">
+        <v>302</v>
+      </c>
+      <c r="M13" s="16">
+        <v>65</v>
+      </c>
+      <c r="N13" s="15">
+        <v>113</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>28807</v>
+      </c>
+      <c r="R13" s="15">
+        <v>356</v>
+      </c>
+      <c r="S13" s="27">
+        <v>3811</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>11</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="X13" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>3674</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>96.4</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" si="8"/>
+        <v>0.48261394955051684</v>
+      </c>
+      <c r="AH13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.36848960056792424</v>
+      </c>
+      <c r="AI13" s="11">
+        <f t="shared" si="2"/>
+        <v>2031.7669306998594</v>
+      </c>
+      <c r="AJ13" s="11">
+        <f t="shared" si="3"/>
+        <v>15547.735240094464</v>
+      </c>
+      <c r="AK13" s="11">
+        <f t="shared" si="4"/>
+        <v>97.46253814765285</v>
+      </c>
+      <c r="AL13" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0355587559578918</v>
+      </c>
+      <c r="AM13" s="11">
+        <f t="shared" si="6"/>
+        <v>0.38747728285841648</v>
+      </c>
+      <c r="AN13" s="11">
+        <f t="shared" si="7"/>
+        <v>1.2207248911291706</v>
+      </c>
+      <c r="AO13" s="30">
+        <v>48174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AG12" s="11">
-        <f>(E12/$E$28)*100</f>
-        <v>12.390081248597836</v>
-      </c>
-      <c r="AH12" s="11">
-        <f>(F12/$F$28)*100</f>
-        <v>10.910481773978297</v>
-      </c>
-      <c r="AI12" s="11">
-        <f>F12/E12</f>
-        <v>2291.3851895902862</v>
-      </c>
-      <c r="AJ12" s="11">
-        <f>F12/S12</f>
-        <v>14299.929153049354</v>
-      </c>
-      <c r="AK12" s="11">
-        <f>(K12/E12)*100</f>
-        <v>78.251260384861183</v>
-      </c>
-      <c r="AL12" s="11">
-        <f>(L12/E12)*100</f>
-        <v>14.706561102037918</v>
-      </c>
-      <c r="AM12" s="11">
-        <f>(N12/E12)*100</f>
-        <v>2.9432649293474404</v>
-      </c>
-      <c r="AN12" s="11">
-        <f>(R12/E12)*100</f>
-        <v>5.3211318611091389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="14">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10">
-        <v>253956</v>
-      </c>
-      <c r="F13" s="10">
-        <v>583162110</v>
-      </c>
-      <c r="G13" s="10">
-        <v>245422720</v>
-      </c>
-      <c r="H13" s="10">
-        <v>30467316</v>
-      </c>
-      <c r="I13" s="11">
-        <v>42.08</v>
-      </c>
-      <c r="J13" s="11">
-        <v>5.22</v>
-      </c>
-      <c r="K13" s="16">
-        <v>201159</v>
-      </c>
-      <c r="L13" s="16">
-        <v>36883</v>
-      </c>
-      <c r="M13" s="16">
-        <v>824</v>
-      </c>
-      <c r="N13" s="15">
-        <v>7802</v>
-      </c>
-      <c r="O13" s="16">
-        <v>271</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>241919</v>
-      </c>
-      <c r="R13" s="15">
-        <v>12037</v>
-      </c>
-      <c r="S13" s="27">
-        <v>37780</v>
-      </c>
-      <c r="T13" s="28">
-        <v>107</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V13" s="27">
-        <v>1265</v>
-      </c>
-      <c r="W13" s="29">
-        <v>3.3</v>
-      </c>
-      <c r="X13" s="27">
-        <v>7203</v>
-      </c>
-      <c r="Y13" s="29">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Z13" s="27">
-        <v>24076</v>
-      </c>
-      <c r="AA13" s="29">
-        <v>63.7</v>
-      </c>
-      <c r="AB13" s="27">
-        <v>2704</v>
-      </c>
-      <c r="AC13" s="29">
-        <v>7.2</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>79</v>
-      </c>
-      <c r="AE13" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="AF13" s="28">
-        <f>RANK(AA13,$AA$4:$AA$27,1)</f>
-        <v>15</v>
-      </c>
-      <c r="AG13" s="11">
-        <f>(E13/$E$28)*100</f>
-        <v>27.92849067642647</v>
-      </c>
-      <c r="AH13" s="11">
-        <f>(F13/$F$28)*100</f>
-        <v>24.646199457459304</v>
-      </c>
-      <c r="AI13" s="11">
-        <f>F13/E13</f>
-        <v>2296.3116051599491</v>
-      </c>
-      <c r="AJ13" s="11">
-        <f>F13/S13</f>
-        <v>15435.736103758602</v>
-      </c>
-      <c r="AK13" s="11">
-        <f>(K13/E13)*100</f>
-        <v>79.210178141095312</v>
-      </c>
-      <c r="AL13" s="11">
-        <f>(L13/E13)*100</f>
-        <v>14.523382003181654</v>
-      </c>
-      <c r="AM13" s="11">
-        <f>(N13/E13)*100</f>
-        <v>3.0721857329616156</v>
-      </c>
-      <c r="AN13" s="11">
-        <f>(R13/E13)*100</f>
-        <v>4.7397974452267322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="10">
-        <v>33304</v>
+        <v>253956</v>
       </c>
       <c r="F14" s="10">
-        <v>86983406</v>
+        <v>583162110</v>
       </c>
       <c r="G14" s="10">
-        <v>60650625</v>
+        <v>245422720</v>
       </c>
       <c r="H14" s="10">
-        <v>8216333</v>
+        <v>30467316</v>
       </c>
       <c r="I14" s="11">
-        <v>69.73</v>
+        <v>42.08</v>
       </c>
       <c r="J14" s="11">
-        <v>9.4499999999999993</v>
+        <v>5.22</v>
       </c>
       <c r="K14" s="16">
-        <v>26957</v>
+        <v>201159</v>
       </c>
       <c r="L14" s="16">
-        <v>4735</v>
+        <v>36883</v>
       </c>
       <c r="M14" s="16">
-        <v>284</v>
+        <v>824</v>
       </c>
       <c r="N14" s="15">
-        <v>404</v>
+        <v>7802</v>
       </c>
       <c r="O14" s="16">
+        <v>271</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>241919</v>
+      </c>
+      <c r="R14" s="15">
+        <v>12037</v>
+      </c>
+      <c r="S14" s="27">
+        <v>37780</v>
+      </c>
+      <c r="T14" s="28">
         <v>107</v>
       </c>
-      <c r="P14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>30843</v>
-      </c>
-      <c r="R14" s="15">
-        <v>2461</v>
-      </c>
-      <c r="S14" s="27">
-        <v>5787</v>
-      </c>
-      <c r="T14" s="28">
-        <v>12</v>
-      </c>
       <c r="U14" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="V14" s="27">
+        <v>1265</v>
+      </c>
+      <c r="W14" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="X14" s="27">
+        <v>7203</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>24076</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>63.7</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>2704</v>
+      </c>
+      <c r="AC14" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>79</v>
+      </c>
+      <c r="AE14" s="29">
         <v>0.2</v>
       </c>
-      <c r="V14" s="28">
-        <v>69</v>
-      </c>
-      <c r="W14" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="X14" s="28">
-        <v>839</v>
-      </c>
-      <c r="Y14" s="29">
-        <v>14.5</v>
-      </c>
-      <c r="Z14" s="27">
-        <v>3629</v>
-      </c>
-      <c r="AA14" s="29">
-        <v>62.7</v>
-      </c>
-      <c r="AB14" s="28">
-        <v>795</v>
-      </c>
-      <c r="AC14" s="29">
-        <v>13.7</v>
-      </c>
-      <c r="AD14" s="28">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="29">
-        <v>0</v>
-      </c>
       <c r="AF14" s="28">
-        <f>RANK(AA14,$AA$4:$AA$27,1)</f>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="8"/>
+        <v>4.2026783311748126</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6266734186877314</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="2"/>
+        <v>2296.3116051599491</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" si="3"/>
+        <v>15435.736103758602</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="4"/>
+        <v>79.210178141095312</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" si="5"/>
+        <v>14.523382003181654</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="6"/>
+        <v>3.0721857329616156</v>
+      </c>
+      <c r="AN14" s="11">
+        <f t="shared" si="7"/>
+        <v>4.7397974452267322</v>
+      </c>
+      <c r="AO14" s="30">
+        <v>83445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="29">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="AG14" s="11">
-        <f>(E14/$E$28)*100</f>
-        <v>3.6625653793874022</v>
-      </c>
-      <c r="AH14" s="11">
-        <f>(F14/$F$28)*100</f>
-        <v>3.6761825519925537</v>
-      </c>
-      <c r="AI14" s="11">
-        <f>F14/E14</f>
-        <v>2611.800564496757</v>
-      </c>
-      <c r="AJ14" s="11">
-        <f>F14/S14</f>
-        <v>15030.828754104026</v>
-      </c>
-      <c r="AK14" s="11">
-        <f>(K14/E14)*100</f>
-        <v>80.942229161662254</v>
-      </c>
-      <c r="AL14" s="11">
-        <f>(L14/E14)*100</f>
-        <v>14.217511410040837</v>
-      </c>
-      <c r="AM14" s="11">
-        <f>(N14/E14)*100</f>
-        <v>1.2130674993994717</v>
-      </c>
-      <c r="AN14" s="11">
-        <f>(R14/E14)*100</f>
-        <v>7.38950276243094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="14">
-        <v>15</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" s="10">
-        <v>19383</v>
+        <v>323196</v>
       </c>
       <c r="F15" s="10">
-        <v>31332868</v>
+        <v>1023075726</v>
       </c>
       <c r="G15" s="10">
-        <v>10863877</v>
+        <v>307848221</v>
       </c>
       <c r="H15" s="10">
-        <v>2610945</v>
+        <v>29142811</v>
       </c>
       <c r="I15" s="11">
-        <v>34.67</v>
+        <v>30.09</v>
       </c>
       <c r="J15" s="11">
-        <v>8.33</v>
+        <v>2.85</v>
       </c>
       <c r="K15" s="16">
-        <v>15772</v>
+        <v>182930</v>
       </c>
       <c r="L15" s="16">
-        <v>2900</v>
+        <v>64760</v>
       </c>
       <c r="M15" s="16">
-        <v>63</v>
+        <v>1352</v>
       </c>
       <c r="N15" s="15">
-        <v>267</v>
+        <v>61608</v>
       </c>
       <c r="O15" s="16">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="15">
-        <v>18543</v>
+        <v>300097</v>
       </c>
       <c r="R15" s="15">
-        <v>840</v>
+        <v>23099</v>
       </c>
       <c r="S15" s="27">
-        <v>1993</v>
+        <v>56784</v>
       </c>
       <c r="T15" s="28">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="U15" s="29">
         <v>0.2</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="27">
+        <v>12425</v>
+      </c>
+      <c r="W15" s="29">
+        <v>21.9</v>
+      </c>
+      <c r="X15" s="27">
+        <v>13411</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>23.6</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>21161</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>6086</v>
+      </c>
+      <c r="AC15" s="29">
+        <v>10.7</v>
+      </c>
+      <c r="AD15" s="28">
+        <v>75</v>
+      </c>
+      <c r="AE15" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="AF15" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" si="8"/>
+        <v>5.3485203181747023</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.362487337849938</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" si="2"/>
+        <v>3165.4962499535886</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" si="3"/>
+        <v>18016.971787827559</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" si="4"/>
+        <v>56.600329211995195</v>
+      </c>
+      <c r="AL15" s="11">
+        <f t="shared" si="5"/>
+        <v>20.037376700206686</v>
+      </c>
+      <c r="AM15" s="11">
+        <f t="shared" si="6"/>
+        <v>19.062117105409719</v>
+      </c>
+      <c r="AN15" s="11">
+        <f t="shared" si="7"/>
+        <v>7.1470562754489544</v>
+      </c>
+      <c r="AO15" s="30">
+        <v>115576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10">
+        <v>19383</v>
+      </c>
+      <c r="F16" s="10">
+        <v>31332868</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10863877</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2610945</v>
+      </c>
+      <c r="I16" s="11">
+        <v>34.67</v>
+      </c>
+      <c r="J16" s="11">
+        <v>8.33</v>
+      </c>
+      <c r="K16" s="16">
+        <v>15772</v>
+      </c>
+      <c r="L16" s="16">
+        <v>2900</v>
+      </c>
+      <c r="M16" s="16">
+        <v>63</v>
+      </c>
+      <c r="N16" s="15">
+        <v>267</v>
+      </c>
+      <c r="O16" s="16">
+        <v>11</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>18543</v>
+      </c>
+      <c r="R16" s="15">
+        <v>840</v>
+      </c>
+      <c r="S16" s="27">
+        <v>1993</v>
+      </c>
+      <c r="T16" s="28">
+        <v>4</v>
+      </c>
+      <c r="U16" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="V16" s="28">
         <v>10</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W16" s="29">
         <v>0.5</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X16" s="28">
         <v>457</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y16" s="29">
         <v>22.9</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z16" s="27">
         <v>1213</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA16" s="29">
         <v>60.9</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB16" s="28">
         <v>169</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC16" s="29">
         <v>8.5</v>
       </c>
-      <c r="AD15" s="28">
+      <c r="AD16" s="28">
         <v>0</v>
       </c>
-      <c r="AE15" s="29">
+      <c r="AE16" s="29">
         <v>0</v>
       </c>
-      <c r="AF15" s="28">
-        <f>RANK(AA15,$AA$4:$AA$27,1)</f>
+      <c r="AF16" s="28">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AG15" s="11">
-        <f>(E15/$E$28)*100</f>
-        <v>2.1316209689126238</v>
-      </c>
-      <c r="AH15" s="11">
-        <f>(F15/$F$28)*100</f>
-        <v>1.3242220320216689</v>
-      </c>
-      <c r="AI15" s="11">
-        <f>F15/E15</f>
+      <c r="AG16" s="11">
+        <f t="shared" si="8"/>
+        <v>0.32076625121344404</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.19485847512769891</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="2"/>
         <v>1616.5128205128206</v>
       </c>
-      <c r="AJ15" s="11">
-        <f>F15/S15</f>
+      <c r="AJ16" s="11">
+        <f t="shared" si="3"/>
         <v>15721.459106874059</v>
       </c>
-      <c r="AK15" s="11">
-        <f>(K15/E15)*100</f>
+      <c r="AK16" s="11">
+        <f t="shared" si="4"/>
         <v>81.370272919568691</v>
       </c>
-      <c r="AL15" s="11">
-        <f>(L15/E15)*100</f>
+      <c r="AL16" s="11">
+        <f t="shared" si="5"/>
         <v>14.961564257338905</v>
       </c>
-      <c r="AM15" s="11">
-        <f>(N15/E15)*100</f>
+      <c r="AM16" s="11">
+        <f t="shared" si="6"/>
         <v>1.3774957436929267</v>
       </c>
-      <c r="AN15" s="11">
-        <f>(R15/E15)*100</f>
+      <c r="AN16" s="11">
+        <f t="shared" si="7"/>
         <v>4.3336944745395449</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="14">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="AO16" s="30">
+        <v>56638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10">
-        <v>255648</v>
-      </c>
-      <c r="F16" s="10">
-        <v>726419264</v>
-      </c>
-      <c r="G16" s="10">
-        <v>294490549</v>
-      </c>
-      <c r="H16" s="10">
-        <v>23559412</v>
-      </c>
-      <c r="I16" s="11">
-        <v>40.54</v>
-      </c>
-      <c r="J16" s="11">
-        <v>3.24</v>
-      </c>
-      <c r="K16" s="16">
-        <v>207630</v>
-      </c>
-      <c r="L16" s="16">
-        <v>26526</v>
-      </c>
-      <c r="M16" s="16">
-        <v>1251</v>
-      </c>
-      <c r="N16" s="15">
-        <v>12284</v>
-      </c>
-      <c r="O16" s="16">
-        <v>236</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>229661</v>
-      </c>
-      <c r="R16" s="15">
-        <v>25987</v>
-      </c>
-      <c r="S16" s="27">
-        <v>42140</v>
-      </c>
-      <c r="T16" s="28">
-        <v>138</v>
-      </c>
-      <c r="U16" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V16" s="27">
-        <v>2268</v>
-      </c>
-      <c r="W16" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="X16" s="27">
-        <v>5112</v>
-      </c>
-      <c r="Y16" s="29">
-        <v>12.1</v>
-      </c>
-      <c r="Z16" s="27">
-        <v>25460</v>
-      </c>
-      <c r="AA16" s="29">
-        <v>60.4</v>
-      </c>
-      <c r="AB16" s="27">
-        <v>6958</v>
-      </c>
-      <c r="AC16" s="29">
-        <v>16.5</v>
-      </c>
-      <c r="AD16" s="28">
-        <v>79</v>
-      </c>
-      <c r="AE16" s="29">
+      <c r="E17" s="10">
+        <v>1052567</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3442835674</v>
+      </c>
+      <c r="G17" s="10">
+        <v>898420233</v>
+      </c>
+      <c r="H17" s="10">
+        <v>120471517</v>
+      </c>
+      <c r="I17" s="11">
+        <v>26.1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>634136</v>
+      </c>
+      <c r="L17" s="16">
+        <v>209463</v>
+      </c>
+      <c r="M17" s="16">
+        <v>7707</v>
+      </c>
+      <c r="N17" s="15">
+        <v>164041</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1119</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>843535</v>
+      </c>
+      <c r="R17" s="15">
+        <v>209032</v>
+      </c>
+      <c r="S17" s="27">
+        <v>161546</v>
+      </c>
+      <c r="T17" s="28">
+        <v>275</v>
+      </c>
+      <c r="U17" s="29">
         <v>0.2</v>
       </c>
-      <c r="AF16" s="28">
-        <f>RANK(AA16,$AA$4:$AA$27,1)</f>
-        <v>12</v>
-      </c>
-      <c r="AG16" s="11">
-        <f>(E16/$E$28)*100</f>
-        <v>28.114566241581514</v>
-      </c>
-      <c r="AH16" s="11">
-        <f>(F16/$F$28)*100</f>
-        <v>30.700681274173981</v>
-      </c>
-      <c r="AI16" s="11">
-        <f>F16/E16</f>
-        <v>2841.482288146201</v>
-      </c>
-      <c r="AJ16" s="11">
-        <f>F16/S16</f>
-        <v>17238.23597532036</v>
-      </c>
-      <c r="AK16" s="11">
-        <f>(K16/E16)*100</f>
-        <v>81.217142320690954</v>
-      </c>
-      <c r="AL16" s="11">
-        <f>(L16/E16)*100</f>
-        <v>10.375985730379272</v>
-      </c>
-      <c r="AM16" s="11">
-        <f>(N16/E16)*100</f>
-        <v>4.8050444360996369</v>
-      </c>
-      <c r="AN16" s="11">
-        <f>(R16/E16)*100</f>
-        <v>10.165148954812867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="26.25">
-      <c r="A17" s="14">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="10">
-        <v>36968</v>
-      </c>
-      <c r="F17" s="10">
-        <v>66845851</v>
-      </c>
-      <c r="G17" s="10">
-        <v>17052439</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5403420</v>
-      </c>
-      <c r="I17" s="11">
-        <v>25.51</v>
-      </c>
-      <c r="J17" s="11">
-        <v>8.08</v>
-      </c>
-      <c r="K17" s="16">
-        <v>30774</v>
-      </c>
-      <c r="L17" s="16">
-        <v>4782</v>
-      </c>
-      <c r="M17" s="16">
-        <v>149</v>
-      </c>
-      <c r="N17" s="15">
-        <v>529</v>
-      </c>
-      <c r="O17" s="16">
-        <v>76</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>34438</v>
-      </c>
-      <c r="R17" s="15">
-        <v>2530</v>
-      </c>
-      <c r="S17" s="27">
-        <v>4646</v>
-      </c>
-      <c r="T17" s="28">
+      <c r="V17" s="27">
+        <v>23253</v>
+      </c>
+      <c r="W17" s="29">
+        <v>14.4</v>
+      </c>
+      <c r="X17" s="27">
+        <v>34615</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>21.4</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>45769</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>28.3</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>49704</v>
+      </c>
+      <c r="AC17" s="29">
+        <v>30.8</v>
+      </c>
+      <c r="AD17" s="28">
+        <v>88</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="AF17" s="28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U17" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="V17" s="28">
-        <v>90</v>
-      </c>
-      <c r="W17" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="X17" s="28">
-        <v>753</v>
-      </c>
-      <c r="Y17" s="29">
-        <v>16.2</v>
-      </c>
-      <c r="Z17" s="27">
-        <v>2713</v>
-      </c>
-      <c r="AA17" s="29">
-        <v>58.4</v>
-      </c>
-      <c r="AB17" s="28">
-        <v>830</v>
-      </c>
-      <c r="AC17" s="29">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AD17" s="28">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="28">
-        <f>RANK(AA17,$AA$4:$AA$27,1)</f>
-        <v>11</v>
-      </c>
       <c r="AG17" s="11">
-        <f>(E17/$E$28)*100</f>
-        <v>4.0655091564134489</v>
+        <f t="shared" si="8"/>
+        <v>17.418767514883204</v>
       </c>
       <c r="AH17" s="11">
-        <f>(F17/$F$28)*100</f>
-        <v>2.825108401932364</v>
+        <f t="shared" si="1"/>
+        <v>21.410925726648564</v>
       </c>
       <c r="AI17" s="11">
-        <f>F17/E17</f>
-        <v>1808.2084776022507</v>
+        <f t="shared" si="2"/>
+        <v>3270.8945596812364</v>
       </c>
       <c r="AJ17" s="11">
-        <f>F17/S17</f>
-        <v>14387.828454584589</v>
+        <f t="shared" si="3"/>
+        <v>21311.797717058918</v>
       </c>
       <c r="AK17" s="11">
-        <f>(K17/E17)*100</f>
-        <v>83.244968621510495</v>
+        <f t="shared" si="4"/>
+        <v>60.246616129899564</v>
       </c>
       <c r="AL17" s="11">
-        <f>(L17/E17)*100</f>
-        <v>12.935511793983986</v>
+        <f t="shared" si="5"/>
+        <v>19.90020587763059</v>
       </c>
       <c r="AM17" s="11">
-        <f>(N17/E17)*100</f>
-        <v>1.4309673230902402</v>
+        <f t="shared" si="6"/>
+        <v>15.584851130616864</v>
       </c>
       <c r="AN17" s="11">
-        <f>(R17/E17)*100</f>
-        <v>6.843756762605496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>19.859258365500722</v>
+      </c>
+      <c r="AO17" s="30">
+        <v>103178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="14">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="10">
-        <v>576031</v>
+        <v>909308</v>
       </c>
       <c r="F18" s="10">
-        <v>1428852510</v>
+        <v>2366134020</v>
       </c>
       <c r="G18" s="10">
-        <v>447460065</v>
+        <v>1241228953</v>
       </c>
       <c r="H18" s="10">
-        <v>58770535</v>
+        <v>146063499</v>
       </c>
       <c r="I18" s="11">
-        <v>31.32</v>
+        <v>52.46</v>
       </c>
       <c r="J18" s="11">
-        <v>4.1100000000000003</v>
+        <v>6.17</v>
       </c>
       <c r="K18" s="16">
-        <v>427188</v>
+        <v>245170</v>
       </c>
       <c r="L18" s="16">
-        <v>102870</v>
+        <v>585797</v>
       </c>
       <c r="M18" s="16">
-        <v>2543</v>
+        <v>10770</v>
       </c>
       <c r="N18" s="15">
-        <v>24227</v>
+        <v>41002</v>
       </c>
       <c r="O18" s="16">
-        <v>705</v>
+        <v>1757</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="15">
-        <v>529469</v>
+        <v>736014</v>
       </c>
       <c r="R18" s="15">
-        <v>46562</v>
+        <v>173294</v>
       </c>
       <c r="S18" s="27">
-        <v>82777</v>
+        <v>132322</v>
       </c>
       <c r="T18" s="28">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="U18" s="29">
         <v>0.3</v>
       </c>
       <c r="V18" s="27">
-        <v>3088</v>
+        <v>3719</v>
       </c>
       <c r="W18" s="29">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="X18" s="27">
-        <v>17296</v>
+        <v>76881</v>
       </c>
       <c r="Y18" s="29">
-        <v>20.9</v>
+        <v>58.1</v>
       </c>
       <c r="Z18" s="27">
-        <v>44631</v>
+        <v>5494</v>
       </c>
       <c r="AA18" s="29">
-        <v>53.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB18" s="27">
-        <v>12276</v>
+        <v>43860</v>
       </c>
       <c r="AC18" s="29">
-        <v>14.8</v>
+        <v>33.1</v>
       </c>
       <c r="AD18" s="28">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="AE18" s="29">
         <v>0.2</v>
       </c>
       <c r="AF18" s="28">
-        <f>RANK(AA18,$AA$4:$AA$27,1)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AG18" s="11">
-        <f>($E$5/$E$28)*100</f>
-        <v>7.8053860738055754</v>
+        <f t="shared" si="8"/>
+        <v>15.04799661344448</v>
       </c>
       <c r="AH18" s="11">
-        <f>(F18/$F$28)*100</f>
-        <v>60.387640679795474</v>
+        <f t="shared" si="1"/>
+        <v>14.714939822456477</v>
       </c>
       <c r="AI18" s="11">
-        <f>F18/E18</f>
-        <v>2480.5132189066212</v>
+        <f t="shared" si="2"/>
+        <v>2602.1260343030085</v>
       </c>
       <c r="AJ18" s="11">
-        <f>F18/S18</f>
-        <v>17261.467678219797</v>
+        <f t="shared" si="3"/>
+        <v>17881.637369447257</v>
       </c>
       <c r="AK18" s="11">
-        <f>(K18/E18)*100</f>
-        <v>74.16059205146945</v>
+        <f t="shared" si="4"/>
+        <v>26.962261411974819</v>
       </c>
       <c r="AL18" s="11">
-        <f>(L18/E18)*100</f>
-        <v>17.858413870086853</v>
+        <f t="shared" si="5"/>
+        <v>64.422285958113207</v>
       </c>
       <c r="AM18" s="11">
-        <f>(N18/E18)*100</f>
-        <v>4.2058500323767296</v>
+        <f t="shared" si="6"/>
+        <v>4.5091432165998757</v>
       </c>
       <c r="AN18" s="11">
-        <f>(R18/E18)*100</f>
-        <v>8.0832455197723743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="26.25">
+        <f t="shared" si="7"/>
+        <v>19.057788999986801</v>
+      </c>
+      <c r="AO18" s="30">
+        <v>78607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="10">
-        <v>31998</v>
+        <v>50251</v>
       </c>
       <c r="F19" s="10">
-        <v>96738409</v>
+        <v>110556617</v>
       </c>
       <c r="G19" s="10">
-        <v>58193219</v>
+        <v>42189288</v>
       </c>
       <c r="H19" s="10">
-        <v>8845417</v>
+        <v>5758609</v>
       </c>
       <c r="I19" s="11">
-        <v>60.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="J19" s="11">
-        <v>9.14</v>
+        <v>5.21</v>
       </c>
       <c r="K19" s="16">
-        <v>21398</v>
+        <v>45092</v>
       </c>
       <c r="L19" s="16">
-        <v>9285</v>
+        <v>3232</v>
       </c>
       <c r="M19" s="16">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="N19" s="15">
-        <v>382</v>
+        <v>596</v>
       </c>
       <c r="O19" s="16">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="15">
-        <v>30095</v>
+        <v>48179</v>
       </c>
       <c r="R19" s="15">
-        <v>1903</v>
+        <v>2072</v>
       </c>
       <c r="S19" s="27">
-        <v>4767</v>
+        <v>7778</v>
       </c>
       <c r="T19" s="28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U19" s="29">
         <v>0.1</v>
       </c>
       <c r="V19" s="28">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="W19" s="29">
-        <v>1.6</v>
-      </c>
-      <c r="X19" s="27">
-        <v>1898</v>
+        <v>1.3</v>
+      </c>
+      <c r="X19" s="28">
+        <v>454</v>
       </c>
       <c r="Y19" s="29">
-        <v>39.799999999999997</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" s="27">
-        <v>2058</v>
+        <v>6192</v>
       </c>
       <c r="AA19" s="29">
-        <v>43.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="AB19" s="28">
-        <v>393</v>
+        <v>605</v>
       </c>
       <c r="AC19" s="29">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19" s="29">
         <v>0.1</v>
       </c>
       <c r="AF19" s="28">
-        <f>RANK(AA19,$AA$4:$AA$27,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="AG19" s="11">
-        <f>(E19/$E$28)*100</f>
-        <v>3.5189396772050836</v>
+        <f t="shared" si="8"/>
+        <v>0.83159598048427874</v>
       </c>
       <c r="AH19" s="11">
-        <f>(F19/$F$28)*100</f>
-        <v>4.0884585649970919</v>
+        <f t="shared" si="1"/>
+        <v>0.68754937479381184</v>
       </c>
       <c r="AI19" s="11">
-        <f>F19/E19</f>
-        <v>3023.264235264704</v>
+        <f t="shared" si="2"/>
+        <v>2200.0878987482838</v>
       </c>
       <c r="AJ19" s="11">
-        <f>F19/S19</f>
-        <v>20293.352003356409</v>
+        <f t="shared" si="3"/>
+        <v>14214.016070969401</v>
       </c>
       <c r="AK19" s="11">
-        <f>(K19/E19)*100</f>
-        <v>66.872929558097383</v>
+        <f t="shared" si="4"/>
+        <v>89.733537641041977</v>
       </c>
       <c r="AL19" s="11">
-        <f>(L19/E19)*100</f>
-        <v>29.017438589911869</v>
+        <f t="shared" si="5"/>
+        <v>6.431712801735288</v>
       </c>
       <c r="AM19" s="11">
-        <f>(N19/E19)*100</f>
-        <v>1.1938246140383773</v>
+        <f t="shared" si="6"/>
+        <v>1.186046048834849</v>
       </c>
       <c r="AN19" s="11">
-        <f>(R19/E19)*100</f>
-        <v>5.9472467029189326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>4.1233010288352467</v>
+      </c>
+      <c r="AO19" s="30">
+        <v>89241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="14">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="10">
-        <v>103195</v>
+        <v>112664</v>
       </c>
       <c r="F20" s="10">
-        <v>264741407</v>
+        <v>258156621</v>
       </c>
       <c r="G20" s="10">
-        <v>176752528</v>
+        <v>119052937</v>
       </c>
       <c r="H20" s="10">
-        <v>19195240</v>
+        <v>18318007</v>
       </c>
       <c r="I20" s="11">
-        <v>66.760000000000005</v>
+        <v>46.12</v>
       </c>
       <c r="J20" s="11">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="K20" s="16">
-        <v>68603</v>
+        <v>88161</v>
       </c>
       <c r="L20" s="16">
-        <v>27969</v>
+        <v>16569</v>
       </c>
       <c r="M20" s="16">
-        <v>396</v>
+        <v>516</v>
       </c>
       <c r="N20" s="15">
-        <v>3196</v>
+        <v>3316</v>
       </c>
       <c r="O20" s="16">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="15">
-        <v>97589</v>
+        <v>106669</v>
       </c>
       <c r="R20" s="15">
-        <v>5606</v>
+        <v>5995</v>
       </c>
       <c r="S20" s="27">
-        <v>14953</v>
+        <v>18053</v>
       </c>
       <c r="T20" s="28">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="U20" s="29">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V20" s="28">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="W20" s="29">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="X20" s="27">
-        <v>5478</v>
+        <v>3314</v>
       </c>
       <c r="Y20" s="29">
-        <v>36.6</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Z20" s="27">
-        <v>6363</v>
+        <v>11580</v>
       </c>
       <c r="AA20" s="29">
-        <v>42.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AB20" s="27">
-        <v>1476</v>
+        <v>1280</v>
       </c>
       <c r="AC20" s="29">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD20" s="28">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AE20" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF20" s="28">
-        <f>RANK(AA20,$AA$4:$AA$27,1)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AG20" s="11">
-        <f>(E20/$E$28)*100</f>
-        <v>11.348739920906887</v>
+        <f t="shared" si="8"/>
+        <v>1.8644590066920219</v>
       </c>
       <c r="AH20" s="11">
-        <f>(F20/$F$28)*100</f>
-        <v>11.188774801522021</v>
+        <f t="shared" si="1"/>
+        <v>1.6054708273809881</v>
       </c>
       <c r="AI20" s="11">
-        <f>F20/E20</f>
-        <v>2565.4480062018511</v>
+        <f t="shared" si="2"/>
+        <v>2291.3851895902862</v>
       </c>
       <c r="AJ20" s="11">
-        <f>F20/S20</f>
-        <v>17704.902494482714</v>
+        <f t="shared" si="3"/>
+        <v>14299.929153049354</v>
       </c>
       <c r="AK20" s="11">
-        <f>(K20/E20)*100</f>
-        <v>66.478996075391251</v>
+        <f t="shared" si="4"/>
+        <v>78.251260384861183</v>
       </c>
       <c r="AL20" s="11">
-        <f>(L20/E20)*100</f>
-        <v>27.10305731866854</v>
+        <f t="shared" si="5"/>
+        <v>14.706561102037918</v>
       </c>
       <c r="AM20" s="11">
-        <f>(N20/E20)*100</f>
-        <v>3.0970492756432</v>
+        <f t="shared" si="6"/>
+        <v>2.9432649293474404</v>
       </c>
       <c r="AN20" s="11">
-        <f>(R20/E20)*100</f>
-        <v>5.4324337419448616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>5.3211318611091389</v>
+      </c>
+      <c r="AO20" s="30">
+        <v>86508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="10">
         <v>25675</v>
@@ -3487,7 +3847,7 @@
         <v>17</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="15">
         <v>24739</v>
@@ -3535,1053 +3895,758 @@
         <v>0.1</v>
       </c>
       <c r="AF21" s="28">
-        <f>RANK(AA21,$AA$4:$AA$27,1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AG21" s="11">
-        <f>(E21/$E$28)*100</f>
-        <v>2.8235757301156483</v>
+        <f t="shared" si="8"/>
+        <v>0.424891580245843</v>
       </c>
       <c r="AH21" s="11">
-        <f>(F21/$F$28)*100</f>
-        <v>2.630522974349526</v>
+        <f t="shared" si="1"/>
+        <v>0.38707987269142491</v>
       </c>
       <c r="AI21" s="11">
-        <f>F21/E21</f>
+        <f t="shared" si="2"/>
         <v>2424.2141772151899</v>
       </c>
       <c r="AJ21" s="11">
-        <f>F21/S21</f>
+        <f t="shared" si="3"/>
         <v>21330.260109664152</v>
       </c>
       <c r="AK21" s="11">
-        <f>(K21/E21)*100</f>
+        <f t="shared" si="4"/>
         <v>53.90847127555989</v>
       </c>
       <c r="AL21" s="11">
-        <f>(L21/E21)*100</f>
+        <f t="shared" si="5"/>
         <v>42.040895813047712</v>
       </c>
       <c r="AM21" s="11">
-        <f>(N21/E21)*100</f>
+        <f t="shared" si="6"/>
         <v>0.91528724440116849</v>
       </c>
       <c r="AN21" s="11">
-        <f>(R21/E21)*100</f>
+        <f t="shared" si="7"/>
         <v>3.6455696202531649</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AO21" s="30">
+        <v>39239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="14">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22" s="10">
-        <v>828431</v>
+        <v>36968</v>
       </c>
       <c r="F22" s="10">
-        <v>1970167289</v>
+        <v>66845851</v>
       </c>
       <c r="G22" s="10">
-        <v>808155087</v>
+        <v>17052439</v>
       </c>
       <c r="H22" s="10">
-        <v>104476420</v>
+        <v>5403420</v>
       </c>
       <c r="I22" s="11">
-        <v>41.02</v>
+        <v>25.51</v>
       </c>
       <c r="J22" s="11">
-        <v>5.3</v>
+        <v>8.08</v>
       </c>
       <c r="K22" s="16">
-        <v>503788</v>
+        <v>30774</v>
       </c>
       <c r="L22" s="16">
-        <v>246356</v>
+        <v>4782</v>
       </c>
       <c r="M22" s="16">
-        <v>3637</v>
+        <v>149</v>
       </c>
       <c r="N22" s="15">
-        <v>52462</v>
+        <v>529</v>
       </c>
       <c r="O22" s="16">
-        <v>628</v>
+        <v>76</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="15">
-        <v>781601</v>
+        <v>34438</v>
       </c>
       <c r="R22" s="15">
-        <v>46830</v>
+        <v>2530</v>
       </c>
       <c r="S22" s="27">
-        <v>113282</v>
+        <v>4646</v>
       </c>
       <c r="T22" s="28">
-        <v>487</v>
+        <v>4</v>
       </c>
       <c r="U22" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="V22" s="27">
-        <v>8119</v>
+        <v>0.1</v>
+      </c>
+      <c r="V22" s="28">
+        <v>90</v>
       </c>
       <c r="W22" s="29">
-        <v>7.2</v>
-      </c>
-      <c r="X22" s="27">
-        <v>44297</v>
+        <v>1.9</v>
+      </c>
+      <c r="X22" s="28">
+        <v>753</v>
       </c>
       <c r="Y22" s="29">
-        <v>39.1</v>
+        <v>16.2</v>
       </c>
       <c r="Z22" s="27">
-        <v>6420</v>
+        <v>2713</v>
       </c>
       <c r="AA22" s="29">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="AB22" s="27">
-        <v>10979</v>
+        <v>58.4</v>
+      </c>
+      <c r="AB22" s="28">
+        <v>830</v>
       </c>
       <c r="AC22" s="29">
-        <v>9.6999999999999993</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AD22" s="28">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="AE22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="8"/>
+        <v>0.61177768017637091</v>
+      </c>
+      <c r="AH22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41571300126350919</v>
+      </c>
+      <c r="AI22" s="11">
+        <f t="shared" si="2"/>
+        <v>1808.2084776022507</v>
+      </c>
+      <c r="AJ22" s="11">
+        <f t="shared" si="3"/>
+        <v>14387.828454584589</v>
+      </c>
+      <c r="AK22" s="11">
+        <f t="shared" si="4"/>
+        <v>83.244968621510495</v>
+      </c>
+      <c r="AL22" s="11">
+        <f t="shared" si="5"/>
+        <v>12.935511793983986</v>
+      </c>
+      <c r="AM22" s="11">
+        <f t="shared" si="6"/>
+        <v>1.4309673230902402</v>
+      </c>
+      <c r="AN22" s="11">
+        <f t="shared" si="7"/>
+        <v>6.843756762605496</v>
+      </c>
+      <c r="AO22" s="30">
+        <v>65595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="10">
+        <v>150926</v>
+      </c>
+      <c r="F23" s="10">
+        <v>329644659</v>
+      </c>
+      <c r="G23" s="10">
+        <v>194312856</v>
+      </c>
+      <c r="H23" s="10">
+        <v>24138301</v>
+      </c>
+      <c r="I23" s="11">
+        <v>58.95</v>
+      </c>
+      <c r="J23" s="11">
+        <v>7.32</v>
+      </c>
+      <c r="K23" s="16">
+        <v>124621</v>
+      </c>
+      <c r="L23" s="16">
+        <v>18276</v>
+      </c>
+      <c r="M23" s="16">
+        <v>491</v>
+      </c>
+      <c r="N23" s="15">
+        <v>2881</v>
+      </c>
+      <c r="O23" s="16">
+        <v>132</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>142782</v>
+      </c>
+      <c r="R23" s="15">
+        <v>8144</v>
+      </c>
+      <c r="S23" s="27">
+        <v>22595</v>
+      </c>
+      <c r="T23" s="28">
+        <v>27</v>
+      </c>
+      <c r="U23" s="29">
         <v>0.1</v>
       </c>
-      <c r="AF22" s="28">
-        <f>RANK(AA22,$AA$4:$AA$27,1)</f>
-        <v>6</v>
-      </c>
-      <c r="AG22" s="11">
-        <f>(E22/$E$28)*100</f>
-        <v>91.105653969832005</v>
-      </c>
-      <c r="AH22" s="11">
-        <f>(F22/$F$28)*100</f>
-        <v>83.265245009240857</v>
-      </c>
-      <c r="AI22" s="11">
-        <f>F22/E22</f>
-        <v>2378.1911698137806</v>
-      </c>
-      <c r="AJ22" s="11">
-        <f>F22/S22</f>
-        <v>17391.706440564256</v>
-      </c>
-      <c r="AK22" s="11">
-        <f>(K22/E22)*100</f>
-        <v>60.812306637487012</v>
-      </c>
-      <c r="AL22" s="11">
-        <f>(L22/E22)*100</f>
-        <v>29.737660710427299</v>
-      </c>
-      <c r="AM22" s="11">
-        <f>(N22/E22)*100</f>
-        <v>6.3326939720990643</v>
-      </c>
-      <c r="AN22" s="11">
-        <f>(R22/E22)*100</f>
-        <v>5.652854613118051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="14">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="10">
-        <v>323196</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1023075726</v>
-      </c>
-      <c r="G23" s="10">
-        <v>307848221</v>
-      </c>
-      <c r="H23" s="10">
-        <v>29142811</v>
-      </c>
-      <c r="I23" s="11">
-        <v>30.09</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2.85</v>
-      </c>
-      <c r="K23" s="16">
-        <v>182930</v>
-      </c>
-      <c r="L23" s="16">
-        <v>64760</v>
-      </c>
-      <c r="M23" s="16">
-        <v>1352</v>
-      </c>
-      <c r="N23" s="15">
-        <v>61608</v>
-      </c>
-      <c r="O23" s="16">
-        <v>286</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>300097</v>
-      </c>
-      <c r="R23" s="15">
-        <v>23099</v>
-      </c>
-      <c r="S23" s="27">
-        <v>56784</v>
-      </c>
-      <c r="T23" s="28">
-        <v>127</v>
-      </c>
-      <c r="U23" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V23" s="27">
-        <v>12425</v>
+      <c r="V23" s="28">
+        <v>483</v>
       </c>
       <c r="W23" s="29">
-        <v>21.9</v>
+        <v>2.1</v>
       </c>
       <c r="X23" s="27">
-        <v>13411</v>
+        <v>2979</v>
       </c>
       <c r="Y23" s="29">
-        <v>23.6</v>
+        <v>13.2</v>
       </c>
       <c r="Z23" s="27">
-        <v>21161</v>
+        <v>15180</v>
       </c>
       <c r="AA23" s="29">
-        <v>37.299999999999997</v>
+        <v>67.2</v>
       </c>
       <c r="AB23" s="27">
-        <v>6086</v>
+        <v>2083</v>
       </c>
       <c r="AC23" s="29">
-        <v>10.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AD23" s="28">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AE23" s="29">
         <v>0.1</v>
       </c>
       <c r="AF23" s="28">
-        <f>RANK(AA23,$AA$4:$AA$27,1)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AG23" s="11">
-        <f>(E23/$E$28)*100</f>
-        <v>35.54307231433134</v>
+        <f t="shared" si="8"/>
+        <v>2.497650891535895</v>
       </c>
       <c r="AH23" s="11">
-        <f>(F23/$F$28)*100</f>
-        <v>43.23828309606909</v>
+        <f t="shared" si="1"/>
+        <v>2.0500534961156536</v>
       </c>
       <c r="AI23" s="11">
-        <f>F23/E23</f>
-        <v>3165.4962499535886</v>
+        <f t="shared" si="2"/>
+        <v>2184.1475888846189</v>
       </c>
       <c r="AJ23" s="11">
-        <f>F23/S23</f>
-        <v>18016.971787827559</v>
+        <f t="shared" si="3"/>
+        <v>14589.274574020801</v>
       </c>
       <c r="AK23" s="11">
-        <f>(K23/E23)*100</f>
-        <v>56.600329211995195</v>
+        <f t="shared" si="4"/>
+        <v>82.570928799544149</v>
       </c>
       <c r="AL23" s="11">
-        <f>(L23/E23)*100</f>
-        <v>20.037376700206686</v>
+        <f t="shared" si="5"/>
+        <v>12.109245590554311</v>
       </c>
       <c r="AM23" s="11">
-        <f>(N23/E23)*100</f>
-        <v>19.062117105409719</v>
+        <f t="shared" si="6"/>
+        <v>1.9088824987079762</v>
       </c>
       <c r="AN23" s="11">
-        <f>(R23/E23)*100</f>
-        <v>7.1470562754489544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>5.3960218915229978</v>
+      </c>
+      <c r="AO23" s="30">
+        <v>58260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="14">
-        <v>25</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="16">
-        <f>SUM($E$4:E23)</f>
-        <v>3316845</v>
-      </c>
-      <c r="F24" s="25">
-        <v>16079807655</v>
-      </c>
-      <c r="G24" s="25">
-        <v>6663003824</v>
-      </c>
-      <c r="H24" s="25">
-        <v>849834240</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="10">
+        <v>103195</v>
+      </c>
+      <c r="F24" s="10">
+        <v>264741407</v>
+      </c>
+      <c r="G24" s="10">
+        <v>176752528</v>
+      </c>
+      <c r="H24" s="10">
+        <v>19195240</v>
       </c>
       <c r="I24" s="11">
-        <f>(G24/F24)*100</f>
-        <v>41.437086605498955</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J24" s="11">
-        <f>(H24/F24)*100</f>
-        <v>5.2851020250590182</v>
-      </c>
-      <c r="K24" s="10">
-        <f>SUM($K$4:K23)</f>
-        <v>2412683</v>
-      </c>
-      <c r="L24" s="10">
-        <f>SUM($L$4:L23)</f>
-        <v>614706</v>
-      </c>
-      <c r="M24" s="10">
-        <f>SUM($M$4:M23)</f>
-        <v>13754</v>
-      </c>
-      <c r="N24" s="10">
-        <f>SUM($N$4:N23)</f>
-        <v>178491</v>
-      </c>
-      <c r="O24" s="10">
-        <f>SUM($O$4:O23)</f>
-        <v>3164</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="10">
-        <f>SUM($Q$4:Q23)</f>
-        <v>3113553</v>
-      </c>
-      <c r="R24" s="10">
-        <f>SUM($R$4:R23)</f>
-        <v>203292</v>
+        <v>7.25</v>
+      </c>
+      <c r="K24" s="16">
+        <v>68603</v>
+      </c>
+      <c r="L24" s="16">
+        <v>27969</v>
+      </c>
+      <c r="M24" s="16">
+        <v>396</v>
+      </c>
+      <c r="N24" s="15">
+        <v>3196</v>
+      </c>
+      <c r="O24" s="16">
+        <v>143</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>97589</v>
+      </c>
+      <c r="R24" s="15">
+        <v>5606</v>
       </c>
       <c r="S24" s="27">
-        <v>893689</v>
-      </c>
-      <c r="T24" s="27">
-        <v>2387</v>
+        <v>14953</v>
+      </c>
+      <c r="T24" s="28">
+        <v>85</v>
       </c>
       <c r="U24" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V24" s="27">
-        <v>58823</v>
+        <v>0.6</v>
+      </c>
+      <c r="V24" s="28">
+        <v>464</v>
       </c>
       <c r="W24" s="29">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="X24" s="27">
-        <v>301542</v>
+        <v>5478</v>
       </c>
       <c r="Y24" s="29">
-        <v>33.700000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="Z24" s="27">
-        <v>333552</v>
+        <v>6363</v>
       </c>
       <c r="AA24" s="29">
-        <v>37.299999999999997</v>
+        <v>42.6</v>
       </c>
       <c r="AB24" s="27">
-        <v>155346</v>
+        <v>1476</v>
       </c>
       <c r="AC24" s="29">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AD24" s="27">
-        <v>1300</v>
+        <v>9.9</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>12</v>
       </c>
       <c r="AE24" s="29">
         <v>0.1</v>
       </c>
-      <c r="AF24" s="29"/>
+      <c r="AF24" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AG24" s="11">
-        <f>SUM(AG21:AG23)</f>
-        <v>129.47230201427899</v>
+        <f t="shared" si="8"/>
+        <v>1.7077579989666902</v>
       </c>
       <c r="AH24" s="11">
-        <f>SUM(AH21:AH23)</f>
-        <v>129.13405107965949</v>
+        <f t="shared" si="1"/>
+        <v>1.6464214789141391</v>
       </c>
       <c r="AI24" s="11">
-        <f>F24/E24</f>
-        <v>4847.9225453706758</v>
+        <f t="shared" si="2"/>
+        <v>2565.4480062018511</v>
       </c>
       <c r="AJ24" s="11">
-        <f>F24/S24</f>
-        <v>17992.621208272678</v>
+        <f t="shared" si="3"/>
+        <v>17704.902494482714</v>
       </c>
       <c r="AK24" s="11">
-        <f>(K24/E24)*100</f>
-        <v>72.740299893422815</v>
+        <f t="shared" si="4"/>
+        <v>66.478996075391251</v>
       </c>
       <c r="AL24" s="11">
-        <f>(L24/E24)*100</f>
-        <v>18.532852756158338</v>
+        <f t="shared" si="5"/>
+        <v>27.10305731866854</v>
       </c>
       <c r="AM24" s="11">
-        <f>(N24/E24)*100</f>
-        <v>5.3813488420471867</v>
+        <f t="shared" si="6"/>
+        <v>3.0970492756432</v>
       </c>
       <c r="AN24" s="11">
-        <f>(R24/E24)*100</f>
-        <v>6.1290774817635434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>5.4324337419448616</v>
+      </c>
+      <c r="AO24" s="30">
+        <v>54493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="14">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1052567</v>
-      </c>
-      <c r="F25" s="10">
-        <v>3442835674</v>
-      </c>
-      <c r="G25" s="10">
-        <v>898420233</v>
-      </c>
-      <c r="H25" s="10">
-        <v>120471517</v>
-      </c>
-      <c r="I25" s="11">
-        <v>26.1</v>
-      </c>
-      <c r="J25" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="K25" s="16">
-        <v>634136</v>
-      </c>
-      <c r="L25" s="16">
-        <v>209463</v>
-      </c>
-      <c r="M25" s="16">
-        <v>7707</v>
-      </c>
-      <c r="N25" s="15">
-        <v>164041</v>
-      </c>
-      <c r="O25" s="16">
-        <v>1119</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>843535</v>
-      </c>
-      <c r="R25" s="15">
-        <v>209032</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="20">
+        <v>51823</v>
+      </c>
+      <c r="F25" s="20">
+        <v>123701646</v>
+      </c>
+      <c r="G25" s="20">
+        <v>26425261</v>
+      </c>
+      <c r="H25" s="20">
+        <v>8434190</v>
+      </c>
+      <c r="I25" s="21">
+        <v>21.36</v>
+      </c>
+      <c r="J25" s="21">
+        <v>6.82</v>
+      </c>
+      <c r="K25" s="22">
+        <v>43045</v>
+      </c>
+      <c r="L25" s="22">
+        <v>6797</v>
+      </c>
+      <c r="M25" s="22">
+        <v>214</v>
+      </c>
+      <c r="N25" s="26">
+        <v>764</v>
+      </c>
+      <c r="O25" s="22">
+        <v>22</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>49974</v>
+      </c>
+      <c r="R25" s="26">
+        <v>1849</v>
       </c>
       <c r="S25" s="27">
-        <v>161546</v>
+        <v>6684</v>
       </c>
       <c r="T25" s="28">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="U25" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V25" s="27">
-        <v>23253</v>
+        <v>0.3</v>
+      </c>
+      <c r="V25" s="28">
+        <v>130</v>
       </c>
       <c r="W25" s="29">
-        <v>14.4</v>
+        <v>1.9</v>
       </c>
       <c r="X25" s="27">
-        <v>34615</v>
+        <v>1265</v>
       </c>
       <c r="Y25" s="29">
-        <v>21.4</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Z25" s="27">
-        <v>45769</v>
+        <v>4368</v>
       </c>
       <c r="AA25" s="29">
-        <v>28.3</v>
-      </c>
-      <c r="AB25" s="27">
-        <v>49704</v>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AB25" s="28">
+        <v>487</v>
       </c>
       <c r="AC25" s="29">
-        <v>30.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD25" s="28">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="28">
-        <f>RANK(AA25,$AA$4:$AA$27,1)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="AG25" s="11">
-        <f>(E25/$E$28)*100</f>
-        <v>115.75472777100828</v>
+        <f t="shared" si="8"/>
+        <v>0.85761076389796775</v>
       </c>
       <c r="AH25" s="11">
-        <f>(F25/$F$28)*100</f>
-        <v>145.50467745694306</v>
+        <f t="shared" si="1"/>
+        <v>0.76929804543734759</v>
       </c>
       <c r="AI25" s="11">
-        <f>F25/E25</f>
-        <v>3270.8945596812364</v>
+        <f t="shared" si="2"/>
+        <v>2387.0027979854503</v>
       </c>
       <c r="AJ25" s="11">
-        <f>F25/S25</f>
-        <v>21311.797717058918</v>
+        <f t="shared" si="3"/>
+        <v>18507.128366247754</v>
       </c>
       <c r="AK25" s="11">
-        <f>(K25/E25)*100</f>
-        <v>60.246616129899564</v>
+        <f t="shared" si="4"/>
+        <v>83.061574976361854</v>
       </c>
       <c r="AL25" s="11">
-        <f>(L25/E25)*100</f>
-        <v>19.90020587763059</v>
+        <f t="shared" si="5"/>
+        <v>13.115798004746926</v>
       </c>
       <c r="AM25" s="11">
-        <f>(N25/E25)*100</f>
-        <v>15.584851130616864</v>
+        <f t="shared" si="6"/>
+        <v>1.4742488856299327</v>
       </c>
       <c r="AN25" s="11">
-        <f>(R25/E25)*100</f>
-        <v>19.859258365500722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
+        <f t="shared" si="7"/>
+        <v>3.5679138606410281</v>
+      </c>
+      <c r="AO25" s="30">
+        <v>59458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="14">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="10">
-        <v>161503</v>
-      </c>
-      <c r="F26" s="10">
-        <v>455647067</v>
-      </c>
-      <c r="G26" s="10">
-        <v>209427473</v>
-      </c>
-      <c r="H26" s="10">
-        <v>20186278</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="16">
+        <f>SUM($E$2:E25)</f>
+        <v>6042718</v>
+      </c>
+      <c r="F26" s="25">
+        <v>16079807655</v>
+      </c>
+      <c r="G26" s="25">
+        <v>6663003824</v>
+      </c>
+      <c r="H26" s="25">
+        <v>849834240</v>
       </c>
       <c r="I26" s="11">
-        <v>45.96</v>
+        <f>(G26/F26)*100</f>
+        <v>41.437086605498955</v>
       </c>
       <c r="J26" s="11">
-        <v>4.43</v>
-      </c>
-      <c r="K26" s="16">
-        <v>69056</v>
-      </c>
-      <c r="L26" s="16">
-        <v>79150</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1234</v>
-      </c>
-      <c r="N26" s="15">
-        <v>5485</v>
-      </c>
-      <c r="O26" s="16">
-        <v>227</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>151749</v>
-      </c>
-      <c r="R26" s="15">
-        <v>9754</v>
+        <f>(H26/F26)*100</f>
+        <v>5.2851020250590182</v>
+      </c>
+      <c r="K26" s="10">
+        <f>SUM($K$2:K25)</f>
+        <v>3552355</v>
+      </c>
+      <c r="L26" s="10">
+        <f>SUM($L$2:L25)</f>
+        <v>1867592</v>
+      </c>
+      <c r="M26" s="10">
+        <f>SUM($M$2:M25)</f>
+        <v>36188</v>
+      </c>
+      <c r="N26" s="10">
+        <f>SUM($N$2:N25)</f>
+        <v>405682</v>
+      </c>
+      <c r="O26" s="10">
+        <f>SUM($O$2:O25)</f>
+        <v>6746</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="10">
+        <f>SUM($Q$2:Q25)</f>
+        <v>5414285</v>
+      </c>
+      <c r="R26" s="10">
+        <f>SUM($R$2:R25)</f>
+        <v>628433</v>
       </c>
       <c r="S26" s="27">
-        <v>26891</v>
-      </c>
-      <c r="T26" s="28">
-        <v>106</v>
+        <v>893689</v>
+      </c>
+      <c r="T26" s="27">
+        <v>2387</v>
       </c>
       <c r="U26" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="V26" s="28">
-        <v>839</v>
+        <v>0.3</v>
+      </c>
+      <c r="V26" s="27">
+        <v>58823</v>
       </c>
       <c r="W26" s="29">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="X26" s="27">
-        <v>14884</v>
+        <v>301542</v>
       </c>
       <c r="Y26" s="29">
-        <v>55.3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Z26" s="27">
-        <v>6784</v>
+        <v>333552</v>
       </c>
       <c r="AA26" s="29">
-        <v>25.2</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AB26" s="27">
-        <v>2233</v>
+        <v>155346</v>
       </c>
       <c r="AC26" s="29">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD26" s="28">
-        <v>40</v>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD26" s="27">
+        <v>1300</v>
       </c>
       <c r="AE26" s="29">
         <v>0.1</v>
       </c>
-      <c r="AF26" s="28">
-        <f>RANK(AA26,$AA$4:$AA$27,1)</f>
-        <v>2</v>
-      </c>
+      <c r="AF26" s="29"/>
       <c r="AG26" s="11">
-        <f>(E26/$E$28)*100</f>
-        <v>17.761088652029898</v>
+        <f>SUM(AG23:AG25)</f>
+        <v>5.0630196544005539</v>
       </c>
       <c r="AH26" s="11">
-        <f>(F26/$F$28)*100</f>
-        <v>19.257026996298375</v>
+        <f>SUM(AH23:AH25)</f>
+        <v>4.4657730204671404</v>
       </c>
       <c r="AI26" s="11">
-        <f>F26/E26</f>
-        <v>2821.291660216838</v>
+        <f t="shared" si="2"/>
+        <v>2661.0223503727957</v>
       </c>
       <c r="AJ26" s="11">
-        <f>F26/S26</f>
-        <v>16944.221747052918</v>
+        <f t="shared" si="3"/>
+        <v>17992.621208272678</v>
       </c>
       <c r="AK26" s="11">
-        <f>(K26/E26)*100</f>
-        <v>42.758338854386608</v>
+        <f t="shared" si="4"/>
+        <v>58.78737018672723</v>
       </c>
       <c r="AL26" s="11">
-        <f>(L26/E26)*100</f>
-        <v>49.008377553358137</v>
+        <f t="shared" si="5"/>
+        <v>30.906489430749538</v>
       </c>
       <c r="AM26" s="11">
-        <f>(N26/E26)*100</f>
-        <v>3.3962217420109844</v>
+        <f t="shared" si="6"/>
+        <v>6.7135682982393012</v>
       </c>
       <c r="AN26" s="11">
-        <f>(R26/E26)*100</f>
-        <v>6.0395162938149758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="A27" s="14">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="20">
-        <v>602495</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1536228472</v>
-      </c>
-      <c r="G27" s="20">
-        <v>939957215</v>
-      </c>
-      <c r="H27" s="20">
-        <v>154853512</v>
-      </c>
-      <c r="I27" s="21">
-        <v>61.19</v>
-      </c>
-      <c r="J27" s="21">
-        <v>10.08</v>
-      </c>
-      <c r="K27" s="22">
-        <v>191310</v>
-      </c>
-      <c r="L27" s="22">
-        <v>378476</v>
-      </c>
-      <c r="M27" s="22">
-        <v>2723</v>
-      </c>
-      <c r="N27" s="26">
-        <v>16663</v>
-      </c>
-      <c r="O27" s="22">
-        <v>479</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>569434</v>
-      </c>
-      <c r="R27" s="26">
-        <v>33061</v>
-      </c>
-      <c r="S27" s="27">
-        <v>80591</v>
-      </c>
-      <c r="T27" s="28">
-        <v>186</v>
-      </c>
-      <c r="U27" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="V27" s="28">
-        <v>776</v>
-      </c>
-      <c r="W27" s="29">
-        <v>1</v>
-      </c>
-      <c r="X27" s="27">
-        <v>63976</v>
-      </c>
-      <c r="Y27" s="29">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="Z27" s="27">
-        <v>43826</v>
-      </c>
-      <c r="AA27" s="29">
-        <v>8</v>
-      </c>
-      <c r="AB27" s="27">
-        <v>8362</v>
-      </c>
-      <c r="AC27" s="29">
-        <v>10.4</v>
-      </c>
-      <c r="AD27" s="28">
-        <v>163</v>
-      </c>
-      <c r="AE27" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="AF27" s="28">
-        <f>RANK(AA27,$AA$4:$AA$27,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AG27" s="11">
-        <f>(E27/$E$28)*100</f>
-        <v>66.25862743976738</v>
-      </c>
-      <c r="AH27" s="11">
-        <f>(F27/$F$28)*100</f>
-        <v>64.92567449750797</v>
-      </c>
-      <c r="AI27" s="11">
-        <f>F27/E27</f>
-        <v>2549.7779599830706</v>
-      </c>
-      <c r="AJ27" s="11">
-        <f>F27/S27</f>
-        <v>19062.035115583625</v>
-      </c>
-      <c r="AK27" s="11">
-        <f>(K27/E27)*100</f>
-        <v>31.752960605482205</v>
-      </c>
-      <c r="AL27" s="11">
-        <f>(L27/E27)*100</f>
-        <v>62.818114673150816</v>
-      </c>
-      <c r="AM27" s="11">
-        <f>(N27/E27)*100</f>
-        <v>2.7656661051129054</v>
-      </c>
-      <c r="AN27" s="11">
-        <f>(R27/E27)*100</f>
-        <v>5.4873484427256658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
-      <c r="A28" s="14">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="10">
-        <v>909308</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2366134020</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1241228953</v>
-      </c>
-      <c r="H28" s="10">
-        <v>146063499</v>
-      </c>
-      <c r="I28" s="11">
-        <v>52.46</v>
-      </c>
-      <c r="J28" s="11">
-        <v>6.17</v>
-      </c>
-      <c r="K28" s="16">
-        <v>245170</v>
-      </c>
-      <c r="L28" s="16">
-        <v>585797</v>
-      </c>
-      <c r="M28" s="16">
-        <v>10770</v>
-      </c>
-      <c r="N28" s="15">
-        <v>41002</v>
-      </c>
-      <c r="O28" s="16">
-        <v>1757</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>736014</v>
-      </c>
-      <c r="R28" s="15">
-        <v>173294</v>
-      </c>
-      <c r="S28" s="27">
-        <v>132322</v>
-      </c>
-      <c r="T28" s="28">
-        <v>372</v>
-      </c>
-      <c r="U28" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="V28" s="27">
-        <v>3719</v>
-      </c>
-      <c r="W28" s="29">
-        <v>2.8</v>
-      </c>
-      <c r="X28" s="27">
-        <v>76881</v>
-      </c>
-      <c r="Y28" s="29">
-        <v>58.1</v>
-      </c>
-      <c r="Z28" s="27">
-        <v>5494</v>
-      </c>
-      <c r="AA28" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="AB28" s="27">
-        <v>43860</v>
-      </c>
-      <c r="AC28" s="29">
-        <v>33.1</v>
-      </c>
-      <c r="AD28" s="28">
-        <v>284</v>
-      </c>
-      <c r="AE28" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="AF28" s="28" t="e">
-        <f>RANK(AA28,$AA$4:$AA$27,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG28" s="11">
-        <f>(E28/$E$28)*100</f>
-        <v>100</v>
-      </c>
-      <c r="AH28" s="11">
-        <f>(F28/$F$28)*100</f>
-        <v>100</v>
-      </c>
-      <c r="AI28" s="11">
-        <f>F28/E28</f>
-        <v>2602.1260343030085</v>
-      </c>
-      <c r="AJ28" s="11">
-        <f>F28/S28</f>
-        <v>17881.637369447257</v>
-      </c>
-      <c r="AK28" s="11">
-        <f>(K28/E28)*100</f>
-        <v>26.962261411974819</v>
-      </c>
-      <c r="AL28" s="11">
-        <f>(L28/E28)*100</f>
-        <v>64.422285958113207</v>
-      </c>
-      <c r="AM28" s="11">
-        <f>(N28/E28)*100</f>
-        <v>4.5091432165998757</v>
-      </c>
-      <c r="AN28" s="11">
-        <f>(R28/E28)*100</f>
-        <v>19.057788999986801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="E29" s="19"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-    </row>
-    <row r="30" spans="1:40">
-      <c r="G30" s="7">
-        <f>SUM(G6,G9,G11,G13,G16,G18,G21,G23,G24,G26,G27)</f>
-        <v>9441127334</v>
-      </c>
-      <c r="H30" s="7">
-        <f>SUM(H6,H9,H11,H13,H16,H18,H21,H23,H24,H26,H27)</f>
-        <v>1206239027</v>
-      </c>
-      <c r="AK30" s="6"/>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="G31" s="7">
-        <f>SUM(G5,G6,G7,G10,G16,G17)</f>
-        <v>806494726</v>
-      </c>
-      <c r="H31" s="7">
-        <f>SUM(H5,H6,H7,H10,H16,H17)</f>
-        <v>84371483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="G32" s="7">
-        <f>SUM(G5,G6,G7,G17,G19)</f>
-        <v>375884540</v>
-      </c>
-      <c r="H32" s="7">
-        <f>SUM(H5,H6,H7,H17,H19)</f>
-        <v>45519187</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="7">
-        <f>SUM(G5,G20)</f>
-        <v>281948280</v>
-      </c>
-      <c r="H33" s="7">
-        <f>SUM(H5,H20)</f>
-        <v>30713739</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34" s="7">
-        <f>SUM(G5,G8,G12,G20,G22)</f>
-        <v>1336453795</v>
-      </c>
-      <c r="H34" s="7">
-        <f>SUM(H5,H8,H12,H20,H22)</f>
-        <v>167241212</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="7">
-        <f>SUM(G4,G14,G15,G19,G25)</f>
-        <v>1053642984</v>
-      </c>
-      <c r="H35" s="7">
-        <f>SUM(H4,H14,H15,H19,H25)</f>
-        <v>144824412</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="7">
-        <f>SUM(G6,G7,G17)</f>
-        <v>212495569</v>
-      </c>
-      <c r="H36" s="7">
-        <f>SUM(H6,H7,H17)</f>
-        <v>25155271</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8">
-      <c r="G37" s="7">
-        <f>SUM(G10,G14,G19)</f>
-        <v>313156700</v>
-      </c>
-      <c r="H37" s="7">
-        <f>SUM(H10,H14,H19)</f>
-        <v>41200051</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>10.399839939576859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="E27" s="19"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="AK28" s="6"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A4:AN28">
-    <sortCondition descending="1" ref="AA4:AA28"/>
+  <sortState ref="A2:AN26">
+    <sortCondition descending="1" ref="AA2:AA26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4597,176 +4662,176 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="48.53125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5"/>
       <c r="C1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5">
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="42.75">
+    </row>
+    <row r="4" spans="1:5" ht="32">
       <c r="A4" s="17">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32">
       <c r="A5" s="17">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32">
       <c r="A6" s="17">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="17">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="17">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="17">
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="17">
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="17">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4816,67 +4881,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF75F89A-452E-4128-AC2C-DFA7E2DE8C92}">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4887,8 +4962,9 @@
     <hyperlink ref="A10" r:id="rId4" xr:uid="{499DD49E-577D-4C39-A58D-85D8C1A4DE82}"/>
     <hyperlink ref="A13" r:id="rId5" xr:uid="{C03C99F8-F9E8-48F6-B0CB-2405E4DC46F4}"/>
     <hyperlink ref="A16" r:id="rId6" xr:uid="{5C7FA82F-05AB-466F-A914-E4B5F18399DE}"/>
+    <hyperlink ref="A19" r:id="rId7" xr:uid="{F5242394-2902-7D4D-80CE-5D5783C0EBBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>